--- a/cyx_jobstreet_jobs_selenium.xlsx
+++ b/cyx_jobstreet_jobs_selenium.xlsx
@@ -478,22 +478,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Senior Planning Engineer ( Waterfront Project )</t>
+          <t>Store Assistant</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>81997354</t>
+          <t>81997313</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997354?type=standard&amp;ref=search-standalone#sol=0c0f0509c4e913b127178d3911200db74fe40ab4</t>
+          <t>https://sg.jobstreet.com/job/81997313?type=standard&amp;ref=search-standalone#sol=0ea834d4b0af42cb92b964ac8d3d3761bb5328f9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
+          <t>SIMCC PTE LTD</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -508,34 +508,34 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Sentosa', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>30m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Security Systems Project Director</t>
+          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>81997351</t>
+          <t>81997306</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997351?type=standard&amp;ref=search-standalone#sol=f74181f39bbcc404adb9bbd2f4c437e1106649cf</t>
+          <t>https://sg.jobstreet.com/job/81997306?type=standard&amp;ref=search-standalone#sol=9ebc3980000e6c3b2fc39c495667941098c6b48f</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -550,34 +550,34 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Commonwealth', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>30m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Store Assistant</t>
+          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>81997313</t>
+          <t>81997291</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997313?type=standard&amp;ref=search-standalone#sol=6de2afa0c6077db4dd752d762266022f96e7ecf4</t>
+          <t>https://sg.jobstreet.com/job/81997291?type=standard&amp;ref=search-standalone#sol=f97c2ab0eb257a8f5cfe5e5c614340824a0c2a1e</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SIMCC PTE LTD</t>
+          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -592,34 +592,34 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Paya Lebar', ', East Region']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>34m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
+          <t>Project Manager (Security Technology)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>81997306</t>
+          <t>81997279</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997306?type=standard&amp;ref=search-standalone#sol=89ec7ead2057a713ace32901a0e16b205bb9fc9a</t>
+          <t>https://sg.jobstreet.com/job/81997279?type=standard&amp;ref=search-standalone#sol=6ef35921732e2f7a99cfa439eb38f181fdfcdc97</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -634,34 +634,34 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Commonwealth', ', Central Region']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>37m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>81997291</t>
+          <t>81997278</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997291?type=standard&amp;ref=search-standalone#sol=d7d57223583d23510476fe8aebdfdfd9e9141c58</t>
+          <t>https://sg.jobstreet.com/job/81997278?type=standard&amp;ref=search-standalone#sol=be4c0e30df306d136f033fa0e5f0903bdf576873</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -676,34 +676,34 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Paya Lebar', ', East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>41m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Project Manager (Security Technology)</t>
+          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>81997279</t>
+          <t>81997121</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997279?type=standard&amp;ref=search-standalone#sol=c0af440fdd7c1cfa9b7ed55307a727823c0b8aaf</t>
+          <t>https://sg.jobstreet.com/job/81997121?type=standard&amp;ref=search-standalone#sol=c2c0882f9ea47e087c0c8aee3ef10743969ca2dc</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -718,29 +718,29 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Commonwealth', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>43m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Executive / Senior Executive, Property Management</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>81997278</t>
+          <t>81997091</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997278?type=standard&amp;ref=search-standalone#sol=5a64a68e7dc5bcf8bf89caacc006d29e9b77e814</t>
+          <t>https://sg.jobstreet.com/job/81997091?type=standard&amp;ref=search-standalone#sol=af7ae5b0a6d19a2c8e69363e325bc7fd3001c7b0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>44m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
+          <t>Sales Consultant</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>81997121</t>
+          <t>81997077</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997121?type=standard&amp;ref=search-standalone#sol=034eb4383c244cae130c8a2cdd5b4c5f45b6cc77</t>
+          <t>https://sg.jobstreet.com/job/81997077?type=standard&amp;ref=search-standalone#sol=8e5dc388005df86e06146c8cc1b4e31e90944d11</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Trusty Cars Ltd.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -802,34 +802,34 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Bishan', ', Central Region']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>52m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Property Management</t>
+          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>81997091</t>
+          <t>81997068</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997091?type=standard&amp;ref=search-standalone#sol=919ff8a37e8dd488f147d27a964c63024c0e8e9e</t>
+          <t>https://sg.jobstreet.com/job/81997068?type=standard&amp;ref=search-standalone#sol=a6862d2f241977e57ffe892ae31d1a9508b341a3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -844,34 +844,34 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>55m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sales Consultant</t>
+          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>81997077</t>
+          <t>81997051</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997077?type=standard&amp;ref=search-standalone#sol=d2773b01f82d722fa31c46a694ba5f9c94571fb8</t>
+          <t>https://sg.jobstreet.com/job/81997051?type=standard&amp;ref=search-standalone#sol=4c3ef5fda8c412a63eae39f94df9deab0357792f</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Trusty Cars Ltd.</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -886,34 +886,34 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Bishan', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>58m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
+          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>81997068</t>
+          <t>81997037</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997068?type=standard&amp;ref=search-standalone#sol=de03a8153c3e9377b782ec6da2486d3f992f5d85</t>
+          <t>https://sg.jobstreet.com/job/81997037?type=standard&amp;ref=search-standalone#sol=4298cdbbc7c86b77c317eda1221d0c851f3314b2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>RECRUIT FAST PTE. LTD.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -940,17 +940,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
+          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>81997051</t>
+          <t>81997030</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997051?type=standard&amp;ref=search-standalone#sol=34feb22a52edea174efba821ce1ea6575c69c448</t>
+          <t>https://sg.jobstreet.com/job/81997030?type=standard&amp;ref=search-standalone#sol=9bf87f3081f167edf36d61daa93743bb3cffffe7</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -982,22 +982,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
+          <t>Sales Executive (Based in Singapore)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>81997037</t>
+          <t>81997023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997037?type=standard&amp;ref=search-standalone#sol=6d706a33dd1f96646f353e4184139e7ebdd37a94</t>
+          <t>https://sg.jobstreet.com/job/81997023?type=standard&amp;ref=search-standalone#sol=7141a34541339548152d971bce99752568fbed39</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RECRUIT FAST PTE. LTD.</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Kaki Bukit', ', East Region']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1024,22 +1024,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
+          <t>Senior Mechanical Engineer (Semiconductor)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>81997030</t>
+          <t>81997020</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997030?type=standard&amp;ref=search-standalone#sol=569c650859dc10cab999c2d6a7a63961222494a4</t>
+          <t>https://sg.jobstreet.com/job/81997020?type=standard&amp;ref=search-standalone#sol=24020285bbcc2b19d268ead38cff1f23c4a57013</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Talent Spot Group Pte Ltd</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1066,22 +1066,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sales Executive (Based in Singapore)</t>
+          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>81997023</t>
+          <t>81997004</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997023?type=standard&amp;ref=search-standalone#sol=f7e30b40884bcd8b58a3b8d7799f678ecf46d66a</t>
+          <t>https://sg.jobstreet.com/job/81997004?type=standard&amp;ref=search-standalone#sol=43df580ceddcafcd440795c4de01877e01927c4f</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>ALWAYSHIRED PTE. LTD.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ', East Region']</t>
+          <t>['Kallang', ', Central Region']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1108,22 +1108,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Senior Mechanical Engineer (Semiconductor)</t>
+          <t>Sales Engineer</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>81997020</t>
+          <t>81983111</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997020?type=standard&amp;ref=search-standalone#sol=f4c499260b093632f8765f66851a643a1ad1744b</t>
+          <t>https://sg.jobstreet.com/job/81983111?type=standard&amp;ref=search-standalone#sol=68e9ecd83e4873720b30341f28e0089af3e37e28</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Talent Spot Group Pte Ltd</t>
+          <t>Electronics &amp; Engineering Pte Ltd</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['North Region']</t>
+          <t>['Outram', ', Central Region']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1150,22 +1150,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
+          <t>Accountant (Based in Singapore)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>81997004</t>
+          <t>81996973</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997004?type=standard&amp;ref=search-standalone#sol=b59cafd0e848819a257b6152f2f353af2b99a2de</t>
+          <t>https://sg.jobstreet.com/job/81996973?type=standard&amp;ref=search-standalone#sol=b88ff1955508dd2efa0646f5d134f03ee8a26002</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ALWAYSHIRED PTE. LTD.</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['Kallang', ', Central Region']</t>
+          <t>['Kaki Bukit', ', East Region']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1192,22 +1192,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>81983111</t>
+          <t>81996969</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81983111?type=standard&amp;ref=search-standalone#sol=41efef6e0e364d29931043605022e747bd4065d8</t>
+          <t>https://sg.jobstreet.com/job/81996969?type=standard&amp;ref=search-standalone#sol=f6e1478cd382c57eed17eb8d5e02a07b1ea64d82</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Electronics &amp; Engineering Pte Ltd</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['Outram', ', Central Region']</t>
+          <t>['Jurong Island And Bukom', ', West Region']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1234,22 +1234,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Accountant (Based in Singapore)</t>
+          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>81996973</t>
+          <t>81996957</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996973?type=standard&amp;ref=search-standalone#sol=7d7e1675e106899f473864757dc82fd6ba8ef767</t>
+          <t>https://sg.jobstreet.com/job/81996957?type=standard&amp;ref=search-standalone#sol=4138d2a64e0cc4991c1c71183013a0d4fa2a4377</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>SAFRA National Service Association</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1259,12 +1259,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ', East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1276,22 +1276,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
+          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>81996969</t>
+          <t>81996948</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996969?type=standard&amp;ref=search-standalone#sol=fb4c6ddfb212aa80d5e0414f27737ce2e1cbfd41</t>
+          <t>https://sg.jobstreet.com/job/81996948?type=standard&amp;ref=search-standalone#sol=365eb6131b8f9e5138fefb07b13a7f1310393dca</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['Jurong Island And Bukom', ', West Region']</t>
+          <t>['Tai Seng', ', North-East Region']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1318,22 +1318,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
+          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>81996957</t>
+          <t>81996942</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996957?type=standard&amp;ref=search-standalone#sol=0c028c83de86bbf3234a9f7d7884145a90ef0fa9</t>
+          <t>https://sg.jobstreet.com/job/81996942?type=standard&amp;ref=search-standalone#sol=1e9aa941b826f031c1c452f5ad715efe6ab03070</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SAFRA National Service Association</t>
+          <t>ScienTec Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Bedok', ', East Region']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1360,22 +1360,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
+          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>81996948</t>
+          <t>81996941</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996948?type=standard&amp;ref=search-standalone#sol=a215cf7ba879198fd1d7b3973526fc058b261aca</t>
+          <t>https://sg.jobstreet.com/job/81996941?type=standard&amp;ref=search-standalone#sol=69c198828c3d1ae4fa23b0abab54f54596b91899</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['Tai Seng', ', North-East Region']</t>
+          <t>['Kaki Bukit', ', East Region']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1402,22 +1402,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
+          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>81996942</t>
+          <t>81996927</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996942?type=standard&amp;ref=search-standalone#sol=86a6010e8f2ca899353dc1079459f946159198ac</t>
+          <t>https://sg.jobstreet.com/job/81996927?type=standard&amp;ref=search-standalone#sol=4eccea4e32aecde8950c28d4d8cab28541e96333</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ScienTec Consulting Pte Ltd</t>
+          <t>Good Job Creations (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['Bedok', ', East Region']</t>
+          <t>['Raffles Place', ', Central Region']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1444,22 +1444,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
+          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>81996941</t>
+          <t>81996909</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996941?type=standard&amp;ref=search-standalone#sol=14dcd4efdc2e5134064b546c25776eccc393b21a</t>
+          <t>https://sg.jobstreet.com/job/81996909?type=standard&amp;ref=search-standalone#sol=6abf42b2385c593f34392b1a7e69ed91f687320f</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ', East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1486,22 +1486,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
+          <t>Assistant Project Engineer, PMO (ARTC)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>81996927</t>
+          <t>81996901</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996927?type=standard&amp;ref=search-standalone#sol=dc7276f6ce1e0d49267f0cc2e87f545e79ccfc02</t>
+          <t>https://sg.jobstreet.com/job/81996901?type=standard&amp;ref=search-standalone#sol=9346c0f0aa5137a2a2e6c4979a1f13521c935d52</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Agency for Science, Technology and Research (A*STAR)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1516,34 +1516,34 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['Raffles Place', ', Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
+          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>81996909</t>
+          <t>81996877</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996909?type=standard&amp;ref=search-standalone#sol=7850f17be4121d1726165e46af1b25e155215c21</t>
+          <t>https://sg.jobstreet.com/job/81996877?type=standard&amp;ref=search-standalone#sol=228d1b275d4aa2c0e7507ec0665dcee6c4a57519</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>MINDSG LTD</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1558,34 +1558,34 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Queenstown', ', Central Region']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Assistant Project Engineer, PMO (ARTC)</t>
+          <t>Field Service Technician (Depot)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>81996901</t>
+          <t>81996857</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996901?type=standard&amp;ref=search-standalone#sol=4298227fe6686cdd1f42cd286bbeb3aca964a1cc</t>
+          <t>https://sg.jobstreet.com/job/81996857?type=standard&amp;ref=search-standalone#sol=9a8fcf49b6034b797428eebcf8ac215bd7c566f4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Agency for Science, Technology and Research (A*STAR)</t>
+          <t>Smiths Detection Malaysia Sdn Bhd</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1600,34 +1600,34 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Singapore River', ', Central Region']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
+          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>81996877</t>
+          <t>81996846</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996877?type=standard&amp;ref=search-standalone#sol=7e5540cf3c450eed3b496f17d663bbd0cb6bfdae</t>
+          <t>https://sg.jobstreet.com/job/81996846?type=standard&amp;ref=search-standalone#sol=1d2f580133a85d5d383c2294cb084ae6216b06c1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MINDSG LTD</t>
+          <t>Private Advertiser</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1642,34 +1642,34 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['Queenstown', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Field Service Technician (Depot)</t>
+          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>81996857</t>
+          <t>81996845</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996857?type=standard&amp;ref=search-standalone#sol=c57524c4478487f9288e01429a6007e27c4f43c9</t>
+          <t>https://sg.jobstreet.com/job/81996845?type=standard&amp;ref=search-standalone#sol=d390ef80d5edf4b3c9773f7ed01f0e94807880d5</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Smiths Detection Malaysia Sdn Bhd</t>
+          <t>Pasona Singapore Pte. Ltd.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1684,34 +1684,34 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['Singapore River', ', Central Region']</t>
+          <t>['Tuas', ', West Region']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
+          <t>Talent Acquisition Manager (Blockchain) (Town, up to $6,700 + Bonus)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>81996846</t>
+          <t>81996844</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996846?type=standard&amp;ref=search-standalone#sol=04f791aa3d599d0bb625c7b5cd43299f89f7f280</t>
+          <t>https://sg.jobstreet.com/job/81996844?type=standard&amp;ref=search-standalone#sol=3d3acb416c7d7a336bf6dc1b8e70a2c694eae857</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>Good Job Creations (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1726,34 +1726,34 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Orchard', ', Central Region']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
+          <t>Class 4 Driver (Class 4/Up to $4000/Fixed shift)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>81996845</t>
+          <t>81996840</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996845?type=standard&amp;ref=search-standalone#sol=849ed8a7a5fab2fc400285309c77a308a6c7a0dc</t>
+          <t>https://sg.jobstreet.com/job/81996840?type=standard&amp;ref=search-standalone#sol=634f0c56f3bc78c90ca3d9faffba6924b6fc12d5</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Pasona Singapore Pte. Ltd.</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1768,34 +1768,34 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['Tuas', ', West Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Talent Acquisition Manager (Blockchain) (Town, up to $6,700 + Bonus)</t>
+          <t>Sales Manager, Traditional Trade (Stationed in Singapore)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>81996844</t>
+          <t>81996835</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996844?type=standard&amp;ref=search-standalone#sol=d71cb950231a01140176da626f839fe0e6f25cc9</t>
+          <t>https://sg.jobstreet.com/job/81996835?type=standard&amp;ref=search-standalone#sol=81a21fbda55fcd2b97af490f51f80ade7fd69e8a</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1810,39 +1810,39 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['Orchard', ', Central Region']</t>
+          <t>['Kaki Bukit', ', East Region']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Talent Acquisition Manager (Blockchain) (Town, up to $6,700 + Bonus)</t>
+          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>81996844</t>
+          <t>81996948</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996844?type=standard&amp;ref=search-standalone#sol=96a026514935a99ce256e103c81d313a017a6f80</t>
+          <t>https://sg.jobstreet.com/job/81996948?type=standard&amp;ref=search-standalone#sol=8b9bb09a93fd553066c9420c67f3d0c3ff119777</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['Orchard', ', Central Region']</t>
+          <t>['Tai Seng', ', North-East Region']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1864,27 +1864,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Class 4 Driver (Class 4/Up to $4000/Fixed shift)</t>
+          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>81996840</t>
+          <t>81996942</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996840?type=standard&amp;ref=search-standalone#sol=1a2868c4bcd30223b8805aeb86a1127ddc3a2204</t>
+          <t>https://sg.jobstreet.com/job/81996942?type=standard&amp;ref=search-standalone#sol=fa8923d3a15a9d6a13b099a185bbba3af7045a28</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>ScienTec Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Bedok', ', East Region']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1906,17 +1906,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sales Manager, Traditional Trade (Stationed in Singapore)</t>
+          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>81996835</t>
+          <t>81996941</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996835?type=standard&amp;ref=search-standalone#sol=11118a845ed70844ae2677759882c241bdc8c7ea</t>
+          <t>https://sg.jobstreet.com/job/81996941?type=standard&amp;ref=search-standalone#sol=a152903daba78ae395d87071304673ffbd19cf88</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1948,27 +1948,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IT Snr. Exec</t>
+          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>81996829</t>
+          <t>81996927</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996829?type=standard&amp;ref=search-standalone#sol=5bbe2cdc7d541260fa7bc73b88a4615e60e0e646</t>
+          <t>https://sg.jobstreet.com/job/81996927?type=standard&amp;ref=search-standalone#sol=23f27a93a50837ea0e85f2f9314e99d849be33e5</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Paradise Group Holdings Pte Ltd</t>
+          <t>Good Job Creations (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['North-East Region']</t>
+          <t>['Raffles Place', ', Central Region']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1990,27 +1990,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Preschool L2 English Teacher</t>
+          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>81996813</t>
+          <t>81996909</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996813?type=standard&amp;ref=search-standalone#sol=cea0c75060adeeccc6102dbdfc9abff2a0a8682b</t>
+          <t>https://sg.jobstreet.com/job/81996909?type=standard&amp;ref=search-standalone#sol=110c68cad5aefd4eb39b9c3a3a513eeef0c46be2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Carpe Diem Little Green House Pte Ltd</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2020,39 +2020,39 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['Woodlands', ', North Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ACCOUNT EXECUTIVE (3 DAYS WORKS)</t>
+          <t>Assistant Project Engineer, PMO (ARTC)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>81996594</t>
+          <t>81996901</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996594?type=standard&amp;ref=search-standalone#sol=5236a5525d4d3046a96383f7226560d1308624b3</t>
+          <t>https://sg.jobstreet.com/job/81996901?type=standard&amp;ref=search-standalone#sol=938fa19272e854be00ea55bd794d278432e2803c</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>UNITED GLOBAL LIMITED</t>
+          <t>Agency for Science, Technology and Research (A*STAR)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2062,81 +2062,81 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['Gul Circle', ', West Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Security Operations Engineer (Shift)</t>
+          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>81996786</t>
+          <t>81996877</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996786?type=standard&amp;ref=search-standalone#sol=1e1209756ac483f17deb0273c1afbaa1f34089ac</t>
+          <t>https://sg.jobstreet.com/job/81996877?type=standard&amp;ref=search-standalone#sol=a9a5fb3197189e5ec9efb143069115494369047d</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Assurity Trusted Solutions Pte Ltd</t>
+          <t>MINDSG LTD</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['Singapore River', ', Central Region']</t>
+          <t>['Queenstown', ', Central Region']</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Procurement Executive</t>
+          <t>Field Service Technician (Depot)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>81996767</t>
+          <t>81996857</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996767?type=standard&amp;ref=search-standalone#sol=51d17a36f836950184b3d61d8bb33d7286fb8a5f</t>
+          <t>https://sg.jobstreet.com/job/81996857?type=standard&amp;ref=search-standalone#sol=5eb67b5e8016d54d637f00862c0fed30f53aa4ea</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Paradise Group Holdings Pte Ltd</t>
+          <t>Smiths Detection Malaysia Sdn Bhd</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2146,39 +2146,39 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['North-East Region']</t>
+          <t>['Singapore River', ', Central Region']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Prime Mover Driver(SG only/ Class 4/ Basic+OT+Allowance=Gross up to $5500)</t>
+          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>81996746</t>
+          <t>81996846</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996746?type=standard&amp;ref=search-standalone#sol=6e905c78afda6850d2834236e51798bb2e307eda</t>
+          <t>https://sg.jobstreet.com/job/81996846?type=standard&amp;ref=search-standalone#sol=1cb53340956ec6ce35017c8b7cd6cff549d31a61</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Private Advertiser</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2188,39 +2188,39 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Credit Review - Asst. Mgr/Asst. Vice President</t>
+          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>81996716</t>
+          <t>81996845</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996716?type=standard&amp;ref=search-standalone#sol=ec3741bd0d2529827f245a299714054cef51876c</t>
+          <t>https://sg.jobstreet.com/job/81996845?type=standard&amp;ref=search-standalone#sol=6529cf0963f5401e3014e1f6c4dc03c970155358</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Hong Leong Finance Ltd</t>
+          <t>Pasona Singapore Pte. Ltd.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2230,39 +2230,39 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['Raffles Place', ', Central Region']</t>
+          <t>['Tuas', ', West Region']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Recruitment Consultant/ Senior Consultant (Basic + Comm/ Training provided)</t>
+          <t>Talent Acquisition Manager (Blockchain) (Town, up to $6,700 + Bonus)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>81996729</t>
+          <t>81996844</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996729?type=standard&amp;ref=search-standalone#sol=39807ca27216e079a3843d6906815a2b81c4a8a9</t>
+          <t>https://sg.jobstreet.com/job/81996844?type=standard&amp;ref=search-standalone#sol=e72c5e8f5e912b736078bf213347f8084034fe6d</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>Good Job Creations (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2272,39 +2272,39 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Orchard', ', Central Region']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Solution Engineer</t>
+          <t>Class 4 Driver (Class 4/Up to $4000/Fixed shift)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>81997361</t>
+          <t>81996840</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997361?type=standard&amp;ref=search-standalone#sol=01b1a224ed5a394e94fad0d81a30af7cd85625cd</t>
+          <t>https://sg.jobstreet.com/job/81996840?type=standard&amp;ref=search-standalone#sol=fa51473354927b5f716ef9eb75b12834f88a262d</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Snowflake</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2314,39 +2314,39 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Client Relations Executive (West, Healthcare, Office Hours) - HWX</t>
+          <t>Sales Manager, Traditional Trade (Stationed in Singapore)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>81334580</t>
+          <t>81996835</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81334580?type=standard&amp;ref=search-standalone#sol=6a5caf33d6a35eb066cfec8d11895a7a72af0172</t>
+          <t>https://sg.jobstreet.com/job/81996835?type=standard&amp;ref=search-standalone#sol=860ad83db887e8a878e989d1bc968cb5cf05e9d3</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>RECRUIT EXPRESS PTE LTD</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2356,39 +2356,39 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Kaki Bukit', ', East Region']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Wheelchair Transport Driver (Minibus | Bus Driver Vocational License -BDVL)</t>
+          <t>IT Snr. Exec</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>81996715</t>
+          <t>81996829</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996715?type=standard&amp;ref=search-standalone#sol=64b30044373bcbd0c66fd9599ffd476dc52ef6dc</t>
+          <t>https://sg.jobstreet.com/job/81996829?type=standard&amp;ref=search-standalone#sol=d0fbb227db367b42761cb6daf98ba85679dd2922</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>The Supreme HR Advisory Pte Ltd</t>
+          <t>Paradise Group Holdings Pte Ltd</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2398,39 +2398,39 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['Kampong Ubi', ', Central Region']</t>
+          <t>['North-East Region']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Accounts Executive (AP AR GST / Macpherson /UP $4K + VB)*URGENT/IMMEDIATE*</t>
+          <t>Preschool L2 English Teacher</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>81996690</t>
+          <t>81996813</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996690?type=standard&amp;ref=search-standalone#sol=6dd13595fb98c3b2380221823e35de4e1bbae302</t>
+          <t>https://sg.jobstreet.com/job/81996813?type=standard&amp;ref=search-standalone#sol=4d0892195d0a7f8219f60ef058f7ca20a92b1302</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>Carpe Diem Little Green House Pte Ltd</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Woodlands', ', North Region']</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2452,27 +2452,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SAP HCM Consultant</t>
+          <t>ACCOUNT EXECUTIVE (3 DAYS WORKS)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>81996678</t>
+          <t>81996594</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996678?type=standard&amp;ref=search-standalone#sol=0d8cea602089a5a4df15f3f24a6791ae04c2f413</t>
+          <t>https://sg.jobstreet.com/job/81996594?type=standard&amp;ref=search-standalone#sol=c2f374a2688de7904d7c4694c542995963d32886</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Helius Technologies Pte Ltd</t>
+          <t>UNITED GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['Ang Mo Kio Town Centre', ', North-East Region']</t>
+          <t>['Gul Circle', ', West Region']</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2494,37 +2494,37 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Warehouse Assistant</t>
+          <t>Security Operations Engineer (Shift)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>81996675</t>
+          <t>81996786</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996675?type=standard&amp;ref=search-standalone#sol=09376b4603d8b5bec3cefc4f16fc31b6c1c5f6b6</t>
+          <t>https://sg.jobstreet.com/job/81996786?type=standard&amp;ref=search-standalone#sol=1e94a9f762bfafed0d78f386a251c992c3902a6c</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DMK (SINGAPORE) PTE. LTD.</t>
+          <t>Assurity Trusted Solutions Pte Ltd</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['Defu Industrial Park', ', North-East Region']</t>
+          <t>['Singapore River', ', Central Region']</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2536,27 +2536,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Backend Software Engineer (Java/Spring)</t>
+          <t>Procurement Executive</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>81996672</t>
+          <t>81996767</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996672?type=standard&amp;ref=search-standalone#sol=5b2e1f8b529ae690065ff50870668ba62f0102c4</t>
+          <t>https://sg.jobstreet.com/job/81996767?type=standard&amp;ref=search-standalone#sol=f08610d08b58e6671066e23b48bd833e282fb79e</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ScienTec Consulting Pte Ltd</t>
+          <t>Paradise Group Holdings Pte Ltd</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['North-East Region']</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2578,27 +2578,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Assistant Project Engineer,Project Management Office (ARTC)</t>
+          <t>Prime Mover Driver(SG only/ Class 4/ Basic+OT+Allowance=Gross up to $5500)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>81996652</t>
+          <t>81996746</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996652?type=standard&amp;ref=search-standalone#sol=04c94a52ba3ba2030efd4430d90d11fc1e919bc1</t>
+          <t>https://sg.jobstreet.com/job/81996746?type=standard&amp;ref=search-standalone#sol=1425fa0b29d1d96751099b3760a580b1273ae450</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Agency for Science, Technology and Research (A*STAR)</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2620,27 +2620,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Admin Executive / Administrator</t>
+          <t>Credit Review - Asst. Mgr/Asst. Vice President</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>81996618</t>
+          <t>81996716</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996618?type=standard&amp;ref=search-standalone#sol=fe90945be513959b33d3b8fc25d2e670d03c5844</t>
+          <t>https://sg.jobstreet.com/job/81996716?type=standard&amp;ref=search-standalone#sol=b71c134123d2088055ceebb8200b2779e0102273</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Kim Yew Integrated Pte Ltd</t>
+          <t>Hong Leong Finance Ltd</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Raffles Place', ', Central Region']</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2662,27 +2662,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Production Planner</t>
+          <t>Recruitment Consultant/ Senior Consultant (Basic + Comm/ Training provided)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>81996610</t>
+          <t>81996729</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996610?type=standard&amp;ref=search-standalone#sol=26d126f2511fddd8a9b12bb2dd62607071a75aee</t>
+          <t>https://sg.jobstreet.com/job/81996729?type=standard&amp;ref=search-standalone#sol=84e57aff0a57b9fde4b82dfae4452e2143a6dafd</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Advanced Recycling Pte Ltd</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['Jurong West', ', West Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2704,27 +2704,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Retail Sales Assistant (Department Store)</t>
+          <t>Solution Engineer</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>81996601</t>
+          <t>81997361</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996601?type=standard&amp;ref=search-standalone#sol=38c1f7a7562ec76ba61e8b73ee1a414c83c839d5</t>
+          <t>https://sg.jobstreet.com/job/81997361?type=standard&amp;ref=search-standalone#sol=a32ea97b438ad63496b4546f8028768edf3440aa</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Corestaff Pte Ltd</t>
+          <t>Snowflake</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['Orchard', ', Central Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2746,27 +2746,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Head of Finance</t>
+          <t>Client Relations Executive (West, Healthcare, Office Hours) - HWX</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>81997560</t>
+          <t>81334580</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997560?type=standard&amp;ref=search-standalone#sol=ae29897ee1c85de5115e6a67e701bf8fa8e772d2</t>
+          <t>https://sg.jobstreet.com/job/81334580?type=standard&amp;ref=search-standalone#sol=266d139c78ca5a50127466055734832ea95b0ee4</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SoftwareONE Pte Ltd</t>
+          <t>RECRUIT EXPRESS PTE LTD</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2788,27 +2788,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Marketing Executive</t>
+          <t>Wheelchair Transport Driver (Minibus | Bus Driver Vocational License -BDVL)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>81996573</t>
+          <t>81996715</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996573?type=standard&amp;ref=search-standalone#sol=554d0bcc3aaaf8051c09febf228423c5236837c1</t>
+          <t>https://sg.jobstreet.com/job/81996715?type=standard&amp;ref=search-standalone#sol=5bff04acead216038d74667ab4d7de2449cfd106</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>WGT EHR Pte. Ltd.</t>
+          <t>The Supreme HR Advisory Pte Ltd</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Kampong Ubi', ', Central Region']</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2830,27 +2830,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Customer Service Officer [Call Centre / Govt Project /Office Hours/ East]</t>
+          <t>Accounts Executive (AP AR GST / Macpherson /UP $4K + VB)*URGENT/IMMEDIATE*</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>81996559</t>
+          <t>81996690</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996559?type=standard&amp;ref=search-standalone#sol=2e482f65c13156f4cb55f9aa3ca689945ce5af72</t>
+          <t>https://sg.jobstreet.com/job/81996690?type=standard&amp;ref=search-standalone#sol=957988d8867e9e26aef4d624a5afcd8ecacaa791</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>TDCX Singapore</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['Kembangan', ', East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2872,27 +2872,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Leasing Manager</t>
+          <t>SAP HCM Consultant</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>81996533</t>
+          <t>81996678</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996533?type=standard&amp;ref=search-standalone#sol=49ba3c6192aa2d59a834a4ba4396936424ddd4fe</t>
+          <t>https://sg.jobstreet.com/job/81996678?type=standard&amp;ref=search-standalone#sol=6660b386791dc17f78de01efe3905d821dd6eda8</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>COURTS (Singapore) Pte Ltd</t>
+          <t>Helius Technologies Pte Ltd</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['Tampines North', ', East Region']</t>
+          <t>['Ang Mo Kio Town Centre', ', North-East Region']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2914,27 +2914,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Centre Supervisor (Operations, Senior Daycare, East) #HRY</t>
+          <t>Warehouse Assistant</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>81996524</t>
+          <t>81996675</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996524?type=standard&amp;ref=search-standalone#sol=42395462ed69b9f030bfe9ed88a4ee6152c96233</t>
+          <t>https://sg.jobstreet.com/job/81996675?type=standard&amp;ref=search-standalone#sol=d4970b77ed30bfc56f054230853075aca6be43dc</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RECRUIT EXPRESS PTE LTD</t>
+          <t>DMK (SINGAPORE) PTE. LTD.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['East Region']</t>
+          <t>['Defu Industrial Park', ', North-East Region']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2956,27 +2956,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Assistant Manager, Financial Management Treasury</t>
+          <t>Backend Software Engineer (Java/Spring)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>81997482</t>
+          <t>81996672</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997482?type=standard&amp;ref=search-standalone#sol=66c53e3a953684c60d6b0c7aed74ad71c019ec41</t>
+          <t>https://sg.jobstreet.com/job/81996672?type=standard&amp;ref=search-standalone#sol=6e02de5f82c305df8e4594de5eba06d717a0f459</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Agency for Integrated Care</t>
+          <t>ScienTec Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2998,27 +2998,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sea Import Executive (Import Shipping Documents)(19479)</t>
+          <t>Assistant Project Engineer,Project Management Office (ARTC)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>81996518</t>
+          <t>81996652</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996518?type=standard&amp;ref=search-standalone#sol=e948cd72ed0963c2ba6c78b825073ffc03ef1843</t>
+          <t>https://sg.jobstreet.com/job/81996652?type=standard&amp;ref=search-standalone#sol=d05f8eb5493e07ea03e895f823b9139cebbe0760</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Pasona Singapore Pte. Ltd.</t>
+          <t>Agency for Science, Technology and Research (A*STAR)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['Macpherson', ', Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3040,27 +3040,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Lead, Customer Success &amp; Operations</t>
+          <t>Admin Executive / Administrator</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>81997542</t>
+          <t>81996618</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997542?type=standard&amp;ref=search-standalone#sol=ebe8566a5874907a9c444502a6e87283a2dad50f</t>
+          <t>https://sg.jobstreet.com/job/81996618?type=standard&amp;ref=search-standalone#sol=f6f67305864b1fc6f582cc30fe83d444ea3ce8f9</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Mandai</t>
+          <t>Kim Yew Integrated Pte Ltd</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['Mandai', ', North Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3082,27 +3082,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Assistant Manager - Production Support (NGEMR)</t>
+          <t>Production Planner</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>81996501</t>
+          <t>81996610</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996501?type=standard&amp;ref=search-standalone#sol=914f9b1903c32753935e3e19d2f171a8f96bd573</t>
+          <t>https://sg.jobstreet.com/job/81996610?type=standard&amp;ref=search-standalone#sol=5f0f69d84cbdd58b97eec625b67f20a60c8ca1af</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Synapxe</t>
+          <t>Advanced Recycling Pte Ltd</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['One North', ', Central Region']</t>
+          <t>['Jurong West', ', West Region']</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3124,27 +3124,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TRADING OPERATIONS EXECUTIVE</t>
+          <t>Retail Sales Assistant (Department Store)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>81996425</t>
+          <t>81996601</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996425?type=standard&amp;ref=search-standalone#sol=ed0b16822332afc1ff8730ec3e22b55980abbfe1</t>
+          <t>https://sg.jobstreet.com/job/81996601?type=standard&amp;ref=search-standalone#sol=85066e42d21eea9025bde98c9eaf5814653065ae</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Soleum Energy Pte Ltd</t>
+          <t>Corestaff Pte Ltd</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['Downtown Core', ', Central Region']</t>
+          <t>['Orchard', ', Central Region']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997643?type=standard&amp;ref=search-standalone#sol=b907c322a341667daed90e4fc8c1422f834bbabd</t>
+          <t>https://sg.jobstreet.com/job/81997643?type=standard&amp;ref=search-standalone#sol=eead6d1b584685789ea2865147eab4a88f3c8bec</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997367?type=standard&amp;ref=search-standalone#sol=11c42cfa7ab8b1ed023a589f28931e8a5c86e091</t>
+          <t>https://sg.jobstreet.com/job/81997367?type=standard&amp;ref=search-standalone#sol=e7c9e5903160fa2a38d84474c0e98bb23f956255</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997518?type=standard&amp;ref=search-standalone#sol=fd1e8022989da721b4065888eb1f4db9d12298fc</t>
+          <t>https://sg.jobstreet.com/job/81997518?type=standard&amp;ref=search-standalone#sol=9f58d6a1487e8fe5e8c993901fb7cfe05a75af89</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997350?type=standard&amp;ref=search-standalone#sol=59f79db33b938ac10bd49b064ec29ab6903db06b</t>
+          <t>https://sg.jobstreet.com/job/81997350?type=standard&amp;ref=search-standalone#sol=90e72a51b43116a769aa595348ca1675e6d92c1f</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997408?type=standard&amp;ref=search-standalone#sol=2af6463ac0de710beb50fbc3f182d7d1756ee016</t>
+          <t>https://sg.jobstreet.com/job/81997408?type=standard&amp;ref=search-standalone#sol=2dd07829305414399399e61bdeab96f9849bfd6e</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997441?type=standard&amp;ref=search-standalone#sol=7eb8556cb53918ae24fc0cc7305674e448c09ca6</t>
+          <t>https://sg.jobstreet.com/job/81997441?type=standard&amp;ref=search-standalone#sol=72138663a3553842317355110b2db6855bdcb3f3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997575?type=standard&amp;ref=search-standalone#sol=858ff3cd10514e0e5fd432389865b9d6ed987b0d</t>
+          <t>https://sg.jobstreet.com/job/81997575?type=standard&amp;ref=search-standalone#sol=9372b393847d07c1a1f0423ec94bc1210d8cb344</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997341?type=standard&amp;ref=search-standalone#sol=74a0a2b95616e0ce05fb3d5eec1acffd193e97d6</t>
+          <t>https://sg.jobstreet.com/job/81997341?type=standard&amp;ref=search-standalone#sol=51a37d4bb09c2ef4f49564bd82c048445e65800f</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996453?type=standard&amp;ref=search-standalone#sol=c18b86d0ff25f2d2cfd1e3a63171da7853a63f52</t>
+          <t>https://sg.jobstreet.com/job/81996453?type=standard&amp;ref=search-standalone#sol=714b5aeb756b3efd374004f896f46ed60775e312</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81396894?type=standard&amp;ref=search-standalone#sol=b881e6c9434aaebcad28a6b916de1cc00ad54cec</t>
+          <t>https://sg.jobstreet.com/job/81396894?type=standard&amp;ref=search-standalone#sol=58d041f8bb786453b23180a8a3f89108b48e5129</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996447?type=standard&amp;ref=search-standalone#sol=9c8d8eeb35769879e663f56f4ee52c25e18fbd60</t>
+          <t>https://sg.jobstreet.com/job/81996447?type=standard&amp;ref=search-standalone#sol=9da93b86b44f01c4e1f7edb1d7cfdceec1fe2886</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997447?type=standard&amp;ref=search-standalone#sol=aa1e68a44952dc760e89c5c693bb8e1ef377c98d</t>
+          <t>https://sg.jobstreet.com/job/81997447?type=standard&amp;ref=search-standalone#sol=f5079d00058cd9b587208d838c5d14e947972f02</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996434?type=standard&amp;ref=search-standalone#sol=40f8ca947760c13bfc8c92db8eb2ef694a8e0421</t>
+          <t>https://sg.jobstreet.com/job/81996434?type=standard&amp;ref=search-standalone#sol=519abe7eac5125e595ba028926c81fcd252b0645</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996437?type=standard&amp;ref=search-standalone#sol=2f34286d947f65085f36868465e5e98a67ee6198</t>
+          <t>https://sg.jobstreet.com/job/81996437?type=standard&amp;ref=search-standalone#sol=fa991047e49fa836266e0f4107f932e933792ed9</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997568?type=standard&amp;ref=search-standalone#sol=63c7d48b89a1c017b68e195747a4f3eac8f8abf5</t>
+          <t>https://sg.jobstreet.com/job/81997568?type=standard&amp;ref=search-standalone#sol=33b4a76bf37bfa0382e6976c5da4a2132e05e16d</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997492?type=standard&amp;ref=search-standalone#sol=3d578715fe82de5491a6f1def3bc4ecf092c9f58</t>
+          <t>https://sg.jobstreet.com/job/81997492?type=standard&amp;ref=search-standalone#sol=c2b5c3828b336fea7b2dad574d8c41b483cc531d</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997636?type=standard&amp;ref=search-standalone#sol=89bc882fc0314d1946ae328616e9dae8503d0976</t>
+          <t>https://sg.jobstreet.com/job/81997636?type=standard&amp;ref=search-standalone#sol=30b34cf425977f3fefbd94a2fb13ec22fae06063</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996428?type=standard&amp;ref=search-standalone#sol=300d0889eaeb003dc987af1fd444ca4bd86a8d0b</t>
+          <t>https://sg.jobstreet.com/job/81996428?type=standard&amp;ref=search-standalone#sol=5b2a66e97cec3502b0603e74a466af91f3b5d503</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996419?type=standard&amp;ref=search-standalone#sol=7973bb8fe6e528db4c5b69a745965cd086a959f3</t>
+          <t>https://sg.jobstreet.com/job/81996419?type=standard&amp;ref=search-standalone#sol=ea05c1a7b8f2665d2b7dc36a0ba7137ec9fbc626</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996415?type=standard&amp;ref=search-standalone#sol=22f2e762e023ccb886af8b39be26ecbbe4224896</t>
+          <t>https://sg.jobstreet.com/job/81996415?type=standard&amp;ref=search-standalone#sol=b446f00a861045b4ba3654e031f5c9e842832569</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997530?type=standard&amp;ref=search-standalone#sol=5b12c55e02a478eb6cae49b102f9e69177a64587</t>
+          <t>https://sg.jobstreet.com/job/81997530?type=standard&amp;ref=search-standalone#sol=3f1107321e117388bc3931b441b51d1612865491</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997478?type=standard&amp;ref=search-standalone#sol=4f1ad2bb66401085a6b6e03d80c85bad515092dd</t>
+          <t>https://sg.jobstreet.com/job/81997478?type=standard&amp;ref=search-standalone#sol=7e9647c908da4e4d5ca39a44ef7da8767dd1874e</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997392?type=standard&amp;ref=search-standalone#sol=87121f68e283d79bbeb4ee65e04b2159a3dcf1f2</t>
+          <t>https://sg.jobstreet.com/job/81997392?type=standard&amp;ref=search-standalone#sol=7b29b6e94bed960660eb8600a5aa1b4f253433ec</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996405?type=standard&amp;ref=search-standalone#sol=adebb013b1786cca236d136d91e156b9ce287616</t>
+          <t>https://sg.jobstreet.com/job/81996405?type=standard&amp;ref=search-standalone#sol=fdb2fde425ebc98bb900d64155e9993786e658ef</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996393?type=standard&amp;ref=search-standalone#sol=202e904d21e02dce296280a1b45fa3eb82f562b5</t>
+          <t>https://sg.jobstreet.com/job/81996393?type=standard&amp;ref=search-standalone#sol=540f86432c381debf48cf7ea434c865158275520</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996386?type=standard&amp;ref=search-standalone#sol=11ba7d91213c751cd3964ca32c579f64798ef20a</t>
+          <t>https://sg.jobstreet.com/job/81996386?type=standard&amp;ref=search-standalone#sol=ba3bca3f6b66fe014c150ebc2cf6f3e7ad1487cb</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996375?type=standard&amp;ref=search-standalone#sol=d5203e382bcff39eb76c9b529095092d092a96ff</t>
+          <t>https://sg.jobstreet.com/job/81996375?type=standard&amp;ref=search-standalone#sol=11a136d5fbdb0bc866be403d7fc90fb008581af0</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996369?type=standard&amp;ref=search-standalone#sol=501de68d43a937559c9fd812d94c35b6c77689ee</t>
+          <t>https://sg.jobstreet.com/job/81996369?type=standard&amp;ref=search-standalone#sol=015c72b7fe8b1a0678a9890cc7c6bcbe677ae562</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997536?type=standard&amp;ref=search-standalone#sol=71e4307ebeb0c487d45fb8e7fb835c6d1d1b033e</t>
+          <t>https://sg.jobstreet.com/job/81997536?type=standard&amp;ref=search-standalone#sol=eb1c1af6d01d4e3f37694e5896b159b1b73cceb3</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996343?type=standard&amp;ref=search-standalone#sol=e4b766a365f34bf5602960d8e739dc8540dd58dd</t>
+          <t>https://sg.jobstreet.com/job/81996343?type=standard&amp;ref=search-standalone#sol=09179be7799eb8e8cac8348c1cfdf21450e60461</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996341?type=standard&amp;ref=search-standalone#sol=66aa8a853a3fd28cf220d0f535094990b2c56e73</t>
+          <t>https://sg.jobstreet.com/job/81996341?type=standard&amp;ref=search-standalone#sol=7aed98def037265e359bcf71b6404dbbf1978cd5</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997359?type=standard&amp;ref=search-standalone#sol=462aa614999a349d480f40085ea86850c3ce095a</t>
+          <t>https://sg.jobstreet.com/job/81997359?type=standard&amp;ref=search-standalone#sol=60d874acb77076ba445f940bea7ce43925c258e1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4510,27 +4510,27 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Assistant Executive Housekeeper</t>
+          <t>Senior Cloud Wintel Engineer</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>81996160</t>
+          <t>81996297</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996160?type=standard&amp;ref=search-standalone#sol=7f6c8300c2910b8e431afddec1534d219b669aa4</t>
+          <t>https://sg.jobstreet.com/job/81996297?type=standard&amp;ref=search-standalone#sol=ceec44920434cdc061c9791e71638c489463d9d4</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Raffles Hotel Singapore</t>
+          <t>Lenovo PCCW Solutions</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Singapore River', ', Central Region']</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4552,27 +4552,27 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>WheelChair Transport Driver (Bus Driver Vocational License BDVL)</t>
+          <t>Air Import Executive (Import Shipping Documents)(19480)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>81996152</t>
+          <t>81996283</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996152?type=standard&amp;ref=search-standalone#sol=8a199924f2ac4d95ed26fac737f7581fde47866d</t>
+          <t>https://sg.jobstreet.com/job/81996283?type=standard&amp;ref=search-standalone#sol=c95a61896639de68acc0604024c966af483453c1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>The Supreme HR Advisory Pte Ltd</t>
+          <t>Pasona Singapore Pte. Ltd.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4582,165 +4582,165 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['Kampong Ubi', ', Central Region']</t>
+          <t>['Simei', ', East Region']</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>聘请厨师 Cook/Chef (Near MRT)</t>
+          <t>Micro / Chemistry Lab Analyst (Mon-Fri, Transport Provided) #HJY</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>81996146</t>
+          <t>81996281</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996146?type=standard&amp;ref=search-standalone#sol=0797f2848148cb1f9d0fba113ee5c17e2e677d19</t>
+          <t>https://sg.jobstreet.com/job/81996281?type=standard&amp;ref=search-standalone#sol=11699a0daad49cb92151ccd912cb8d6a8587baab</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Stuff'd Ventures Pte Ltd</t>
+          <t>Private Advertiser</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Tuas', ', West Region']</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Service Crew x 10</t>
+          <t>Order Management | US MNC | Hybrid work</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>81996141</t>
+          <t>81996276</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996141?type=standard&amp;ref=search-standalone#sol=8842f67dc21b0783caa48af23b7cd5c6c44a79da</t>
+          <t>https://sg.jobstreet.com/job/81996276?type=standard&amp;ref=search-standalone#sol=10b685f8cb304092a1d435e9a881cf221adc2e54</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ZEN CAREER PTE. LTD.</t>
+          <t>Adecco Personnel Pte Ltd.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Changi', ', East Region']</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Procurement Assistant (Contract)</t>
+          <t>Clinic Assistant</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>81996124</t>
+          <t>81996247</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996124?type=standard&amp;ref=search-standalone#sol=24c91364085bcbeed7735fae8705ab48fbb5f303</t>
+          <t>https://sg.jobstreet.com/job/81996247?type=standard&amp;ref=search-standalone#sol=8c4b4eb6097747ff70e9012f44a50729c859ee3d</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>PSA Corporation Limited</t>
+          <t>The Supreme HR Advisory Pte Ltd</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>['Pasir Panjang', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Cashier(French Luxury Brand)</t>
+          <t>Customer Service Advisor (Automotive, Electric Car, Class 3)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>81996117</t>
+          <t>81996255</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996117?type=standard&amp;ref=search-standalone#sol=87a66a81c31e9340dbde207d9348f3f8c4375f97</t>
+          <t>https://sg.jobstreet.com/job/81996255?type=standard&amp;ref=search-standalone#sol=3a8ed15ad3575ba87273fb6717a5c8463ef4c398</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>Corestaff Pte Ltd</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4750,81 +4750,81 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Kampong Ubi', ', Central Region']</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Marketing Executive</t>
+          <t>Health Coach (Sleep)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>81996102</t>
+          <t>81996252</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996102?type=standard&amp;ref=search-standalone#sol=542302b6ead460c5f564fd9453877a683b662ad3</t>
+          <t>https://sg.jobstreet.com/job/81996252?type=standard&amp;ref=search-standalone#sol=7e47b5f0fddc8cfaf81a7e0a828f73957a1cf7ca</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>HR Focus</t>
+          <t>SG Medical Pte Ltd</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Redhill', ', Central Region']</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SG Only! Quality Admin, Logistics (Warehouse Exp / SAP / West / Bonus)</t>
+          <t>Frontline Financial Customer Service - East Area - 1 year - Up to $3500</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>81996099</t>
+          <t>81996250</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996099?type=standard&amp;ref=search-standalone#sol=0cfbe961128d59b919f93d7d72f6fcc34e596061</t>
+          <t>https://sg.jobstreet.com/job/81996250?type=standard&amp;ref=search-standalone#sol=fa137009c3045c5b260208d83bca70641e75af33</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>CGP Personnel</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4834,39 +4834,39 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Paya Lebar', ', East Region']</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Key Shop Manager (Fashion, Footwear)</t>
+          <t>BMS Project Engineer (Immediate!/Electrical/2-4 years/Office Hours/Up 4.2K + VB)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>81996092</t>
+          <t>81996245</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996092?type=standard&amp;ref=search-standalone#sol=7cddcf49654f3d4a835f3819722e020c0ca68b1c</t>
+          <t>https://sg.jobstreet.com/job/81996245?type=standard&amp;ref=search-standalone#sol=b0e3c9b49f938375187cdd9b8df4ccf1108853b4</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4876,39 +4876,39 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Accounts Assistant (AP)</t>
+          <t>Admin And Support</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>81996051</t>
+          <t>81997503</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996051?type=standard&amp;ref=search-standalone#sol=e3bdadfb7641338f07f4bc8f109856408e626862</t>
+          <t>https://sg.jobstreet.com/job/81997503?type=standard&amp;ref=search-standalone#sol=e6b2cc0f8785985c27e5db4592d2f3e6bb53e6d9</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Compass Group (S) Pte Ltd</t>
+          <t>Singapore Health Services Pte Ltd (SingHealth HQ)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4918,39 +4918,39 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>['Tai Seng', ', North-East Region']</t>
+          <t>['Bukit Merah', ', Central Region']</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sales Executive (Data Center/Sales engineer/Electrical product line) VL74</t>
+          <t>E-Commerce Executive</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>81996066</t>
+          <t>81996234</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996066?type=standard&amp;ref=search-standalone#sol=9b4e3051476ce441ebea9d18351d7cbe36137a1b</t>
+          <t>https://sg.jobstreet.com/job/81996234?type=standard&amp;ref=search-standalone#sol=96dfcea2e10ac2a68cc19434c2e3c33fba8dc1cc</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>HOUSE OF 28</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4960,44 +4960,44 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>['Tuas', ', West Region']</t>
+          <t>['Kranji', ', North Region']</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Patient Service Associates (Multiple Location/No Experience Need) #HLWT</t>
+          <t>Pest Control Technician</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>81996043</t>
+          <t>81985381</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996043?type=standard&amp;ref=search-standalone#sol=c87ec1206113c02d9db2da4495877379b51e1992</t>
+          <t>https://sg.jobstreet.com/job/81985381?type=standard&amp;ref=search-standalone#sol=401af88da700adc4a0d50dbf637df644860583c0</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>RECRUIT EXPRESS PTE LTD</t>
+          <t>Pest Solver Pte Ltd</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5007,34 +5007,34 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sales Executive - Building Material</t>
+          <t>Repair Technician (Aircraft Engine| No Exp Welcome! |Fast Interview)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>81996065</t>
+          <t>81996224</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996065?type=standard&amp;ref=search-standalone#sol=3ffac60a94930cdcf07346909e479a88aeb84497</t>
+          <t>https://sg.jobstreet.com/job/81996224?type=standard&amp;ref=search-standalone#sol=a75e2481a6e17a374a0f6352a31ed41c21d17794</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HR Focus</t>
+          <t>Talentvis Singapore Pte Ltd</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5044,39 +5044,39 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Loyang', ', East Region']</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Network Engineer | $ 7000 | Singaporean Only</t>
+          <t>SG Only! Logistics Assistant (East/AWS/OT/Basic up to $2200/Gross up to $3,000)</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>81996039</t>
+          <t>81996223</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996039?type=standard&amp;ref=search-standalone#sol=88c678cd9b6497cedc09c5132cf7a1e4dc24f39f</t>
+          <t>https://sg.jobstreet.com/job/81996223?type=standard&amp;ref=search-standalone#sol=02886f6a89678286a7766407d6a5aee9605a3358</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>APBA TG Human Resource Pte Ltd</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5086,39 +5086,39 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Senior Electrical Engineer (Power)</t>
+          <t>Patient Service Assistant/Officer l Raffles Place</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>81996040</t>
+          <t>81996216</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996040?type=standard&amp;ref=search-standalone#sol=6fb7996fbae700445ee6c8da8dc587a7c7e1b5ac</t>
+          <t>https://sg.jobstreet.com/job/81996216?type=standard&amp;ref=search-standalone#sol=474a155c8b0488cbe6c3ffa6e3e7f57637cd5e13</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>WSP Consultancy Pte Ltd</t>
+          <t>Raffles Medical Group Ltd</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5128,39 +5128,39 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>['One North', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Service Desk Analyst</t>
+          <t>Logistic Specialist</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>81996003</t>
+          <t>81996170</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996003?type=standard&amp;ref=search-standalone#sol=0d8bcf2af21d46c41e2c79bff64463a4ddac2d33</t>
+          <t>https://sg.jobstreet.com/job/81996170?type=standard&amp;ref=search-standalone#sol=9c0d9e6e2ef93f77c24da5399d18c3113ad4b2e4</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Lenovo PCCW Solutions</t>
+          <t>CITIC Commodities Pte Ltd</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5170,39 +5170,39 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>['Singapore River', ', Central Region']</t>
+          <t>['Downtown Core', ', Central Region']</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Senior Medical Sales Representative</t>
+          <t>Executive/Senior Executive (Administration &amp; Operations), External Relations</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>81995958</t>
+          <t>81996207</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995958?type=standard&amp;ref=search-standalone#sol=3075c818ebe0149c54f0b3cf08df7bcb2bfa039f</t>
+          <t>https://sg.jobstreet.com/job/81996207?type=standard&amp;ref=search-standalone#sol=b1b2c79a4f9472aefdf4c8e0cf39a518029f9d05</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Majeton Pte. Ltd.</t>
+          <t>National University of Singapore</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5212,39 +5212,39 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>['One North', ', Central Region']</t>
+          <t>['National University Of Singapore', ', Central Region']</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Research Assistant (Advanced Power Electronics)</t>
+          <t>Associate Director (Strategic Relations), External Relations</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>81995997</t>
+          <t>81996202</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995997?type=standard&amp;ref=search-standalone#sol=31d548f262a3ee958a96f1cf6a6e9d363d428121</t>
+          <t>https://sg.jobstreet.com/job/81996202?type=standard&amp;ref=search-standalone#sol=26ea6a4e3ea0b703cd7ae697ef8fe2aa1c0d43b9</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Nanyang Technological University</t>
+          <t>National University of Singapore</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5254,39 +5254,39 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['National University Of Singapore', ', Central Region']</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sales Administrator</t>
+          <t>Business operations Senior Executive/Manager</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>81995943</t>
+          <t>81982236</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995943?type=standard&amp;ref=search-standalone#sol=6e9b92ecb1500ce4e2a189522bd2b118248f750d</t>
+          <t>https://sg.jobstreet.com/job/81982236?type=standard&amp;ref=search-standalone#sol=33b2f5d83cd11a11739d615a0938ce2769bb5ab8</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Cable Care Pte Ltd</t>
+          <t>Aither Asia Pte Ltd</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5296,39 +5296,39 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>['Ang Mo Kio', ', North-East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Research Fellow (Nonlinear and Quantum Nanophotonics)</t>
+          <t>Technician</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>81995960</t>
+          <t>81996191</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995960?type=standard&amp;ref=search-standalone#sol=62d78f9c911bc854dd0a57b640aede0999ccbd52</t>
+          <t>https://sg.jobstreet.com/job/81996191?type=standard&amp;ref=search-standalone#sol=45541605c5e999c1c05a69050a2777085ec575a9</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Nanyang Technological University</t>
+          <t>Knight Frank Property &amp; Facilities Management Pte. Ltd.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -5338,81 +5338,81 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Admin Executive | Central</t>
+          <t>SG Only! Logistics Officer (East/AWS/OT/Basic up to $2600/Gross up to $3200)</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>81995939</t>
+          <t>81996186</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995939?type=standard&amp;ref=search-standalone#sol=13710f89306317eee4b6ff801dbf09b7f8414c2d</t>
+          <t>https://sg.jobstreet.com/job/81996186?type=standard&amp;ref=search-standalone#sol=3da7a5cb4e342df74d2a21362af2b5ce505434bf</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>APBA TG Human Resource Pte Ltd</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>['Bendemeer', ', Central Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Lab Admin Coordinator [Up to $3K | Life Science MNC] RRKC</t>
+          <t>Manager, Visitor / Guest Service @ Art Gallery | Up to $3700</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>81995931</t>
+          <t>81996173</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995931?type=standard&amp;ref=search-standalone#sol=d7d139dce16550543e580a92fef60e6dc04fd7b3</t>
+          <t>https://sg.jobstreet.com/job/81996173?type=standard&amp;ref=search-standalone#sol=5795c662dba01b0acfd36a0689996ac2d52ea770</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Rapid Recruitment Asia Pte Ltd</t>
+          <t>Adecco Personnel Pte Ltd.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5422,39 +5422,39 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>['Jurong East', ', West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Crisis Management Operations Executive (HEALTHCARE)  #HJW</t>
+          <t>Assistant Sales Engineer/Sales Engineer</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>81995930</t>
+          <t>81996159</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995930?type=standard&amp;ref=search-standalone#sol=2bada6b1a0258ee7a80df8953393d22b50fc8370</t>
+          <t>https://sg.jobstreet.com/job/81996159?type=standard&amp;ref=search-standalone#sol=fb9fde323e4f0d5e9fa3b1bd2c59792a11b0c417</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>RECRUIT EXPRESS PTE LTD</t>
+          <t>Daifuku Mechatronics (S) Pte Ltd</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5464,123 +5464,123 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Ang Mo Kio', ', North-East Region']</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Assistant Manager, Strategic Comms &amp; Public Relations (6 months Contract)</t>
+          <t>Nurse Manager (5.25 office hours, Specialist Clinic, 8K) #HJX</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>81995906</t>
+          <t>81996166</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995906?type=standard&amp;ref=search-standalone#sol=cff3f9acd10ffb882a390512e9aa534f3d5fd8a5</t>
+          <t>https://sg.jobstreet.com/job/81996166?type=standard&amp;ref=search-standalone#sol=832befa653c0802e25234d892bac2eee6d1b455b</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Sentosa Development Corporation &amp; Subsidiaries</t>
+          <t>RECRUIT EXPRESS PTE LTD</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>['Sentosa', ', Central Region']</t>
+          <t>['Novena', ', Central Region']</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Senior Executive, Graduation (R00018594)</t>
+          <t>Electronics Test Engineer</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>81995914</t>
+          <t>81996164</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995914?type=standard&amp;ref=search-standalone#sol=79a4a9ad6b63b41d80295e11ff6279d1ff275f71</t>
+          <t>https://sg.jobstreet.com/job/81996164?type=standard&amp;ref=search-standalone#sol=265eddaaa8e5f2154e0613a050043e2c874c304a</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Nanyang Technological University</t>
+          <t>Mindteck Singapore Pte Ltd</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Ang Mo Kio', ', North-East Region']</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Credit Risk Manager (Nearest MRT: Chinatown)</t>
+          <t>SG Only! Storekeeper (East/AWS/OT/Basic up to $2600/ Gross up to $3200)</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>81995902</t>
+          <t>81996161</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995902?type=standard&amp;ref=search-standalone#sol=41bfbc14fa9da798a5e3232a930eca6a33b91086</t>
+          <t>https://sg.jobstreet.com/job/81996161?type=standard&amp;ref=search-standalone#sol=bca8adcddb6491fe7d926d0be7ea3209e5830308</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>RECRUIT FAST PTE. LTD.</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5590,39 +5590,39 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>['Chinatown', ', Central Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Audit Associate (Central - $3,600)</t>
+          <t>Assistant Executive Housekeeper</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>81995877</t>
+          <t>81996160</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995877?type=standard&amp;ref=search-standalone#sol=3dff0e4d0770bccd3443b891e3da54ad198fe742</t>
+          <t>https://sg.jobstreet.com/job/81996160?type=standard&amp;ref=search-standalone#sol=acd5dabeb5d5e723de3b1ee11345bc11df267409</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>SINGAPORE FOZL GROUP PTE. LTD</t>
+          <t>Raffles Hotel Singapore</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5632,39 +5632,39 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>['Raffles Place', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>L1 System Engineer (Ref 23908)</t>
+          <t>WheelChair Transport Driver (Bus Driver Vocational License BDVL)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>81995894</t>
+          <t>81996152</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995894?type=standard&amp;ref=search-standalone#sol=71e7d81156a67835b253f01fa61bf2c4dc35e562</t>
+          <t>https://sg.jobstreet.com/job/81996152?type=standard&amp;ref=search-standalone#sol=3263d6cddb8d86e1293c5f77c3553133957d65d2</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>The Supreme HR Advisory Pte Ltd</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5674,39 +5674,39 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>['North Region']</t>
+          <t>['Kampong Ubi', ', Central Region']</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Senior / Manager, Equipment Management</t>
+          <t>聘请厨师 Cook/Chef (Near MRT)</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>81995867</t>
+          <t>81996146</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995867?type=standard&amp;ref=search-standalone#sol=cbf9f383db018832e99f25e46d07e5eb75fb0416</t>
+          <t>https://sg.jobstreet.com/job/81996146?type=standard&amp;ref=search-standalone#sol=56ac6047a3dda13c15c6e248c4e60d593d81d2b2</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Hapag-Lloyd Pte Ltd</t>
+          <t>Stuff'd Ventures Pte Ltd</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5716,39 +5716,39 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>['Downtown Tanjong Pagar', ', Central Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Clinic Assistant (No Experience)</t>
+          <t>Service Crew x 10</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>81995863</t>
+          <t>81996141</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995863?type=standard&amp;ref=search-standalone#sol=0523331941fd4319d9ed051814269775a7e2ba6a</t>
+          <t>https://sg.jobstreet.com/job/81996141?type=standard&amp;ref=search-standalone#sol=442271e1606a75b469473175b4abf479cbd9f875</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>JTE Recruit Pte Ltd</t>
+          <t>ZEN CAREER PTE. LTD.</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5763,76 +5763,76 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Senior Assistant Manager, Academic Learning</t>
+          <t>Procurement Assistant (Contract)</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>81995826</t>
+          <t>81996124</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995826?type=standard&amp;ref=search-standalone#sol=dd56767ed2560e7c6a7ff8e7082aa4300a71db47</t>
+          <t>https://sg.jobstreet.com/job/81996124?type=standard&amp;ref=search-standalone#sol=0ad04b71906fd6a1bd6c924c6d2ea231414f4f1f</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Nanyang Technological University</t>
+          <t>PSA Corporation Limited</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Pasir Panjang', ', Central Region']</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Manager, Corporate Secretariat</t>
+          <t>Cashier(French Luxury Brand)</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>81995819</t>
+          <t>81996117</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995819?type=standard&amp;ref=search-standalone#sol=e61479bcaa1155795f32560984acfe1965fae916</t>
+          <t>https://sg.jobstreet.com/job/81996117?type=standard&amp;ref=search-standalone#sol=aa4a8b4b69d9922f6e45060e87e3663d22e6f525</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Perennial Holdings Private Limited</t>
+          <t>Adecco Personnel Pte Ltd.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$6,000 – $8,500 per month</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5847,160 +5847,160 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Lab Admin Coordinator [Up to $3K | Life Science MNC] RRKC</t>
+          <t>Service Crew x 10</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>81995931</t>
+          <t>81996141</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995931?type=standard&amp;ref=search-standalone#sol=3209ae8cf23b9b085e2ad950c720e33eb6297931</t>
+          <t>https://sg.jobstreet.com/job/81996141?type=standard&amp;ref=search-standalone#sol=ca8ce2484f141224c6be06df99e349a5c6363a76</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Rapid Recruitment Asia Pte Ltd</t>
+          <t>ZEN CAREER PTE. LTD.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>['Jurong East', ', West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Crisis Management Operations Executive (HEALTHCARE)  #HJW</t>
+          <t>Procurement Assistant (Contract)</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>81995930</t>
+          <t>81996124</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995930?type=standard&amp;ref=search-standalone#sol=1f15a560699e0b347c5a93d1ca2d60036d0be584</t>
+          <t>https://sg.jobstreet.com/job/81996124?type=standard&amp;ref=search-standalone#sol=cbae1a25dfd675a63486f199a1c344f2ce63eace</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>RECRUIT EXPRESS PTE LTD</t>
+          <t>PSA Corporation Limited</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Pasir Panjang', ', Central Region']</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Assistant Manager, Strategic Comms &amp; Public Relations (6 months Contract)</t>
+          <t>Cashier(French Luxury Brand)</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>81995906</t>
+          <t>81996117</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995906?type=standard&amp;ref=search-standalone#sol=87b62fd8ff4a5d026c7ee4930ac3911f32660e37</t>
+          <t>https://sg.jobstreet.com/job/81996117?type=standard&amp;ref=search-standalone#sol=324ba1d8b64a0ff579a81c2068e0f9fd548b420e</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Sentosa Development Corporation &amp; Subsidiaries</t>
+          <t>Adecco Personnel Pte Ltd.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>['Sentosa', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Senior Executive, Graduation (R00018594)</t>
+          <t>Junior Software Developer (Java/BigData)</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>81995914</t>
+          <t>81997481</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995914?type=standard&amp;ref=search-standalone#sol=6af82fe45d2940333db4d7e78c10031700a9d7db</t>
+          <t>https://sg.jobstreet.com/job/81997481?type=standard&amp;ref=search-standalone#sol=779a66b34177e204ae7ae5e3ae825128109422c3</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Nanyang Technological University</t>
+          <t>LUXOFT INFORMATION TECHNOLOGY (SINGAPORE) PTE. LTD.</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6010,39 +6010,39 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Credit Risk Manager (Nearest MRT: Chinatown)</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>81995902</t>
+          <t>81997395</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995902?type=standard&amp;ref=search-standalone#sol=1063f619f16d9be43a44430e815094f97a6618fe</t>
+          <t>https://sg.jobstreet.com/job/81997395?type=standard&amp;ref=search-standalone#sol=d5884d55c612adf994c67b816faabce8c35dacb3</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RECRUIT FAST PTE. LTD.</t>
+          <t>LUXOFT INFORMATION TECHNOLOGY (SINGAPORE) PTE. LTD.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -6052,39 +6052,39 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>['Chinatown', ', Central Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Audit Associate (Central - $3,600)</t>
+          <t>Marketing Executive</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>81995877</t>
+          <t>81996102</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995877?type=standard&amp;ref=search-standalone#sol=6380dca013e6fb90176a2027234d08e5c35b254e</t>
+          <t>https://sg.jobstreet.com/job/81996102?type=standard&amp;ref=search-standalone#sol=9b14be653144711f59dbb5c377333c9a05a1fa0d</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>SINGAPORE FOZL GROUP PTE. LTD</t>
+          <t>HR Focus</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -6094,39 +6094,39 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>['Raffles Place', ', Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>L1 System Engineer (Ref 23908)</t>
+          <t>SG Only! Quality Admin, Logistics (Warehouse Exp / SAP / West / Bonus)</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>81995894</t>
+          <t>81996099</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995894?type=standard&amp;ref=search-standalone#sol=ac676ef4ef059f9b6b57b15703de0c6044f18a30</t>
+          <t>https://sg.jobstreet.com/job/81996099?type=standard&amp;ref=search-standalone#sol=064bd3ff08253ed949f4af80df4071d0be3d24f3</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -6136,39 +6136,39 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>['North Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Senior / Manager, Equipment Management</t>
+          <t>Key Shop Manager (Fashion, Footwear)</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>81995867</t>
+          <t>81996092</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995867?type=standard&amp;ref=search-standalone#sol=8e1aef4b009886ad8216bae3baafe1fe0b4585ef</t>
+          <t>https://sg.jobstreet.com/job/81996092?type=standard&amp;ref=search-standalone#sol=4613d28072491fc8da20be29bb75520fa9c07983</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Hapag-Lloyd Pte Ltd</t>
+          <t>Adecco Personnel Pte Ltd.</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -6178,39 +6178,39 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>['Downtown Tanjong Pagar', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Clinic Assistant (No Experience)</t>
+          <t>Accounts Assistant (AP)</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>81995863</t>
+          <t>81996051</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995863?type=standard&amp;ref=search-standalone#sol=7024ccec0315eed0808f3a886263cc9ece8b5e2c</t>
+          <t>https://sg.jobstreet.com/job/81996051?type=standard&amp;ref=search-standalone#sol=c6025351ee69ac5cc0dadbb41b844eff5555e082</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>JTE Recruit Pte Ltd</t>
+          <t>Compass Group (S) Pte Ltd</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -6220,39 +6220,39 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Tai Seng', ', North-East Region']</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>F&amp;b Captain</t>
+          <t>Sales Executive (Data Center/Sales engineer/Electrical product line) VL74</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>81997329</t>
+          <t>81996066</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997329?type=standard&amp;ref=search-standalone#sol=b245dc45aa6d9bd6a4add5b5b28fc8c8a10adc82</t>
+          <t>https://sg.jobstreet.com/job/81996066?type=standard&amp;ref=search-standalone#sol=99c710c9f56ffa455a980433eba32f857750d0aa</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Hotel Indigo Singapore Katong</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -6262,81 +6262,81 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>['Marine Parade', ', Central Region']</t>
+          <t>['Tuas', ', West Region']</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Senior Assistant Manager, Academic Learning</t>
+          <t>Patient Service Associates (Multiple Location/No Experience Need) #HLWT</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>81995826</t>
+          <t>81996043</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995826?type=standard&amp;ref=search-standalone#sol=fcbd43a4f6153503ad12eaec92c5a5fd40d0147b</t>
+          <t>https://sg.jobstreet.com/job/81996043?type=standard&amp;ref=search-standalone#sol=4ffc6924b47ce6d94c4b87b3a54bf72f5542c13e</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Nanyang Technological University</t>
+          <t>RECRUIT EXPRESS PTE LTD</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Manager, Corporate Secretariat</t>
+          <t>Sales Executive - Building Material</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>81995819</t>
+          <t>81996065</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995819?type=standard&amp;ref=search-standalone#sol=32bd532ed81ee55fd3ebb090735fad1c57ef1094</t>
+          <t>https://sg.jobstreet.com/job/81996065?type=standard&amp;ref=search-standalone#sol=dd0d3d9952b82a06d9f87901d3d15985434fc71c</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Perennial Holdings Private Limited</t>
+          <t>HR Focus</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -6346,39 +6346,39 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Senior/ Manager, Marketing Communications &amp; Partnership (Innovation/ Tech)</t>
+          <t>Network Engineer | $ 7000 | Singaporean Only</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>81995820</t>
+          <t>81996039</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995820?type=standard&amp;ref=search-standalone#sol=9e94450e133c494d469e3f20e29a694070005a7f</t>
+          <t>https://sg.jobstreet.com/job/81996039?type=standard&amp;ref=search-standalone#sol=8cc4ee4a3727a57b470b13ff313e6af56f5d1f33</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Talent Trader Group Pte Ltd</t>
+          <t>APBA TG Human Resource Pte Ltd</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -6393,34 +6393,34 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Executive Officer (Credit Control)</t>
+          <t>Senior Electrical Engineer (Power)</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>81995812</t>
+          <t>81996040</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995812?type=standard&amp;ref=search-standalone#sol=7e4ce80ab836d38994002f1b1ea64cff9f91cbd5</t>
+          <t>https://sg.jobstreet.com/job/81996040?type=standard&amp;ref=search-standalone#sol=d1827e8ab8d681686308549556140065577688df</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Singapore Power Ltd</t>
+          <t>WSP Consultancy Pte Ltd</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -6430,39 +6430,39 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>['Kallang', ', Central Region']</t>
+          <t>['One North', ', Central Region']</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>*NEW* 6 Months APAC Product/Partnerships Manager - Financial</t>
+          <t>Service Desk Analyst</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>81995815</t>
+          <t>81996003</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995815?type=standard&amp;ref=search-standalone#sol=2ab3a44ec99b6a705136913bd55f1766e8ae1116</t>
+          <t>https://sg.jobstreet.com/job/81996003?type=standard&amp;ref=search-standalone#sol=df3c5a70538832e709654f32e72e36ca8cf53de3</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Ambition Group Singapore Pte. Ltd. (SG)</t>
+          <t>Lenovo PCCW Solutions</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -6472,39 +6472,39 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Singapore River', ', Central Region']</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Staff Engineer Scheduling &amp; Dispatching</t>
+          <t>Senior Medical Sales Representative</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>81995811</t>
+          <t>81995958</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995811?type=standard&amp;ref=search-standalone#sol=60d4492e6e5ae8c7d227809ed538ddbec8220dcb</t>
+          <t>https://sg.jobstreet.com/job/81995958?type=standard&amp;ref=search-standalone#sol=b96b3da36853e01272c2f47019d347dcc347ebaf</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Infineon Technologies</t>
+          <t>Majeton Pte. Ltd.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -6514,29 +6514,29 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>['Kallang', ', Central Region']</t>
+          <t>['One North', ', Central Region']</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Senior Executive, Academic Learning (Undergraduate Programmes)</t>
+          <t>Research Assistant (Advanced Power Electronics)</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>81995780</t>
+          <t>81995997</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995780?type=standard&amp;ref=search-standalone#sol=e771d83cfe5a863936a6136d5f155d1bac068060</t>
+          <t>https://sg.jobstreet.com/job/81995997?type=standard&amp;ref=search-standalone#sol=648bb7c0e06d19956df5fd736b52514632c42fbe</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -6561,34 +6561,34 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PROJECT ENGINEER</t>
+          <t>Sales Administrator</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>81995731</t>
+          <t>81995943</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995731?type=standard&amp;ref=search-standalone#sol=4d5d1d910ea5422b7c0143ab2761263f97b4de01</t>
+          <t>https://sg.jobstreet.com/job/81995943?type=standard&amp;ref=search-standalone#sol=776ac06c30dbf37a9b6a0783d5c0d349c6911274</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>CHIAN TECK</t>
+          <t>Cable Care Pte Ltd</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -6598,39 +6598,39 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>['Woodlands', ', North Region']</t>
+          <t>['Ang Mo Kio', ', North-East Region']</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Lab Technologist (Chemistry/Haematology/Blood Bank) #HYS</t>
+          <t>Research Fellow (Nonlinear and Quantum Nanophotonics)</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>81995716</t>
+          <t>81995960</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995716?type=standard&amp;ref=search-standalone#sol=2ff4b7688f9298f7ba0e655594016930b096e585</t>
+          <t>https://sg.jobstreet.com/job/81995960?type=standard&amp;ref=search-standalone#sol=218b654fedeadd89bada9d83e23aac4a61dbf2c8</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RECRUIT EXPRESS PTE LTD</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6640,165 +6640,165 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Business Development Manager (SME Loans)</t>
+          <t>Admin Executive | Central</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>81995706</t>
+          <t>81995939</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995706?type=standard&amp;ref=search-standalone#sol=3c460fe699b8c359873dc6b34562702cd8ce9c08</t>
+          <t>https://sg.jobstreet.com/job/81995939?type=standard&amp;ref=search-standalone#sol=357f6e9b9d1a3c40b652e8fc76192cd99beadcf7</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Pasona Singapore Pte. Ltd.</t>
+          <t>APBA TG Human Resource Pte Ltd</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>['Chinatown', ', Central Region']</t>
+          <t>['Bendemeer', ', Central Region']</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PROJECT ENGINEER (CIVIL / M&amp;E)</t>
+          <t>Lab Admin Coordinator [Up to $3K | Life Science MNC] RRKC</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>81989659</t>
+          <t>81995931</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81989659?type=standard&amp;ref=search-standalone#sol=76194642bbd813a7948372bbf32658824bbc901a</t>
+          <t>https://sg.jobstreet.com/job/81995931?type=standard&amp;ref=search-standalone#sol=0b037687f488617b8550a8bd1784014ed63ee398</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>3L E&amp;C Pte. Ltd.</t>
+          <t>Rapid Recruitment Asia Pte Ltd</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>['Ang Mo Kio', ', North-East Region']</t>
+          <t>['Jurong East', ', West Region']</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Service Crew</t>
+          <t>Crisis Management Operations Executive (HEALTHCARE)  #HJW</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>81997332</t>
+          <t>81995930</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997332?type=standard&amp;ref=search-standalone#sol=82c0b25bc0ce68a59a79078f7f6fb4d6ec491e29</t>
+          <t>https://sg.jobstreet.com/job/81995930?type=standard&amp;ref=search-standalone#sol=599ddba85e50548660677230000efbb265d53d25</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Hotel Indigo Singapore Katong</t>
+          <t>RECRUIT EXPRESS PTE LTD</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>This is a Part time job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>['Marine Parade', ', Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Banking Sales Officer (Bank| Up to $3.1k) East</t>
+          <t>Assistant Manager, Strategic Comms &amp; Public Relations (6 months Contract)</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>81995673</t>
+          <t>81995906</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995673?type=standard&amp;ref=search-standalone#sol=ce7dd2ff007654963d65e31c8840ba664be26857</t>
+          <t>https://sg.jobstreet.com/job/81995906?type=standard&amp;ref=search-standalone#sol=d7bdc6e06ed7fc350ac31084507fabe227c29f4c</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>Sentosa Development Corporation &amp; Subsidiaries</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6808,39 +6808,39 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Sentosa', ', Central Region']</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Banking - Reconciliation Officer (up to $5k/East)</t>
+          <t>Senior Executive, Graduation (R00018594)</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>81995631</t>
+          <t>81995914</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995631?type=standard&amp;ref=search-standalone#sol=04850371221b355b65e5ea808a0280cfed4b443e</t>
+          <t>https://sg.jobstreet.com/job/81995914?type=standard&amp;ref=search-standalone#sol=3836be9d7b21f81f32f426a29b9819826065a2e3</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6850,39 +6850,39 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HR &amp; Office Administrator</t>
+          <t>Credit Risk Manager (Nearest MRT: Chinatown)</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>81995542</t>
+          <t>81995902</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995542?type=standard&amp;ref=search-standalone#sol=862904af02ed5d88932dda69f0575a759e1f4e46</t>
+          <t>https://sg.jobstreet.com/job/81995902?type=standard&amp;ref=search-standalone#sol=adc82852492066456b7d411d34522bf0f2435474</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>GENII IDEAS(S) PTE LTD</t>
+          <t>RECRUIT FAST PTE. LTD.</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6892,39 +6892,39 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>['Tampines', ', East Region']</t>
+          <t>['Chinatown', ', Central Region']</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Junior Personal Assistant</t>
+          <t>Audit Associate (Central - $3,600)</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>81995433</t>
+          <t>81995877</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995433?type=standard&amp;ref=search-standalone#sol=304a110427780bc1510dccf3af37d5a82abaf291</t>
+          <t>https://sg.jobstreet.com/job/81995877?type=standard&amp;ref=search-standalone#sol=64756c39312f25024367849cdc003cda3c4c477a</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Centurion Corporation Limited</t>
+          <t>SINGAPORE FOZL GROUP PTE. LTD</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>['East Region']</t>
+          <t>['Raffles Place', ', Central Region']</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6946,27 +6946,27 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Audit Partner (Central - $18,000)</t>
+          <t>L1 System Engineer (Ref 23908)</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>81994708</t>
+          <t>81995894</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994708?type=standard&amp;ref=search-standalone#sol=18e41e7fd5dbd425801cb2cd5bf22e3bb0d3dbf8</t>
+          <t>https://sg.jobstreet.com/job/81995894?type=standard&amp;ref=search-standalone#sol=166817469aa6e16ec3b2edc2aa1067c028abfe89</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>SINGAPORE FOZL GROUP PTE. LTD</t>
+          <t>Private Advertiser</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>['Raffles Place', ', Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6988,27 +6988,27 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BD, Sales Executive (Entry Level / Logistics Industry)</t>
+          <t>Senior / Manager, Equipment Management</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>81995488</t>
+          <t>81995867</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995488?type=standard&amp;ref=search-standalone#sol=a83f4abb1232e841c01475364954afa3bb6abfca</t>
+          <t>https://sg.jobstreet.com/job/81995867?type=standard&amp;ref=search-standalone#sol=f75eb011fffc953deaad5255229bdb27a8943505</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>RK Recruitment Pte. Ltd.</t>
+          <t>Hapag-Lloyd Pte Ltd</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>['East Region']</t>
+          <t>['Downtown Tanjong Pagar', ', Central Region']</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7030,27 +7030,27 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Assistant Contracts Manager (CRL MRT project, A1 main con) - YL</t>
+          <t>Clinic Assistant (No Experience)</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>81995425</t>
+          <t>81995863</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995425?type=standard&amp;ref=search-standalone#sol=6ddddc2a160e85badff2da6733457624570cf753</t>
+          <t>https://sg.jobstreet.com/job/81995863?type=standard&amp;ref=search-standalone#sol=0c8329926e52d9034ba843fb672ce464c37b5e7d</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>PeopleSearch Pte Ltd</t>
+          <t>JTE Recruit Pte Ltd</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>['East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7072,27 +7072,27 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Lift Technician ( Islandwide / Up to $3800 / 5 Days）</t>
+          <t>F&amp;b Captain</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>81995454</t>
+          <t>81997329</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995454?type=standard&amp;ref=search-standalone#sol=af99621013ac59408790cfcaa97a1ac2a2e2985e</t>
+          <t>https://sg.jobstreet.com/job/81997329?type=standard&amp;ref=search-standalone#sol=0d0ca2dbdf71b671d7b093cd8868fe1eacc0555c</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>ALWAYSHIRED PTE. LTD.</t>
+          <t>Hotel Indigo Singapore Katong</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Marine Parade', ', Central Region']</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7114,17 +7114,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Senior Assistant Manager, Graduate College</t>
+          <t>Senior Assistant Manager, Academic Learning</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>81995407</t>
+          <t>81995826</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995407?type=standard&amp;ref=search-standalone#sol=e61028ec43ba1bc158453e17695c3bb08e7b3f52</t>
+          <t>https://sg.jobstreet.com/job/81995826?type=standard&amp;ref=search-standalone#sol=9d14af9a777779cc5d48f983615ae906e1574bff</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -7156,27 +7156,27 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Business Development Manager</t>
+          <t>Manager, Corporate Secretariat</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>81997340</t>
+          <t>81995819</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997340?type=standard&amp;ref=search-standalone#sol=32f217cd7e4abe1ddc93ec83a65280995043f85a</t>
+          <t>https://sg.jobstreet.com/job/81995819?type=standard&amp;ref=search-standalone#sol=1a669757bdd7511fed87a11db3ca0b344b425379</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Hatch Asia</t>
+          <t>Perennial Holdings Private Limited</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>$2,400 – $3,000 per month</t>
+          <t>$2,000 – $3,000 per month</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -7198,27 +7198,27 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Banking - Reconciliation Officer (up to $5k/East)</t>
+          <t>Executive Officer (Credit Control)</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>81995631</t>
+          <t>81995812</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995631?type=standard&amp;ref=search-standalone#sol=50e8c89f11a1f594a57db9c7aaaa454b5c599024</t>
+          <t>https://sg.jobstreet.com/job/81995812?type=standard&amp;ref=search-standalone#sol=ac9d0f05953bbdf18dbd65be22be6809efba3733</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>Singapore Power Ltd</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -7228,39 +7228,39 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Kallang', ', Central Region']</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>HR &amp; Office Administrator</t>
+          <t>*NEW* 6 Months APAC Product/Partnerships Manager - Financial</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>81995542</t>
+          <t>81995815</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995542?type=standard&amp;ref=search-standalone#sol=740268b60cd622d69b58e4a127f38af44a687ac1</t>
+          <t>https://sg.jobstreet.com/job/81995815?type=standard&amp;ref=search-standalone#sol=48a0a2a6dc8238ead8e5428ddb45d2e249e7e406</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>GENII IDEAS(S) PTE LTD</t>
+          <t>Ambition Group Singapore Pte. Ltd. (SG)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -7270,7 +7270,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>['Tampines', ', East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -7282,27 +7282,27 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Junior Personal Assistant</t>
+          <t>Staff Engineer Scheduling &amp; Dispatching</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>81995433</t>
+          <t>81995811</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995433?type=standard&amp;ref=search-standalone#sol=7f56375f4e9ee90ff422e94c0ca80c32d7ac39f8</t>
+          <t>https://sg.jobstreet.com/job/81995811?type=standard&amp;ref=search-standalone#sol=6bff5a7f3565de9d2fbc46f931c738df4f9d35e4</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Centurion Corporation Limited</t>
+          <t>Infineon Technologies</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -7312,7 +7312,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>['East Region']</t>
+          <t>['Kallang', ', Central Region']</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -7324,27 +7324,27 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Audit Partner (Central - $18,000)</t>
+          <t>Senior Executive, Academic Learning (Undergraduate Programmes)</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>81994708</t>
+          <t>81995780</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994708?type=standard&amp;ref=search-standalone#sol=66cba7f20172b23a916b13b67c94bae55389a2ca</t>
+          <t>https://sg.jobstreet.com/job/81995780?type=standard&amp;ref=search-standalone#sol=1d85b51607e1191b16a92394384f5275ca3d5d68</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>SINGAPORE FOZL GROUP PTE. LTD</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>['Raffles Place', ', Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -7366,27 +7366,27 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BD, Sales Executive (Entry Level / Logistics Industry)</t>
+          <t>PROJECT ENGINEER</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>81995488</t>
+          <t>81995731</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995488?type=standard&amp;ref=search-standalone#sol=b74521086bb0993a1a6e254bfd8bcd55d27f7462</t>
+          <t>https://sg.jobstreet.com/job/81995731?type=standard&amp;ref=search-standalone#sol=1614c50e04badb7758cec5c5b62ddebd2d399797</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>RK Recruitment Pte. Ltd.</t>
+          <t>CHIAN TECK</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>['East Region']</t>
+          <t>['Woodlands', ', North Region']</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -7408,27 +7408,27 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Assistant Contracts Manager (CRL MRT project, A1 main con) - YL</t>
+          <t>Lab Technologist (Chemistry/Haematology/Blood Bank) #HYS</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>81995425</t>
+          <t>81995716</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995425?type=standard&amp;ref=search-standalone#sol=c75fda2fdb3cfd3b0e9cf325c849e028da4edeec</t>
+          <t>https://sg.jobstreet.com/job/81995716?type=standard&amp;ref=search-standalone#sol=2786a36bf4bcc51200199f1bcb9d0982fd5dd387</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>PeopleSearch Pte Ltd</t>
+          <t>RECRUIT EXPRESS PTE LTD</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -7438,7 +7438,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>['East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -7450,27 +7450,27 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Lift Technician ( Islandwide / Up to $3800 / 5 Days）</t>
+          <t>Business Development Manager (SME Loans)</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>81995454</t>
+          <t>81995706</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995454?type=standard&amp;ref=search-standalone#sol=c75a7fc397169d94ca201b6292b222d9ec475696</t>
+          <t>https://sg.jobstreet.com/job/81995706?type=standard&amp;ref=search-standalone#sol=18aa398a8b6f3ba0b9adfc2e8f10331bfff1c80c</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>ALWAYSHIRED PTE. LTD.</t>
+          <t>Pasona Singapore Pte. Ltd.</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Chinatown', ', Central Region']</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -7492,27 +7492,27 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Senior Assistant Manager, Graduate College</t>
+          <t>PROJECT ENGINEER (CIVIL / M&amp;E)</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>81995407</t>
+          <t>81989659</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995407?type=standard&amp;ref=search-standalone#sol=17e99b21e0dc7c42a342d07d91e80a28825cb625</t>
+          <t>https://sg.jobstreet.com/job/81989659?type=standard&amp;ref=search-standalone#sol=c9fae8f7c2cdabefea4233b235789f5cc69a5236</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Nanyang Technological University</t>
+          <t>3L E&amp;C Pte. Ltd.</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Ang Mo Kio', ', North-East Region']</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -7534,37 +7534,37 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Business Development Manager</t>
+          <t>Service Crew</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>81997340</t>
+          <t>81997332</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997340?type=standard&amp;ref=search-standalone#sol=db1b8e5d8cb31681b9ca0c62ed16841f8783f2f0</t>
+          <t>https://sg.jobstreet.com/job/81997332?type=standard&amp;ref=search-standalone#sol=39d2a88c60ae406e392f1e91d7c62248ef036945</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Hatch Asia</t>
+          <t>Hotel Indigo Singapore Katong</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Part time job</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Marine Parade', ', Central Region']</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7576,37 +7576,37 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Associate Clinical Research Coordinator (Dept of Urology) (Contract)</t>
+          <t>Banking Sales Officer (Bank| Up to $3.1k) East</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>81995140</t>
+          <t>81995673</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995140?type=standard&amp;ref=search-standalone#sol=887e6da6374f292f359fb4a9d283134361b150ef</t>
+          <t>https://sg.jobstreet.com/job/81995673?type=standard&amp;ref=search-standalone#sol=a60af61ef3d8f7af0e18414e266844223e10cbd9</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Singapore General Hospital</t>
+          <t>Adecco Personnel Pte Ltd.</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>This is a Part time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>['Bukit Merah', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -7618,27 +7618,27 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Assistant Manager, IPGC Operations</t>
+          <t>Banking - Reconciliation Officer (up to $5k/East)</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>81995041</t>
+          <t>81995631</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995041?type=standard&amp;ref=search-standalone#sol=86e60da49613cdf3b8ea6a9efe1aa467699e29cc</t>
+          <t>https://sg.jobstreet.com/job/81995631?type=standard&amp;ref=search-standalone#sol=711c25c0e55d17efb8576291df2113cc38cfd19a</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Nanyang Technological University</t>
+          <t>Adecco Personnel Pte Ltd.</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -7660,27 +7660,27 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sales Development Representative</t>
+          <t>HR &amp; Office Administrator</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>81997358</t>
+          <t>81995542</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997358?type=standard&amp;ref=search-standalone#sol=a040514ef63ceed24c9cd7a7959499f6fdb15ad0</t>
+          <t>https://sg.jobstreet.com/job/81995542?type=standard&amp;ref=search-standalone#sol=1253606917dc002ad088abd52dfd3aefbe9b0416</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Darktrace Singapore Pte. Ltd.</t>
+          <t>GENII IDEAS(S) PTE LTD</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Tampines', ', East Region']</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7702,27 +7702,27 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Marketing Executive</t>
+          <t>Junior Personal Assistant</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>81994831</t>
+          <t>81995433</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994831?type=standard&amp;ref=search-standalone#sol=4f2ede07a21d151a7da8836d7b39603f88306a13</t>
+          <t>https://sg.jobstreet.com/job/81995433?type=standard&amp;ref=search-standalone#sol=d83789e134c3abe06a0b26863e4223da093a3105</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Ascle Healthcare Private Limited</t>
+          <t>Centurion Corporation Limited</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>['Bugis', ', Central Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7744,27 +7744,27 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Senior/ Data Engineer (Contract)</t>
+          <t>Audit Partner (Central - $18,000)</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>81994877</t>
+          <t>81994708</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994877?type=standard&amp;ref=search-standalone#sol=3dbe0c92f6e0b38355d4370dd5c2a00950527691</t>
+          <t>https://sg.jobstreet.com/job/81994708?type=standard&amp;ref=search-standalone#sol=89f09823b3df201e1cfe09b32ae0209b97e3ab76</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Ng Teng Fong General Hospital</t>
+          <t>SINGAPORE FOZL GROUP PTE. LTD</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>['Jurong East', ', West Region']</t>
+          <t>['Raffles Place', ', Central Region']</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7786,37 +7786,37 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Temp Billing Analyst (Healthcare, 12 months)</t>
+          <t>BD, Sales Executive (Entry Level / Logistics Industry)</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>81994737</t>
+          <t>81995488</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994737?type=standard&amp;ref=search-standalone#sol=ec38825ad84e18976e9cfc835005c896cc4be211</t>
+          <t>https://sg.jobstreet.com/job/81995488?type=standard&amp;ref=search-standalone#sol=b6214567f7a193a241bb1bb2d7691254f7d457c0</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ScienTec Consulting Pte Ltd</t>
+          <t>RK Recruitment Pte. Ltd.</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7828,27 +7828,27 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Senior M&amp;E Engineer</t>
+          <t>Assistant Contracts Manager (CRL MRT project, A1 main con) - YL</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>81994656</t>
+          <t>81995425</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994656?type=standard&amp;ref=search-standalone#sol=9474b1393658f7ff57b1216670fdd798bc08ac50</t>
+          <t>https://sg.jobstreet.com/job/81995425?type=standard&amp;ref=search-standalone#sol=1405b445d1012d37ef44bf20c2ba258cdb12baa7</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>RK Recruitment Pte. Ltd.</t>
+          <t>PeopleSearch Pte Ltd</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>['Downtown Core', ', Central Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7870,27 +7870,27 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Engagement (Community Partnership)</t>
+          <t>Lift Technician ( Islandwide / Up to $3800 / 5 Days）</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>81994430</t>
+          <t>81995454</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994430?type=standard&amp;ref=search-standalone#sol=2b854b13c1fd965030ad7987ed2d523f753e2b51</t>
+          <t>https://sg.jobstreet.com/job/81995454?type=standard&amp;ref=search-standalone#sol=fe8498e3745fb873a42039c023dd0d750a923910</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>MINDSG LTD</t>
+          <t>ALWAYSHIRED PTE. LTD.</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>['Queenstown', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7912,27 +7912,27 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Executive Director, Underwriting Risk Management</t>
+          <t>Senior Assistant Manager, Graduate College</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>81997375</t>
+          <t>81995407</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997375?type=standard&amp;ref=search-standalone#sol=cfc6058c5ebfb3b74a67c201804cf8daf2aa20ff</t>
+          <t>https://sg.jobstreet.com/job/81995407?type=standard&amp;ref=search-standalone#sol=5e1108773f126315a3eded832b27bcb6c50439f6</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Sumitomo Mitsui Banking Corporation</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7954,27 +7954,27 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Logistics Coordinator / Warehouse Operations Assistant (MNC)</t>
+          <t>Business Development Manager</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>81994325</t>
+          <t>81997340</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994325?type=standard&amp;ref=search-standalone#sol=6b4c4131f284c82158e3deaaf78a8ad628d684cc</t>
+          <t>https://sg.jobstreet.com/job/81997340?type=standard&amp;ref=search-standalone#sol=fd98a774e0640bc812a277902bc64fc2c9f1eb6f</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>RK Recruitment Pte. Ltd.</t>
+          <t>Hatch Asia</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -7996,37 +7996,37 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Senior Test Engineer (Microsoft Dynamics CRM &amp; Test Automation) (Ref 25947)</t>
+          <t>Associate Clinical Research Coordinator (Dept of Urology) (Contract)</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>81994240</t>
+          <t>81995140</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994240?type=standard&amp;ref=search-standalone#sol=82751fd750813c4a707e1e982163fa415ab5500d</t>
+          <t>https://sg.jobstreet.com/job/81995140?type=standard&amp;ref=search-standalone#sol=049c2b3e6e20efb727428374056e9bbd728fdc91</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>Singapore General Hospital</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Part time job</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Bukit Merah', ', Central Region']</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -8038,27 +8038,27 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Senior HR &amp; Admin Assistant</t>
+          <t>Assistant Manager, IPGC Operations</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>81994239</t>
+          <t>81995041</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994239?type=standard&amp;ref=search-standalone#sol=ff9fdbee77c2641d640d9ac310e470be95171a8e</t>
+          <t>https://sg.jobstreet.com/job/81995041?type=standard&amp;ref=search-standalone#sol=22c44a1212ad325b848eb747112d5fcf6b73545e</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>['East Coast', ', Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -8080,27 +8080,27 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>QA/QC Engineer</t>
+          <t>Sales Development Representative</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>81994065</t>
+          <t>81997358</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994065?type=standard&amp;ref=search-standalone#sol=6bc81b1119c501f46ed02de7a36cbef138dc6252</t>
+          <t>https://sg.jobstreet.com/job/81997358?type=standard&amp;ref=search-standalone#sol=f090a3659bb268638f5336f8b09757c8a55a2fd3</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>GENII IDEAS(S) PTE LTD</t>
+          <t>Darktrace Singapore Pte. Ltd.</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>['Tampines North', ', East Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -8122,27 +8122,27 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Assistant Manager, Semester Exchange Programme (Inbound)</t>
+          <t>Senior/ Data Engineer (Contract)</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>81994043</t>
+          <t>81994877</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994043?type=standard&amp;ref=search-standalone#sol=ce9512fd846ba094fce255826bfed86186f6c5ff</t>
+          <t>https://sg.jobstreet.com/job/81994877?type=standard&amp;ref=search-standalone#sol=574707a7411624dc2c79bcc8794982d7300f4c4d</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Nanyang Technological University</t>
+          <t>Ng Teng Fong General Hospital</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Jurong East', ', West Region']</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -8164,27 +8164,27 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Cyber Security Manager</t>
+          <t>Marketing Executive</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>81994009</t>
+          <t>81994831</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994009?type=standard&amp;ref=search-standalone#sol=7f5da3449af02773739222ae05335c936cd46c55</t>
+          <t>https://sg.jobstreet.com/job/81994831?type=standard&amp;ref=search-standalone#sol=29c3b507c8cf254d1e495e538a7612343d879aaf</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Toyota Financial Services Singapore Pte. Ltd.</t>
+          <t>Ascle Healthcare Private Limited</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>['Downtown Tanjong Pagar', ', Central Region']</t>
+          <t>['Bugis', ', Central Region']</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -8206,37 +8206,37 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Audit Associate / Semi-Senior / Senior</t>
+          <t>Temp Billing Analyst (Healthcare, 12 months)</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>81993996</t>
+          <t>81994737</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81993996?type=standard&amp;ref=search-standalone#sol=85746cd46b072c23a2a505b35d124c1d532fa96b</t>
+          <t>https://sg.jobstreet.com/job/81994737?type=standard&amp;ref=search-standalone#sol=d78a10baf7c8ca7add336387bb21563224e0b59b</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Ecovis Assurance LLP</t>
+          <t>ScienTec Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -8248,27 +8248,27 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Contract Specialist (US Tech MNC)</t>
+          <t>Senior M&amp;E Engineer</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>81993964</t>
+          <t>81994656</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81993964?type=standard&amp;ref=search-standalone#sol=d21f550f03698b13bb63d5b9afed231e83cc0e5f</t>
+          <t>https://sg.jobstreet.com/job/81994656?type=standard&amp;ref=search-standalone#sol=bab3f431f84e70883b0f4b8999993cbf1fc1eb31</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>RK Recruitment Pte. Ltd.</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Downtown Core', ', Central Region']</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -8290,27 +8290,27 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Information Security Engineer (West / Healthcare) (ID: 667191)</t>
+          <t>Executive / Senior Executive, Engagement (Community Partnership)</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>81993937</t>
+          <t>81994430</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81993937?type=standard&amp;ref=search-standalone#sol=ba68855278936e4a9a25ad74e5ab7c15e75bcd12</t>
+          <t>https://sg.jobstreet.com/job/81994430?type=standard&amp;ref=search-standalone#sol=432571821c29db30294f30af1ebb4efbedcdc81d</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>PERSOLKELLY Singapore Pte Ltd (Formerly Kelly Services Singapore Pte Ltd)</t>
+          <t>MINDSG LTD</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Queenstown', ', Central Region']</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -8332,27 +8332,27 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Senior/Executive, Clinical Services</t>
+          <t>Executive Director, Underwriting Risk Management</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>81993915</t>
+          <t>81997375</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81993915?type=standard&amp;ref=search-standalone#sol=960ead6782333a2d8b841181124b6c04248bec59</t>
+          <t>https://sg.jobstreet.com/job/81997375?type=standard&amp;ref=search-standalone#sol=0b5eec2374698681c8a36e7035bb4f6b58a42fd7</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Woodlands Health</t>
+          <t>Sumitomo Mitsui Banking Corporation</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -8362,7 +8362,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>['Woodlands South', ', North Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -8374,27 +8374,27 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Interior Designer Assistant</t>
+          <t>Logistics Coordinator / Warehouse Operations Assistant (MNC)</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>81993846</t>
+          <t>81994325</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81993846?type=standard&amp;ref=search-standalone#sol=ed756e9b7c16f61f8214a1e82a399d92c1b40fee</t>
+          <t>https://sg.jobstreet.com/job/81994325?type=standard&amp;ref=search-standalone#sol=56838ba5b68bf0d307165ba0ce1426b64dbc7fa3</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Urban Home Design Pte Ltd</t>
+          <t>RK Recruitment Pte. Ltd.</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -8404,7 +8404,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -8416,27 +8416,27 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Executive, Engagement (Community Partnerships)</t>
+          <t>Senior Test Engineer (Microsoft Dynamics CRM &amp; Test Automation) (Ref 25947)</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>81993821</t>
+          <t>81994240</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81993821?type=standard&amp;ref=search-standalone#sol=1d33b99fefbe6ceda699e50fc809f2e36a7ee9b3</t>
+          <t>https://sg.jobstreet.com/job/81994240?type=standard&amp;ref=search-standalone#sol=212f4d06e2146d72465f658ef8aa81fe79e59d29</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>MINDSG LTD</t>
+          <t>Private Advertiser</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>['Queenstown', ', Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -8458,27 +8458,27 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Product Executive</t>
+          <t>Senior HR &amp; Admin Assistant</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>81993841</t>
+          <t>81994239</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81993841?type=standard&amp;ref=search-standalone#sol=3dace0b7c094a3c3212dff815f2f3df2d215bfdc</t>
+          <t>https://sg.jobstreet.com/job/81994239?type=standard&amp;ref=search-standalone#sol=0e459ddc0d86766438a22d69fc23f5b1bddd9ec4</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Setelco Communications Pte. Ltd.</t>
+          <t>Private Advertiser</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>['North-East Region']</t>
+          <t>['East Coast', ', Central Region']</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -8500,37 +8500,37 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Locum Pharmacist</t>
+          <t>QA/QC Engineer</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>81993837</t>
+          <t>81994065</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81993837?type=standard&amp;ref=search-standalone#sol=d0e957af99bd43a4005bf0060b25e91a0def8445</t>
+          <t>https://sg.jobstreet.com/job/81994065?type=standard&amp;ref=search-standalone#sol=943e3c9d9f23438735399e97b54f591bb4fd04fb</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Sengkang General Hospital Pte. Ltd.</t>
+          <t>GENII IDEAS(S) PTE LTD</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>$3500 - $5k p.m.</t>
+          <t>$7,000 – $9,000 per month</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>This is a Part time job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>['North-East Region']</t>
+          <t>['Tampines North', ', East Region']</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -8542,27 +8542,27 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Audit Associate / Semi-Senior / Senior</t>
+          <t>Retail Sales Associate (Beauty/ High Comm/ Islandwide) GN9</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>81993996</t>
+          <t>81992328</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81993996?type=standard&amp;ref=search-standalone#sol=5dccff8aa8d54bfc7da9c5780b3ebb01a3294e66</t>
+          <t>https://sg.jobstreet.com/job/81992328?type=standard&amp;ref=search-standalone#sol=f23378c0fb230c55fb4aece17252d0abddbf50a5</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Ecovis Assurance LLP</t>
+          <t>MCI Career Services Pte Ltd</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>$3,000 – $3,800 per month</t>
+          <t>$2,200 – $3,000 per month</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Orchard', ', Central Region']</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -8584,27 +8584,27 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Contract Specialist (US Tech MNC)</t>
+          <t>Pharmacy Assistant (Temp)</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>81993964</t>
+          <t>81992192</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81993964?type=standard&amp;ref=search-standalone#sol=120d20087763c3c530efb391f4d050a8c9ca3842</t>
+          <t>https://sg.jobstreet.com/job/81992192?type=standard&amp;ref=search-standalone#sol=bcccf08b2104088783cd365ce4681f0fe60dde99</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>Sengkang General Hospital Pte. Ltd.</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>$3,000 – $3,800 per month</t>
+          <t>$2,200 – $3,000 per month</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -8614,7 +8614,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Sengkang', ', North-East Region']</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -8626,27 +8626,27 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Information Security Engineer (West / Healthcare) (ID: 667191)</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>81993937</t>
+          <t>81992203</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81993937?type=standard&amp;ref=search-standalone#sol=b57a8394a1b6592663d6ce9c242093a5dffef47d</t>
+          <t>https://sg.jobstreet.com/job/81992203?type=standard&amp;ref=search-standalone#sol=f33a4178c22fea4c056fd86e82a31b339b2feec4</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>PERSOLKELLY Singapore Pte Ltd (Formerly Kelly Services Singapore Pte Ltd)</t>
+          <t>Adecco Personnel Pte Ltd.</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>$3,000 – $3,800 per month</t>
+          <t>$2,200 – $3,000 per month</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -8668,27 +8668,27 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Senior/Executive, Clinical Services</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>81993915</t>
+          <t>81992202</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81993915?type=standard&amp;ref=search-standalone#sol=fd4c39e74b686639f6bb8bd0a8c2c7cbb62b855c</t>
+          <t>https://sg.jobstreet.com/job/81992202?type=standard&amp;ref=search-standalone#sol=503ad9e71c8b88a1b825f6d9441afe0f249ccfa1</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Woodlands Health</t>
+          <t>Adecco Personnel Pte Ltd.</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>$3,000 – $3,800 per month</t>
+          <t>$2,200 – $3,000 per month</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>['Woodlands South', ', North Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -8710,37 +8710,37 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Interior Designer Assistant</t>
+          <t>School Admin Executive - UP $4500, Pioneer, 1 Year Contract</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>81993846</t>
+          <t>81992116</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81993846?type=standard&amp;ref=search-standalone#sol=8bb68cc5723865a02e6b5955f82fcdcc734dc5b3</t>
+          <t>https://sg.jobstreet.com/job/81992116?type=standard&amp;ref=search-standalone#sol=9ed240cf8bd24fba5ea36111025f0c3061cad2f9</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Urban Home Design Pte Ltd</t>
+          <t>RecruitFirst Pte. Ltd</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>$3,000 – $3,800 per month</t>
+          <t>$2,200 – $3,000 per month</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -8752,27 +8752,27 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Executive, Engagement (Community Partnerships)</t>
+          <t>Software Development Engineer</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>81993821</t>
+          <t>81992110</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81993821?type=standard&amp;ref=search-standalone#sol=c00b120584a1b02d7299982b6d33558b844755a5</t>
+          <t>https://sg.jobstreet.com/job/81992110?type=standard&amp;ref=search-standalone#sol=129122da5a4d06b5ba53c9e89ef264510c54c33e</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>MINDSG LTD</t>
+          <t>Advanced Micro Devices (S) Pte Ltd</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>$3,000 – $3,800 per month</t>
+          <t>$2,200 – $3,000 per month</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>['Queenstown', ', Central Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8794,27 +8794,27 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Product Executive</t>
+          <t>Junior Sous Chef / Sous Chef</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>81993841</t>
+          <t>81992084</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81993841?type=standard&amp;ref=search-standalone#sol=4f320fe5bdc80edde0c80dd8b4687f5ec5cfdac9</t>
+          <t>https://sg.jobstreet.com/job/81992084?type=standard&amp;ref=search-standalone#sol=a7bdb7613878f2807fc91aa6e90a6721b64bab5a</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Setelco Communications Pte. Ltd.</t>
+          <t>Inter Island Manpower Pte Ltd</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>$3,000 – $3,800 per month</t>
+          <t>$2,200 – $3,000 per month</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>['North-East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8836,37 +8836,37 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Locum Pharmacist</t>
+          <t>Logistics Coordinator #73579</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>81993837</t>
+          <t>81991938</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81993837?type=standard&amp;ref=search-standalone#sol=84821532296e3a793ed8c383154cb1fa7239069c</t>
+          <t>https://sg.jobstreet.com/job/81991938?type=standard&amp;ref=search-standalone#sol=193d584f0791091d9882b2113c2e72b63bd6c99f</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Sengkang General Hospital Pte. Ltd.</t>
+          <t>Anradus Pte. Ltd.</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>$3,000 – $3,800 per month</t>
+          <t>$2,200 – $3,000 per month</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>This is a Part time job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>['North-East Region']</t>
+          <t>['Kampong Ubi', ', Central Region']</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">

--- a/cyx_jobstreet_jobs_selenium.xlsx
+++ b/cyx_jobstreet_jobs_selenium.xlsx
@@ -478,22 +478,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Store Assistant</t>
+          <t>Social Worker (CREST / COMIT)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>81997313</t>
+          <t>81997512</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997313?type=standard&amp;ref=search-standalone#sol=0ea834d4b0af42cb92b964ac8d3d3761bb5328f9</t>
+          <t>https://sg.jobstreet.com/job/81997512?type=standard&amp;ref=search-standalone#sol=52286d37970b619ba276c5a7ee271cb788d31cac</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SIMCC PTE LTD</t>
+          <t>Viriya Community Services</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -508,34 +508,34 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>55m ago</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
+          <t>Senior Planning Engineer ( Waterfront Project )</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>81997306</t>
+          <t>81997354</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997306?type=standard&amp;ref=search-standalone#sol=9ebc3980000e6c3b2fc39c495667941098c6b48f</t>
+          <t>https://sg.jobstreet.com/job/81997354?type=standard&amp;ref=search-standalone#sol=f3c92a9c620efdba29a70aeeb86d4638f65e59a6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Sentosa', ', Central Region']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -562,22 +562,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
+          <t>Security Systems Project Director</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>81997291</t>
+          <t>81997351</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997291?type=standard&amp;ref=search-standalone#sol=f97c2ab0eb257a8f5cfe5e5c614340824a0c2a1e</t>
+          <t>https://sg.jobstreet.com/job/81997351?type=standard&amp;ref=search-standalone#sol=8e79737917a62547ab558a069b74e78c4771634d</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Paya Lebar', ', East Region']</t>
+          <t>['Commonwealth', ', Central Region']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -604,22 +604,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Project Manager (Security Technology)</t>
+          <t>Store Assistant</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>81997279</t>
+          <t>81997313</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997279?type=standard&amp;ref=search-standalone#sol=6ef35921732e2f7a99cfa439eb38f181fdfcdc97</t>
+          <t>https://sg.jobstreet.com/job/81997313?type=standard&amp;ref=search-standalone#sol=d94d22ae126a2591808444561d852d485891c9db</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>SIMCC PTE LTD</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Commonwealth', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -646,22 +646,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>81997278</t>
+          <t>81997306</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997278?type=standard&amp;ref=search-standalone#sol=be4c0e30df306d136f033fa0e5f0903bdf576873</t>
+          <t>https://sg.jobstreet.com/job/81997306?type=standard&amp;ref=search-standalone#sol=6972720a44266d3babc4d9190c9d171c7d86a869</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -688,22 +688,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
+          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>81997121</t>
+          <t>81997291</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997121?type=standard&amp;ref=search-standalone#sol=c2c0882f9ea47e087c0c8aee3ef10743969ca2dc</t>
+          <t>https://sg.jobstreet.com/job/81997291?type=standard&amp;ref=search-standalone#sol=a3626e9e0b24b7fb7e4b453cf306bda3fccd334d</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Paya Lebar', ', East Region']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -730,22 +730,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Property Management</t>
+          <t>Project Manager (Security Technology)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>81997091</t>
+          <t>81997279</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997091?type=standard&amp;ref=search-standalone#sol=af7ae5b0a6d19a2c8e69363e325bc7fd3001c7b0</t>
+          <t>https://sg.jobstreet.com/job/81997279?type=standard&amp;ref=search-standalone#sol=aedeaa8b3d1a1d099b65122b1ee6156914f0653d</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Commonwealth', ', Central Region']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -772,22 +772,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sales Consultant</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>81997077</t>
+          <t>81997278</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997077?type=standard&amp;ref=search-standalone#sol=8e5dc388005df86e06146c8cc1b4e31e90944d11</t>
+          <t>https://sg.jobstreet.com/job/81997278?type=standard&amp;ref=search-standalone#sol=6bb177d97543fdb5331f1d047cb07af4215babdb</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Trusty Cars Ltd.</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Bishan', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -814,22 +814,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
+          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>81997068</t>
+          <t>81997121</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997068?type=standard&amp;ref=search-standalone#sol=a6862d2f241977e57ffe892ae31d1a9508b341a3</t>
+          <t>https://sg.jobstreet.com/job/81997121?type=standard&amp;ref=search-standalone#sol=3250a7fb580bef4776184c0918e993450d589e3b</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -856,22 +856,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
+          <t>Executive / Senior Executive, Property Management</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>81997051</t>
+          <t>81997091</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997051?type=standard&amp;ref=search-standalone#sol=4c3ef5fda8c412a63eae39f94df9deab0357792f</t>
+          <t>https://sg.jobstreet.com/job/81997091?type=standard&amp;ref=search-standalone#sol=521fc4dbe88edb8a5b2ffaf7a62cc4fa25ca05ee</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -898,22 +898,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
+          <t>Sales Consultant</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>81997037</t>
+          <t>81997077</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997037?type=standard&amp;ref=search-standalone#sol=4298cdbbc7c86b77c317eda1221d0c851f3314b2</t>
+          <t>https://sg.jobstreet.com/job/81997077?type=standard&amp;ref=search-standalone#sol=b5aca9c0651eefce7ffcb857025d5f78efbcb583</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RECRUIT FAST PTE. LTD.</t>
+          <t>Trusty Cars Ltd.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -923,12 +923,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Bishan', ', Central Region']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -940,22 +940,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
+          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>81997030</t>
+          <t>81997068</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997030?type=standard&amp;ref=search-standalone#sol=9bf87f3081f167edf36d61daa93743bb3cffffe7</t>
+          <t>https://sg.jobstreet.com/job/81997068?type=standard&amp;ref=search-standalone#sol=729a7777bc8148146364af2ce13f979269352e8f</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -982,22 +982,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sales Executive (Based in Singapore)</t>
+          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>81997023</t>
+          <t>81997051</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997023?type=standard&amp;ref=search-standalone#sol=7141a34541339548152d971bce99752568fbed39</t>
+          <t>https://sg.jobstreet.com/job/81997051?type=standard&amp;ref=search-standalone#sol=3a167b3def4f2a0e4b0704cf45414da4d0e4a68d</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ', East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1024,22 +1024,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Senior Mechanical Engineer (Semiconductor)</t>
+          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>81997020</t>
+          <t>81997037</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997020?type=standard&amp;ref=search-standalone#sol=24020285bbcc2b19d268ead38cff1f23c4a57013</t>
+          <t>https://sg.jobstreet.com/job/81997037?type=standard&amp;ref=search-standalone#sol=d9148a5833d5ac16da3484ad957fc16d77ce6d89</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Talent Spot Group Pte Ltd</t>
+          <t>RECRUIT FAST PTE. LTD.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['North Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1066,22 +1066,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
+          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>81997004</t>
+          <t>81997030</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997004?type=standard&amp;ref=search-standalone#sol=43df580ceddcafcd440795c4de01877e01927c4f</t>
+          <t>https://sg.jobstreet.com/job/81997030?type=standard&amp;ref=search-standalone#sol=c824b7330e7983f399453238235938349e2bda2d</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ALWAYSHIRED PTE. LTD.</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Kallang', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1108,22 +1108,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Sales Executive (Based in Singapore)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>81983111</t>
+          <t>81997023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81983111?type=standard&amp;ref=search-standalone#sol=68e9ecd83e4873720b30341f28e0089af3e37e28</t>
+          <t>https://sg.jobstreet.com/job/81997023?type=standard&amp;ref=search-standalone#sol=779a3799c9157d74da4d9158b1d8399165791e36</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Electronics &amp; Engineering Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['Outram', ', Central Region']</t>
+          <t>['Kaki Bukit', ', East Region']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1150,22 +1150,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Accountant (Based in Singapore)</t>
+          <t>Senior Mechanical Engineer (Semiconductor)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>81996973</t>
+          <t>81997020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996973?type=standard&amp;ref=search-standalone#sol=b88ff1955508dd2efa0646f5d134f03ee8a26002</t>
+          <t>https://sg.jobstreet.com/job/81997020?type=standard&amp;ref=search-standalone#sol=ff5debe1373aab90c4667035ef288e1f34223fd7</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>Talent Spot Group Pte Ltd</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ', East Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1192,22 +1192,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
+          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>81996969</t>
+          <t>81997004</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996969?type=standard&amp;ref=search-standalone#sol=f6e1478cd382c57eed17eb8d5e02a07b1ea64d82</t>
+          <t>https://sg.jobstreet.com/job/81997004?type=standard&amp;ref=search-standalone#sol=cb88dcb24a4c85b0fbf27da3a470430ab4573f54</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>ALWAYSHIRED PTE. LTD.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['Jurong Island And Bukom', ', West Region']</t>
+          <t>['Kallang', ', Central Region']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1234,22 +1234,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
+          <t>Sales Engineer</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>81996957</t>
+          <t>81983111</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996957?type=standard&amp;ref=search-standalone#sol=4138d2a64e0cc4991c1c71183013a0d4fa2a4377</t>
+          <t>https://sg.jobstreet.com/job/81983111?type=standard&amp;ref=search-standalone#sol=936f1b7e9d90fc2b90cda2d6157f30cea78ce973</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SAFRA National Service Association</t>
+          <t>Electronics &amp; Engineering Pte Ltd</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1259,39 +1259,39 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Outram', ', Central Region']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
+          <t>Accountant (Based in Singapore)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>81996948</t>
+          <t>81996973</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996948?type=standard&amp;ref=search-standalone#sol=365eb6131b8f9e5138fefb07b13a7f1310393dca</t>
+          <t>https://sg.jobstreet.com/job/81996973?type=standard&amp;ref=search-standalone#sol=519f9c44d480d2a59dd6b8206298ef600e25eb84</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1306,34 +1306,34 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['Tai Seng', ', North-East Region']</t>
+          <t>['Kaki Bukit', ', East Region']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
+          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>81996942</t>
+          <t>81996969</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996942?type=standard&amp;ref=search-standalone#sol=1e9aa941b826f031c1c452f5ad715efe6ab03070</t>
+          <t>https://sg.jobstreet.com/job/81996969?type=standard&amp;ref=search-standalone#sol=9ce65421d2819cbeaf40c735e935df1431a343b1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ScienTec Consulting Pte Ltd</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1348,34 +1348,34 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['Bedok', ', East Region']</t>
+          <t>['Jurong Island And Bukom', ', West Region']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
+          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>81996941</t>
+          <t>81996957</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996941?type=standard&amp;ref=search-standalone#sol=69c198828c3d1ae4fa23b0abab54f54596b91899</t>
+          <t>https://sg.jobstreet.com/job/81996957?type=standard&amp;ref=search-standalone#sol=cb6bd30506c3eae17c87fe1551486b844e088ea7</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>SAFRA National Service Association</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1385,39 +1385,39 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ', East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
+          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>81996927</t>
+          <t>81996948</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996927?type=standard&amp;ref=search-standalone#sol=4eccea4e32aecde8950c28d4d8cab28541e96333</t>
+          <t>https://sg.jobstreet.com/job/81996948?type=standard&amp;ref=search-standalone#sol=9a84b8d16aa31a428ca29cd2a9ad21142b4552bb</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1432,34 +1432,34 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['Raffles Place', ', Central Region']</t>
+          <t>['Tai Seng', ', North-East Region']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
+          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>81996909</t>
+          <t>81996942</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996909?type=standard&amp;ref=search-standalone#sol=6abf42b2385c593f34392b1a7e69ed91f687320f</t>
+          <t>https://sg.jobstreet.com/job/81996942?type=standard&amp;ref=search-standalone#sol=44dbd0dd2fc4a2c5c33f81d2f76ad2f3d90d296e</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>ScienTec Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1474,34 +1474,34 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Bedok', ', East Region']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Assistant Project Engineer, PMO (ARTC)</t>
+          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>81996901</t>
+          <t>81996941</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996901?type=standard&amp;ref=search-standalone#sol=9346c0f0aa5137a2a2e6c4979a1f13521c935d52</t>
+          <t>https://sg.jobstreet.com/job/81996941?type=standard&amp;ref=search-standalone#sol=25e1c039fc40d5d536425189dc7552b6bb7f126e</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Agency for Science, Technology and Research (A*STAR)</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Kaki Bukit', ', East Region']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1528,22 +1528,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
+          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>81996877</t>
+          <t>81996927</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996877?type=standard&amp;ref=search-standalone#sol=228d1b275d4aa2c0e7507ec0665dcee6c4a57519</t>
+          <t>https://sg.jobstreet.com/job/81996927?type=standard&amp;ref=search-standalone#sol=e53afcfac7c64a76c8bf93b5eb3dc3a300cc6b5e</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MINDSG LTD</t>
+          <t>Good Job Creations (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['Queenstown', ', Central Region']</t>
+          <t>['Raffles Place', ', Central Region']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1570,22 +1570,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Field Service Technician (Depot)</t>
+          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>81996857</t>
+          <t>81996909</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996857?type=standard&amp;ref=search-standalone#sol=9a8fcf49b6034b797428eebcf8ac215bd7c566f4</t>
+          <t>https://sg.jobstreet.com/job/81996909?type=standard&amp;ref=search-standalone#sol=509987f7a70830959184a17f30c06bee2a342a15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Smiths Detection Malaysia Sdn Bhd</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['Singapore River', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1612,22 +1612,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
+          <t>Assistant Project Engineer, PMO (ARTC)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>81996846</t>
+          <t>81996901</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996846?type=standard&amp;ref=search-standalone#sol=1d2f580133a85d5d383c2294cb084ae6216b06c1</t>
+          <t>https://sg.jobstreet.com/job/81996901?type=standard&amp;ref=search-standalone#sol=4912143a594ae03813b497cfe2adcd01514bb818</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>Agency for Science, Technology and Research (A*STAR)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1654,22 +1654,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
+          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>81996845</t>
+          <t>81996877</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996845?type=standard&amp;ref=search-standalone#sol=d390ef80d5edf4b3c9773f7ed01f0e94807880d5</t>
+          <t>https://sg.jobstreet.com/job/81996877?type=standard&amp;ref=search-standalone#sol=b1c62d71c9a9e20ccfb265b82e70db6a3a19a050</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Pasona Singapore Pte. Ltd.</t>
+          <t>MINDSG LTD</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['Tuas', ', West Region']</t>
+          <t>['Queenstown', ', Central Region']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1696,22 +1696,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Talent Acquisition Manager (Blockchain) (Town, up to $6,700 + Bonus)</t>
+          <t>Field Service Technician (Depot)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>81996844</t>
+          <t>81996857</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996844?type=standard&amp;ref=search-standalone#sol=3d3acb416c7d7a336bf6dc1b8e70a2c694eae857</t>
+          <t>https://sg.jobstreet.com/job/81996857?type=standard&amp;ref=search-standalone#sol=50a0d794df341312b60c18aeed92682e3ffe0311</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Smiths Detection Malaysia Sdn Bhd</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['Orchard', ', Central Region']</t>
+          <t>['Singapore River', ', Central Region']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1738,22 +1738,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Class 4 Driver (Class 4/Up to $4000/Fixed shift)</t>
+          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>81996840</t>
+          <t>81996846</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996840?type=standard&amp;ref=search-standalone#sol=634f0c56f3bc78c90ca3d9faffba6924b6fc12d5</t>
+          <t>https://sg.jobstreet.com/job/81996846?type=standard&amp;ref=search-standalone#sol=b7846bfb40cc36e7fb9c5dd1113db7ea0956d181</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Private Advertiser</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1780,22 +1780,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sales Manager, Traditional Trade (Stationed in Singapore)</t>
+          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>81996835</t>
+          <t>81996845</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996835?type=standard&amp;ref=search-standalone#sol=81a21fbda55fcd2b97af490f51f80ade7fd69e8a</t>
+          <t>https://sg.jobstreet.com/job/81996845?type=standard&amp;ref=search-standalone#sol=2086c28f8217e4fd378b3adc8cb82966c2ffea81</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>Pasona Singapore Pte. Ltd.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ', East Region']</t>
+          <t>['Tuas', ', West Region']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1822,27 +1822,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
+          <t>Class 4 Driver (Class 4/Up to $4000/Fixed shift)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>81996948</t>
+          <t>81996840</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996948?type=standard&amp;ref=search-standalone#sol=8b9bb09a93fd553066c9420c67f3d0c3ff119777</t>
+          <t>https://sg.jobstreet.com/job/81996840?type=standard&amp;ref=search-standalone#sol=d8f9d8fb4a6908fb590fc915eabf506788681a80</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1852,39 +1852,39 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['Tai Seng', ', North-East Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
+          <t>Sales Manager, Traditional Trade (Stationed in Singapore)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>81996942</t>
+          <t>81996835</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996942?type=standard&amp;ref=search-standalone#sol=fa8923d3a15a9d6a13b099a185bbba3af7045a28</t>
+          <t>https://sg.jobstreet.com/job/81996835?type=standard&amp;ref=search-standalone#sol=a9db0125df8e662560389d3fb6b3bb77d249da58</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ScienTec Consulting Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1894,39 +1894,39 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['Bedok', ', East Region']</t>
+          <t>['Kaki Bukit', ', East Region']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
+          <t>IT Snr. Exec</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>81996941</t>
+          <t>81996829</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996941?type=standard&amp;ref=search-standalone#sol=a152903daba78ae395d87071304673ffbd19cf88</t>
+          <t>https://sg.jobstreet.com/job/81996829?type=standard&amp;ref=search-standalone#sol=b6c9042598eaaa53f7b6b89901468deeebaeac64</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>Paradise Group Holdings Pte Ltd</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1936,39 +1936,39 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ', East Region']</t>
+          <t>['North-East Region']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
+          <t>Preschool L2 English Teacher</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>81996927</t>
+          <t>81996813</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996927?type=standard&amp;ref=search-standalone#sol=23f27a93a50837ea0e85f2f9314e99d849be33e5</t>
+          <t>https://sg.jobstreet.com/job/81996813?type=standard&amp;ref=search-standalone#sol=7a29bbe52d035149001f910ba0fd99642a776fa4</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Carpe Diem Little Green House Pte Ltd</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1978,39 +1978,39 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['Raffles Place', ', Central Region']</t>
+          <t>['Woodlands', ', North Region']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
+          <t>ACCOUNT EXECUTIVE (3 DAYS WORKS)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>81996909</t>
+          <t>81996594</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996909?type=standard&amp;ref=search-standalone#sol=110c68cad5aefd4eb39b9c3a3a513eeef0c46be2</t>
+          <t>https://sg.jobstreet.com/job/81996594?type=standard&amp;ref=search-standalone#sol=e8dc9717caff9f0d37f06ad7f810a1d01a31ee38</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>UNITED GLOBAL LIMITED</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Gul Circle', ', West Region']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2032,37 +2032,37 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Assistant Project Engineer, PMO (ARTC)</t>
+          <t>Security Operations Engineer (Shift)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>81996901</t>
+          <t>81996786</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996901?type=standard&amp;ref=search-standalone#sol=938fa19272e854be00ea55bd794d278432e2803c</t>
+          <t>https://sg.jobstreet.com/job/81996786?type=standard&amp;ref=search-standalone#sol=3ba6e814de2dd20305a8b09f7c6b58f642d63e2a</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Agency for Science, Technology and Research (A*STAR)</t>
+          <t>Assurity Trusted Solutions Pte Ltd</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Singapore River', ', Central Region']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2074,27 +2074,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
+          <t>Procurement Executive</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>81996877</t>
+          <t>81996767</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996877?type=standard&amp;ref=search-standalone#sol=a9a5fb3197189e5ec9efb143069115494369047d</t>
+          <t>https://sg.jobstreet.com/job/81996767?type=standard&amp;ref=search-standalone#sol=8e0558f924a73be908fd2f848ff09e90bb544a66</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>MINDSG LTD</t>
+          <t>Paradise Group Holdings Pte Ltd</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['Queenstown', ', Central Region']</t>
+          <t>['North-East Region']</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2116,27 +2116,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Field Service Technician (Depot)</t>
+          <t>Prime Mover Driver(SG only/ Class 4/ Basic+OT+Allowance=Gross up to $5500)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>81996857</t>
+          <t>81996746</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996857?type=standard&amp;ref=search-standalone#sol=5eb67b5e8016d54d637f00862c0fed30f53aa4ea</t>
+          <t>https://sg.jobstreet.com/job/81996746?type=standard&amp;ref=search-standalone#sol=3735891862073844abcdb562433bb645aabff90b</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Smiths Detection Malaysia Sdn Bhd</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['Singapore River', ', Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2158,27 +2158,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
+          <t>Credit Review - Asst. Mgr/Asst. Vice President</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>81996846</t>
+          <t>81996716</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996846?type=standard&amp;ref=search-standalone#sol=1cb53340956ec6ce35017c8b7cd6cff549d31a61</t>
+          <t>https://sg.jobstreet.com/job/81996716?type=standard&amp;ref=search-standalone#sol=b71970bd63c3bf7b92668e24e04fe77e46975cbb</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>Hong Leong Finance Ltd</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Raffles Place', ', Central Region']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2200,27 +2200,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
+          <t>Recruitment Consultant/ Senior Consultant (Basic + Comm/ Training provided)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>81996845</t>
+          <t>81996729</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996845?type=standard&amp;ref=search-standalone#sol=6529cf0963f5401e3014e1f6c4dc03c970155358</t>
+          <t>https://sg.jobstreet.com/job/81996729?type=standard&amp;ref=search-standalone#sol=fa74ce0c26d649ccb503072748dda69c11b28ae5</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Pasona Singapore Pte. Ltd.</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['Tuas', ', West Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2242,27 +2242,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Talent Acquisition Manager (Blockchain) (Town, up to $6,700 + Bonus)</t>
+          <t>Solution Engineer</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>81996844</t>
+          <t>81997361</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996844?type=standard&amp;ref=search-standalone#sol=e72c5e8f5e912b736078bf213347f8084034fe6d</t>
+          <t>https://sg.jobstreet.com/job/81997361?type=standard&amp;ref=search-standalone#sol=f3fb90a3100b9a7cc2d5f179e1ffdefb6080594f</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Snowflake</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Orchard', ', Central Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2284,27 +2284,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Class 4 Driver (Class 4/Up to $4000/Fixed shift)</t>
+          <t>Client Relations Executive (West, Healthcare, Office Hours) - HWX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>81996840</t>
+          <t>81334580</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996840?type=standard&amp;ref=search-standalone#sol=fa51473354927b5f716ef9eb75b12834f88a262d</t>
+          <t>https://sg.jobstreet.com/job/81334580?type=standard&amp;ref=search-standalone#sol=1c8db2d8b222a94dd68b17310a31ee144c061253</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>RECRUIT EXPRESS PTE LTD</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2326,27 +2326,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sales Manager, Traditional Trade (Stationed in Singapore)</t>
+          <t>Wheelchair Transport Driver (Minibus | Bus Driver Vocational License -BDVL)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>81996835</t>
+          <t>81996715</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996835?type=standard&amp;ref=search-standalone#sol=860ad83db887e8a878e989d1bc968cb5cf05e9d3</t>
+          <t>https://sg.jobstreet.com/job/81996715?type=standard&amp;ref=search-standalone#sol=7c7d8ccb3d36b02ff3b94e9880efa11c6bd366da</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>The Supreme HR Advisory Pte Ltd</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ', East Region']</t>
+          <t>['Kampong Ubi', ', Central Region']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2368,27 +2368,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IT Snr. Exec</t>
+          <t>Accounts Executive (AP AR GST / Macpherson /UP $4K + VB)*URGENT/IMMEDIATE*</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>81996829</t>
+          <t>81996690</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996829?type=standard&amp;ref=search-standalone#sol=d0fbb227db367b42761cb6daf98ba85679dd2922</t>
+          <t>https://sg.jobstreet.com/job/81996690?type=standard&amp;ref=search-standalone#sol=32031602eabd911a0dd675c9675fdd24494065c9</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Paradise Group Holdings Pte Ltd</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['North-East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2410,27 +2410,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Preschool L2 English Teacher</t>
+          <t>SAP HCM Consultant</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>81996813</t>
+          <t>81996678</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996813?type=standard&amp;ref=search-standalone#sol=4d0892195d0a7f8219f60ef058f7ca20a92b1302</t>
+          <t>https://sg.jobstreet.com/job/81996678?type=standard&amp;ref=search-standalone#sol=24f12f1ed3c739b6f598d5c279444e749f974f6f</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Carpe Diem Little Green House Pte Ltd</t>
+          <t>Helius Technologies Pte Ltd</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['Woodlands', ', North Region']</t>
+          <t>['Ang Mo Kio Town Centre', ', North-East Region']</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2452,27 +2452,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ACCOUNT EXECUTIVE (3 DAYS WORKS)</t>
+          <t>Warehouse Assistant</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>81996594</t>
+          <t>81996675</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996594?type=standard&amp;ref=search-standalone#sol=c2f374a2688de7904d7c4694c542995963d32886</t>
+          <t>https://sg.jobstreet.com/job/81996675?type=standard&amp;ref=search-standalone#sol=025be8916a03f889ddafd617ce353ee31b7a2ccb</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>UNITED GLOBAL LIMITED</t>
+          <t>DMK (SINGAPORE) PTE. LTD.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['Gul Circle', ', West Region']</t>
+          <t>['Defu Industrial Park', ', North-East Region']</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2494,37 +2494,37 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Security Operations Engineer (Shift)</t>
+          <t>Backend Software Engineer (Java/Spring)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>81996786</t>
+          <t>81996672</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996786?type=standard&amp;ref=search-standalone#sol=1e94a9f762bfafed0d78f386a251c992c3902a6c</t>
+          <t>https://sg.jobstreet.com/job/81996672?type=standard&amp;ref=search-standalone#sol=115661a6fad1937256798fbbc1247feb3c9fed2d</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Assurity Trusted Solutions Pte Ltd</t>
+          <t>ScienTec Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['Singapore River', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2536,27 +2536,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Procurement Executive</t>
+          <t>Assistant Project Engineer,Project Management Office (ARTC)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>81996767</t>
+          <t>81996652</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996767?type=standard&amp;ref=search-standalone#sol=f08610d08b58e6671066e23b48bd833e282fb79e</t>
+          <t>https://sg.jobstreet.com/job/81996652?type=standard&amp;ref=search-standalone#sol=67684263422dd395c3f8fd29438a4f9fc7962e97</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Paradise Group Holdings Pte Ltd</t>
+          <t>Agency for Science, Technology and Research (A*STAR)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['North-East Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2578,27 +2578,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Prime Mover Driver(SG only/ Class 4/ Basic+OT+Allowance=Gross up to $5500)</t>
+          <t>Admin Executive / Administrator</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>81996746</t>
+          <t>81996618</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996746?type=standard&amp;ref=search-standalone#sol=1425fa0b29d1d96751099b3760a580b1273ae450</t>
+          <t>https://sg.jobstreet.com/job/81996618?type=standard&amp;ref=search-standalone#sol=f2bca191899a94b07d98ec1b90d869f06ebfb115</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Kim Yew Integrated Pte Ltd</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2620,27 +2620,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Credit Review - Asst. Mgr/Asst. Vice President</t>
+          <t>Production Planner</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>81996716</t>
+          <t>81996610</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996716?type=standard&amp;ref=search-standalone#sol=b71c134123d2088055ceebb8200b2779e0102273</t>
+          <t>https://sg.jobstreet.com/job/81996610?type=standard&amp;ref=search-standalone#sol=75ebcef9282738598724be03331426e4500f96c2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Hong Leong Finance Ltd</t>
+          <t>Advanced Recycling Pte Ltd</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['Raffles Place', ', Central Region']</t>
+          <t>['Jurong West', ', West Region']</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2662,27 +2662,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Recruitment Consultant/ Senior Consultant (Basic + Comm/ Training provided)</t>
+          <t>Retail Sales Assistant (Department Store)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>81996729</t>
+          <t>81996601</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996729?type=standard&amp;ref=search-standalone#sol=84e57aff0a57b9fde4b82dfae4452e2143a6dafd</t>
+          <t>https://sg.jobstreet.com/job/81996601?type=standard&amp;ref=search-standalone#sol=68f5f5cc4a121c069d057ae5e7cb250e338d9296</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>Corestaff Pte Ltd</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Orchard', ', Central Region']</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2704,27 +2704,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Solution Engineer</t>
+          <t>Marketing Executive</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>81997361</t>
+          <t>81996573</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997361?type=standard&amp;ref=search-standalone#sol=a32ea97b438ad63496b4546f8028768edf3440aa</t>
+          <t>https://sg.jobstreet.com/job/81996573?type=standard&amp;ref=search-standalone#sol=5047cc63837adc7d443737c08f5e0c796eeeb6db</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Snowflake</t>
+          <t>WGT EHR Pte. Ltd.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2746,27 +2746,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Client Relations Executive (West, Healthcare, Office Hours) - HWX</t>
+          <t>Customer Service Officer [Call Centre / Govt Project /Office Hours/ East]</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>81334580</t>
+          <t>81996559</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81334580?type=standard&amp;ref=search-standalone#sol=266d139c78ca5a50127466055734832ea95b0ee4</t>
+          <t>https://sg.jobstreet.com/job/81996559?type=standard&amp;ref=search-standalone#sol=a0c1fd62acc5eac1768c18f4c8a562be37ad2e1e</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RECRUIT EXPRESS PTE LTD</t>
+          <t>TDCX Singapore</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2776,39 +2776,39 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Kembangan', ', East Region']</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Wheelchair Transport Driver (Minibus | Bus Driver Vocational License -BDVL)</t>
+          <t>Leasing Manager</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>81996715</t>
+          <t>81996533</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996715?type=standard&amp;ref=search-standalone#sol=5bff04acead216038d74667ab4d7de2449cfd106</t>
+          <t>https://sg.jobstreet.com/job/81996533?type=standard&amp;ref=search-standalone#sol=c7541f4d14e14e3401645754ae0bff7e8031ec93</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>The Supreme HR Advisory Pte Ltd</t>
+          <t>COURTS (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2818,39 +2818,39 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['Kampong Ubi', ', Central Region']</t>
+          <t>['Tampines North', ', East Region']</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Accounts Executive (AP AR GST / Macpherson /UP $4K + VB)*URGENT/IMMEDIATE*</t>
+          <t>Centre Supervisor (Operations, Senior Daycare, East) #HRY</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>81996690</t>
+          <t>81996524</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996690?type=standard&amp;ref=search-standalone#sol=957988d8867e9e26aef4d624a5afcd8ecacaa791</t>
+          <t>https://sg.jobstreet.com/job/81996524?type=standard&amp;ref=search-standalone#sol=5f8db4f52234338dd0478a3a41f29c0225a9057f</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>RECRUIT EXPRESS PTE LTD</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2860,39 +2860,39 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SAP HCM Consultant</t>
+          <t>Assistant Manager, Financial Management Treasury</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>81996678</t>
+          <t>81997482</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996678?type=standard&amp;ref=search-standalone#sol=6660b386791dc17f78de01efe3905d821dd6eda8</t>
+          <t>https://sg.jobstreet.com/job/81997482?type=standard&amp;ref=search-standalone#sol=31ed46687362f8facc72c0ab40b15ea962bb2614</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Helius Technologies Pte Ltd</t>
+          <t>Agency for Integrated Care</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2902,39 +2902,39 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['Ang Mo Kio Town Centre', ', North-East Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Warehouse Assistant</t>
+          <t>Sea Import Executive (Import Shipping Documents)(19479)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>81996675</t>
+          <t>81996518</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996675?type=standard&amp;ref=search-standalone#sol=d4970b77ed30bfc56f054230853075aca6be43dc</t>
+          <t>https://sg.jobstreet.com/job/81996518?type=standard&amp;ref=search-standalone#sol=44f5575d73f10ecbc87130cbcd394d5cd1b7ae3e</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>DMK (SINGAPORE) PTE. LTD.</t>
+          <t>Pasona Singapore Pte. Ltd.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2944,39 +2944,39 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['Defu Industrial Park', ', North-East Region']</t>
+          <t>['Macpherson', ', Central Region']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Backend Software Engineer (Java/Spring)</t>
+          <t>Assistant Manager - Production Support (NGEMR)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>81996672</t>
+          <t>81996501</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996672?type=standard&amp;ref=search-standalone#sol=6e02de5f82c305df8e4594de5eba06d717a0f459</t>
+          <t>https://sg.jobstreet.com/job/81996501?type=standard&amp;ref=search-standalone#sol=ab6769443926b3678d6d1f7f348cb228b66f9922</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ScienTec Consulting Pte Ltd</t>
+          <t>Synapxe</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2986,39 +2986,39 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['One North', ', Central Region']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Assistant Project Engineer,Project Management Office (ARTC)</t>
+          <t>TRADING OPERATIONS EXECUTIVE</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>81996652</t>
+          <t>81996425</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996652?type=standard&amp;ref=search-standalone#sol=d05f8eb5493e07ea03e895f823b9139cebbe0760</t>
+          <t>https://sg.jobstreet.com/job/81996425?type=standard&amp;ref=search-standalone#sol=4f5127869c1b7f07607a76951389f5ed228d6b49</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Agency for Science, Technology and Research (A*STAR)</t>
+          <t>Soleum Energy Pte Ltd</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3028,39 +3028,39 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Downtown Core', ', Central Region']</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Admin Executive / Administrator</t>
+          <t>Senior Social Worker</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>81996618</t>
+          <t>81997367</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996618?type=standard&amp;ref=search-standalone#sol=f6f67305864b1fc6f582cc30fe83d444ea3ce8f9</t>
+          <t>https://sg.jobstreet.com/job/81997367?type=standard&amp;ref=search-standalone#sol=9886d0f925d3796674d4dcd89c99b4ab2be49d40</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Kim Yew Integrated Pte Ltd</t>
+          <t>MontfortCare</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3075,34 +3075,34 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Production Planner</t>
+          <t>Executive, Plans &amp; Development</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>81996610</t>
+          <t>81997518</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996610?type=standard&amp;ref=search-standalone#sol=5f0f69d84cbdd58b97eec625b67f20a60c8ca1af</t>
+          <t>https://sg.jobstreet.com/job/81997518?type=standard&amp;ref=search-standalone#sol=27aa8f1d9c0fa2cfb22fb5f6d34cdb74db8fc2a4</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Advanced Recycling Pte Ltd</t>
+          <t>MINDS</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3112,39 +3112,39 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['Jurong West', ', West Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Retail Sales Assistant (Department Store)</t>
+          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>81996601</t>
+          <t>81997350</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996601?type=standard&amp;ref=search-standalone#sol=85066e42d21eea9025bde98c9eaf5814653065ae</t>
+          <t>https://sg.jobstreet.com/job/81997350?type=standard&amp;ref=search-standalone#sol=cf96e22a16931282dae7a1eaa413091fa8c1de30</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Corestaff Pte Ltd</t>
+          <t>MINDS</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,200 – $3,600 per month</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3154,39 +3154,39 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['Orchard', ', Central Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Senior Manager, OPEX Controller</t>
+          <t>Accounts Executive (AP AR GST / Macpherson /UP $4K + VB)*URGENT/IMMEDIATE*</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>81997643</t>
+          <t>81996690</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997643?type=standard&amp;ref=search-standalone#sol=eead6d1b584685789ea2865147eab4a88f3c8bec</t>
+          <t>https://sg.jobstreet.com/job/81996690?type=standard&amp;ref=search-standalone#sol=eb20323c5d59553e22feb54ffd1a1fcbc46c3211</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Hafnia</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3208,27 +3208,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Senior Social Worker</t>
+          <t>SAP HCM Consultant</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>81997367</t>
+          <t>81996678</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997367?type=standard&amp;ref=search-standalone#sol=e7c9e5903160fa2a38d84474c0e98bb23f956255</t>
+          <t>https://sg.jobstreet.com/job/81996678?type=standard&amp;ref=search-standalone#sol=851709e2eb6fd258494cdf534c0c653f41269514</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>MontfortCare</t>
+          <t>Helius Technologies Pte Ltd</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Ang Mo Kio Town Centre', ', North-East Region']</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3250,27 +3250,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Executive, Plans &amp; Development</t>
+          <t>Warehouse Assistant</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>81997518</t>
+          <t>81996675</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997518?type=standard&amp;ref=search-standalone#sol=9f58d6a1487e8fe5e8c993901fb7cfe05a75af89</t>
+          <t>https://sg.jobstreet.com/job/81996675?type=standard&amp;ref=search-standalone#sol=9dcfd9379782bb0acb391b0573c9f38cbd294ab4</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>MINDS</t>
+          <t>DMK (SINGAPORE) PTE. LTD.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Defu Industrial Park', ', North-East Region']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3292,27 +3292,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
+          <t>Backend Software Engineer (Java/Spring)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>81997350</t>
+          <t>81996672</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997350?type=standard&amp;ref=search-standalone#sol=90e72a51b43116a769aa595348ca1675e6d92c1f</t>
+          <t>https://sg.jobstreet.com/job/81996672?type=standard&amp;ref=search-standalone#sol=38e91cb1a34de5ed615f0e1005462dc23ce673d5</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>MINDS</t>
+          <t>ScienTec Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3334,27 +3334,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Engagement (Community Partnership)</t>
+          <t>Assistant Project Engineer,Project Management Office (ARTC)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>81997408</t>
+          <t>81996652</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997408?type=standard&amp;ref=search-standalone#sol=2dd07829305414399399e61bdeab96f9849bfd6e</t>
+          <t>https://sg.jobstreet.com/job/81996652?type=standard&amp;ref=search-standalone#sol=8a9cffcd328383b637b88852d82b1ce2929eb9a2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>MINDS</t>
+          <t>Agency for Science, Technology and Research (A*STAR)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3376,27 +3376,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Executive, HRBP</t>
+          <t>Admin Executive / Administrator</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>81997441</t>
+          <t>81996618</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997441?type=standard&amp;ref=search-standalone#sol=72138663a3553842317355110b2db6855bdcb3f3</t>
+          <t>https://sg.jobstreet.com/job/81996618?type=standard&amp;ref=search-standalone#sol=42fff64de101cbe11799ede8d9b7b575a7f029b6</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>MINDS</t>
+          <t>Kim Yew Integrated Pte Ltd</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3418,27 +3418,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Manager Corporate Partnership</t>
+          <t>Production Planner</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>81997575</t>
+          <t>81996610</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997575?type=standard&amp;ref=search-standalone#sol=9372b393847d07c1a1f0423ec94bc1210d8cb344</t>
+          <t>https://sg.jobstreet.com/job/81996610?type=standard&amp;ref=search-standalone#sol=8381ada98cf45ef94a01209a62d20d2c85bcb95f</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Care Corner Singapore Ltd</t>
+          <t>Advanced Recycling Pte Ltd</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Jurong West', ', West Region']</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3460,27 +3460,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Assistant Finance Manager</t>
+          <t>Retail Sales Assistant (Department Store)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>81997341</t>
+          <t>81996601</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997341?type=standard&amp;ref=search-standalone#sol=51a37d4bb09c2ef4f49564bd82c048445e65800f</t>
+          <t>https://sg.jobstreet.com/job/81996601?type=standard&amp;ref=search-standalone#sol=5d32c1d01a6046df89194c761815fd173e979589</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Care Corner Singapore Ltd</t>
+          <t>Corestaff Pte Ltd</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Orchard', ', Central Region']</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3502,27 +3502,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Assistant IT Project Manager (1 yr FTC)</t>
+          <t>Head of Finance</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>81996453</t>
+          <t>81997560</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996453?type=standard&amp;ref=search-standalone#sol=714b5aeb756b3efd374004f896f46ed60775e312</t>
+          <t>https://sg.jobstreet.com/job/81997560?type=standard&amp;ref=search-standalone#sol=13a8020de9e7dc3b2aec0c8d60803ff5b99bee77</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ST Engineering Urban Solutions</t>
+          <t>SoftwareONE Pte Ltd</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['Ang Mo Kio', ', North-East Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3544,27 +3544,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bridal Jewellery Planner（5days / Jewellery / Chinese Speaking）</t>
+          <t>Marketing Executive</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>81396894</t>
+          <t>81996573</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81396894?type=standard&amp;ref=search-standalone#sol=58d041f8bb786453b23180a8a3f89108b48e5129</t>
+          <t>https://sg.jobstreet.com/job/81996573?type=standard&amp;ref=search-standalone#sol=7528178835ead19b5ad027e24222f797e3854a39</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Nextbeat Singapore Pte. Ltd.</t>
+          <t>WGT EHR Pte. Ltd.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['Orchard', ', Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3586,27 +3586,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Commercial Electric Vehicle (EV) Mechanic</t>
+          <t>Customer Service Officer [Call Centre / Govt Project /Office Hours/ East]</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>81996447</t>
+          <t>81996559</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996447?type=standard&amp;ref=search-standalone#sol=9da93b86b44f01c4e1f7edb1d7cfdceec1fe2886</t>
+          <t>https://sg.jobstreet.com/job/81996559?type=standard&amp;ref=search-standalone#sol=896f2aca25e231bad2b9dd72f13c6e15efac40a5</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>WGT EHR Pte. Ltd.</t>
+          <t>TDCX Singapore</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3616,39 +3616,39 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Kembangan', ', East Region']</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>RAOP AOP Team Head</t>
+          <t>Leasing Manager</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>81997447</t>
+          <t>81996533</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997447?type=standard&amp;ref=search-standalone#sol=f5079d00058cd9b587208d838c5d14e947972f02</t>
+          <t>https://sg.jobstreet.com/job/81996533?type=standard&amp;ref=search-standalone#sol=c18ba5fdb4758e5dfaff3a82bbb52de8061b7d52</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Crédit Agricole CIB</t>
+          <t>COURTS (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3658,39 +3658,39 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Tampines North', ', East Region']</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Customer Service Executive (Logistics/ Transport Provided)</t>
+          <t>Centre Supervisor (Operations, Senior Daycare, East) #HRY</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>81996434</t>
+          <t>81996524</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996434?type=standard&amp;ref=search-standalone#sol=519abe7eac5125e595ba028926c81fcd252b0645</t>
+          <t>https://sg.jobstreet.com/job/81996524?type=standard&amp;ref=search-standalone#sol=f4893e5efb77815153ad6ebc157523d63a44a8a2</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>RECRUIT EXPRESS PTE LTD</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3700,39 +3700,39 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sales Coordinator/ Admin Support</t>
+          <t>Assistant Manager, Financial Management Treasury</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>81996437</t>
+          <t>81997482</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996437?type=standard&amp;ref=search-standalone#sol=fa991047e49fa836266e0f4107f932e933792ed9</t>
+          <t>https://sg.jobstreet.com/job/81997482?type=standard&amp;ref=search-standalone#sol=6598d60e0c5ad3267691f0dc7519bfc92f174086</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>The Supreme HR Advisory Pte Ltd</t>
+          <t>Agency for Integrated Care</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3742,39 +3742,39 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Senior Executive (F&amp;B Project Development)</t>
+          <t>Sea Import Executive (Import Shipping Documents)(19479)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>81997568</t>
+          <t>81996518</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997568?type=standard&amp;ref=search-standalone#sol=33b4a76bf37bfa0382e6976c5da4a2132e05e16d</t>
+          <t>https://sg.jobstreet.com/job/81996518?type=standard&amp;ref=search-standalone#sol=c38e7f682e159a0f3d38c8f2c58a02fdd355d52f</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Resorts World at Sentosa Pte Ltd</t>
+          <t>Pasona Singapore Pte. Ltd.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3784,39 +3784,39 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['Sentosa', ', Central Region']</t>
+          <t>['Macpherson', ', Central Region']</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Security Officer</t>
+          <t>Lead, Customer Success &amp; Operations</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>81997492</t>
+          <t>81997542</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997492?type=standard&amp;ref=search-standalone#sol=c2b5c3828b336fea7b2dad574d8c41b483cc531d</t>
+          <t>https://sg.jobstreet.com/job/81997542?type=standard&amp;ref=search-standalone#sol=9c70cf40071bdde925fa7fbe99c49283ecd9254a</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Resorts World at Sentosa Pte Ltd</t>
+          <t>Mandai</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3826,39 +3826,39 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['Sentosa', ', Central Region']</t>
+          <t>['Mandai', ', North Region']</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Civil &amp; Structural Engineer, Facilities Management &amp; Engineering</t>
+          <t>Assistant Manager - Production Support (NGEMR)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>81997636</t>
+          <t>81996501</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997636?type=standard&amp;ref=search-standalone#sol=30b34cf425977f3fefbd94a2fb13ec22fae06063</t>
+          <t>https://sg.jobstreet.com/job/81996501?type=standard&amp;ref=search-standalone#sol=1187dd18203d04561fa4c672fc876fb776df8dd5</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Resorts World at Sentosa Pte Ltd</t>
+          <t>Synapxe</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3868,39 +3868,39 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['Sentosa', ', Central Region']</t>
+          <t>['One North', ', Central Region']</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>**Immediate** Customer Service Executive (Beauty Industry)</t>
+          <t>TRADING OPERATIONS EXECUTIVE</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>81996428</t>
+          <t>81996425</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996428?type=standard&amp;ref=search-standalone#sol=5b2a66e97cec3502b0603e74a466af91f3b5d503</t>
+          <t>https://sg.jobstreet.com/job/81996425?type=standard&amp;ref=search-standalone#sol=deb29240209879805f59ecf1e981750c3cb97750</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>MIRAGE AESTHETIC PTE. LTD.</t>
+          <t>Soleum Energy Pte Ltd</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3910,39 +3910,39 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['Southern Islands', ', Central Region']</t>
+          <t>['Downtown Core', ', Central Region']</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Member Engagement Executive</t>
+          <t>Senior Manager, OPEX Controller</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>81996419</t>
+          <t>81997643</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996419?type=standard&amp;ref=search-standalone#sol=ea05c1a7b8f2665d2b7dc36a0ba7137ec9fbc626</t>
+          <t>https://sg.jobstreet.com/job/81997643?type=standard&amp;ref=search-standalone#sol=edc4fb2ea77d0bc08ee99ffffb23ecc8022bfb61</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>The American Club</t>
+          <t>Hafnia</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3952,39 +3952,39 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['Orchard', ', Central Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Panel Assembler/Electrician (No exp welcomed / Training Provided / MNC) YH34</t>
+          <t>Senior Social Worker</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>81996415</t>
+          <t>81997367</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996415?type=standard&amp;ref=search-standalone#sol=b446f00a861045b4ba3654e031f5c9e842832569</t>
+          <t>https://sg.jobstreet.com/job/81997367?type=standard&amp;ref=search-standalone#sol=2d9ece1185f27f0a8e267fdcf45306187cb59965</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>MontfortCare</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3994,39 +3994,39 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['Tuas', ', West Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Managing Editor (Contract)</t>
+          <t>Executive, Plans &amp; Development</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>81997530</t>
+          <t>81997518</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997530?type=standard&amp;ref=search-standalone#sol=3f1107321e117388bc3931b441b51d1612865491</t>
+          <t>https://sg.jobstreet.com/job/81997518?type=standard&amp;ref=search-standalone#sol=9a1f50ec9f8cadc915b60387b282635dab93ce24</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>MINDS</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4041,34 +4041,34 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>G04 - DevOps Engineer</t>
+          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>81997478</t>
+          <t>81997350</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997478?type=standard&amp;ref=search-standalone#sol=7e9647c908da4e4d5ca39a44ef7da8767dd1874e</t>
+          <t>https://sg.jobstreet.com/job/81997350?type=standard&amp;ref=search-standalone#sol=bef59d7d1869c71adfd1f4bacfa784473fe043d0</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>FPT Asia Pacific Pte Ltd</t>
+          <t>MINDS</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4083,34 +4083,34 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Full-Stack Developer</t>
+          <t>Executive / Senior Executive, Engagement (Community Partnership)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>81997392</t>
+          <t>81997408</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997392?type=standard&amp;ref=search-standalone#sol=7b29b6e94bed960660eb8600a5aa1b4f253433ec</t>
+          <t>https://sg.jobstreet.com/job/81997408?type=standard&amp;ref=search-standalone#sol=1bcbead1d43b522e17361364fc054a7742094617</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>FPT Asia Pacific Pte Ltd</t>
+          <t>MINDS</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4125,34 +4125,34 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Deputy Executive, Accounts Payable</t>
+          <t>Executive, Engagement (Community Partnerships)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>81996405</t>
+          <t>81997700</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996405?type=standard&amp;ref=search-standalone#sol=fdb2fde425ebc98bb900d64155e9993786e658ef</t>
+          <t>https://sg.jobstreet.com/job/81997700?type=standard&amp;ref=search-standalone#sol=dc8a57afc443763198f138b5d6ce9bcdcaac8c06</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>The National Kidney Foundation</t>
+          <t>MINDS</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4162,39 +4162,39 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['Kim Keat', ', Central Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Accounts Officer</t>
+          <t>Executive, HRBP</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>81996393</t>
+          <t>81997441</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996393?type=standard&amp;ref=search-standalone#sol=540f86432c381debf48cf7ea434c865158275520</t>
+          <t>https://sg.jobstreet.com/job/81997441?type=standard&amp;ref=search-standalone#sol=46b77ad538bf275a2dfba41b9f15f0234b61a258</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>E-xclusif Medical Supply Pte Ltd</t>
+          <t>MINDS</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4204,39 +4204,39 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['Tai Seng', ', North-East Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Technical Sourcing Engineer (Semiconductor, PCBA, Optical)</t>
+          <t>Manager Corporate Partnership</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>81996386</t>
+          <t>81997575</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996386?type=standard&amp;ref=search-standalone#sol=ba3bca3f6b66fe014c150ebc2cf6f3e7ad1487cb</t>
+          <t>https://sg.jobstreet.com/job/81997575?type=standard&amp;ref=search-standalone#sol=6309744cfa7c844dea331ec866368300f7f4b2fb</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>Care Corner Singapore Ltd</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4246,39 +4246,39 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Centre Supervisor (Tampines, Operations, Eldercare) - HWX</t>
+          <t>Assistant Finance Manager</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>81996375</t>
+          <t>81997341</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996375?type=standard&amp;ref=search-standalone#sol=11a136d5fbdb0bc866be403d7fc90fb008581af0</t>
+          <t>https://sg.jobstreet.com/job/81997341?type=standard&amp;ref=search-standalone#sol=c7df2be21db64bcdf288edd27587d8725fe94fd4</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RECRUIT EXPRESS PTE LTD</t>
+          <t>Care Corner Singapore Ltd</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4288,29 +4288,29 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['East Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Network Infrastructure Specialist</t>
+          <t>Assistant IT Project Manager (1 yr FTC)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>81996369</t>
+          <t>81996453</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996369?type=standard&amp;ref=search-standalone#sol=015c72b7fe8b1a0678a9890cc7c6bcbe677ae562</t>
+          <t>https://sg.jobstreet.com/job/81996453?type=standard&amp;ref=search-standalone#sol=fd9f695d1229f942c51a117af5eac101a1c9e8d1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4335,34 +4335,34 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Enterprise Services Specialist</t>
+          <t>Bridal Jewellery Planner（5days / Jewellery / Chinese Speaking）</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>81997536</t>
+          <t>81396894</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997536?type=standard&amp;ref=search-standalone#sol=eb1c1af6d01d4e3f37694e5896b159b1b73cceb3</t>
+          <t>https://sg.jobstreet.com/job/81396894?type=standard&amp;ref=search-standalone#sol=e087abe17457a724ac94c80963d570284b44fc90</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SimpliVity</t>
+          <t>Nextbeat Singapore Pte. Ltd.</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4372,39 +4372,39 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Orchard', ', Central Region']</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Operation Executive</t>
+          <t>Commercial Electric Vehicle (EV) Mechanic</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>81996343</t>
+          <t>81996447</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996343?type=standard&amp;ref=search-standalone#sol=09179be7799eb8e8cac8348c1cfdf21450e60461</t>
+          <t>https://sg.jobstreet.com/job/81996447?type=standard&amp;ref=search-standalone#sol=337581d6be4331fd6fff08bfa1632ce332618cdd</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>JOBSTUDIO PTE LTD</t>
+          <t>WGT EHR Pte. Ltd.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4414,39 +4414,39 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Indirect Marketing Specialist - APAC</t>
+          <t>RAOP AOP Team Head</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>81996341</t>
+          <t>81997447</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996341?type=standard&amp;ref=search-standalone#sol=7aed98def037265e359bcf71b6404dbbf1978cd5</t>
+          <t>https://sg.jobstreet.com/job/81997447?type=standard&amp;ref=search-standalone#sol=643175b5a05d816f0d3aecf8db248a61068390c8</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Trimble</t>
+          <t>Crédit Agricole CIB</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4456,39 +4456,39 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['Singapore River', ', Central Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Greenlake, AnPS and MS specialist</t>
+          <t>Customer Service Executive (Logistics/ Transport Provided)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>81997359</t>
+          <t>81996434</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997359?type=standard&amp;ref=search-standalone#sol=60d874acb77076ba445f940bea7ce43925c258e1</t>
+          <t>https://sg.jobstreet.com/job/81996434?type=standard&amp;ref=search-standalone#sol=d53ffc7cc67d944a824a6b0a7a5827f2fa38deb0</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SimpliVity</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4498,39 +4498,39 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Senior Cloud Wintel Engineer</t>
+          <t>Assistant Executive Housekeeper</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>81996297</t>
+          <t>81996160</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996297?type=standard&amp;ref=search-standalone#sol=ceec44920434cdc061c9791e71638c489463d9d4</t>
+          <t>https://sg.jobstreet.com/job/81996160?type=standard&amp;ref=search-standalone#sol=fb673669941aefb7d9d41c905cd3706d06fddbd8</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Lenovo PCCW Solutions</t>
+          <t>Raffles Hotel Singapore</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4540,39 +4540,39 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['Singapore River', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>3h ago</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Air Import Executive (Import Shipping Documents)(19480)</t>
+          <t>WheelChair Transport Driver (Bus Driver Vocational License BDVL)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>81996283</t>
+          <t>81996152</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996283?type=standard&amp;ref=search-standalone#sol=c95a61896639de68acc0604024c966af483453c1</t>
+          <t>https://sg.jobstreet.com/job/81996152?type=standard&amp;ref=search-standalone#sol=323ea39f66e699dc1274623a5db410318d3b195c</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Pasona Singapore Pte. Ltd.</t>
+          <t>The Supreme HR Advisory Pte Ltd</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['Simei', ', East Region']</t>
+          <t>['Kampong Ubi', ', Central Region']</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4594,37 +4594,37 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Micro / Chemistry Lab Analyst (Mon-Fri, Transport Provided) #HJY</t>
+          <t>聘请厨师 Cook/Chef (Near MRT)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>81996281</t>
+          <t>81996146</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996281?type=standard&amp;ref=search-standalone#sol=11699a0daad49cb92151ccd912cb8d6a8587baab</t>
+          <t>https://sg.jobstreet.com/job/81996146?type=standard&amp;ref=search-standalone#sol=d0bc3cec07b84569765d087d9282765d48bf6546</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>Stuff'd Ventures Pte Ltd</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['Tuas', ', West Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4636,37 +4636,37 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Order Management | US MNC | Hybrid work</t>
+          <t>Service Crew x 10</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>81996276</t>
+          <t>81996141</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996276?type=standard&amp;ref=search-standalone#sol=10b685f8cb304092a1d435e9a881cf221adc2e54</t>
+          <t>https://sg.jobstreet.com/job/81996141?type=standard&amp;ref=search-standalone#sol=732e7b98c635b37c94c5e7cf122922d829f79c29</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>ZEN CAREER PTE. LTD.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['Changi', ', East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4678,37 +4678,37 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Clinic Assistant</t>
+          <t>Procurement Assistant (Contract)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>81996247</t>
+          <t>81996124</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996247?type=standard&amp;ref=search-standalone#sol=8c4b4eb6097747ff70e9012f44a50729c859ee3d</t>
+          <t>https://sg.jobstreet.com/job/81996124?type=standard&amp;ref=search-standalone#sol=4ff5c1b2153a17fa05b7a0bb58dbea9e112d4d83</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>The Supreme HR Advisory Pte Ltd</t>
+          <t>PSA Corporation Limited</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Pasir Panjang', ', Central Region']</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4720,27 +4720,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Customer Service Advisor (Automotive, Electric Car, Class 3)</t>
+          <t>Cashier(French Luxury Brand)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>81996255</t>
+          <t>81996117</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996255?type=standard&amp;ref=search-standalone#sol=3a8ed15ad3575ba87273fb6717a5c8463ef4c398</t>
+          <t>https://sg.jobstreet.com/job/81996117?type=standard&amp;ref=search-standalone#sol=229323f10b2bdf2ad237b238b15f1e33b5bc34d4</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Corestaff Pte Ltd</t>
+          <t>Adecco Personnel Pte Ltd.</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>['Kampong Ubi', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4762,37 +4762,37 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Health Coach (Sleep)</t>
+          <t>Marketing Executive</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>81996252</t>
+          <t>81996102</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996252?type=standard&amp;ref=search-standalone#sol=7e47b5f0fddc8cfaf81a7e0a828f73957a1cf7ca</t>
+          <t>https://sg.jobstreet.com/job/81996102?type=standard&amp;ref=search-standalone#sol=68b55350085bb38f28c0c2a56b08e0dd7d405dc8</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SG Medical Pte Ltd</t>
+          <t>HR Focus</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>['Redhill', ', Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4804,27 +4804,27 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Frontline Financial Customer Service - East Area - 1 year - Up to $3500</t>
+          <t>SG Only! Quality Admin, Logistics (Warehouse Exp / SAP / West / Bonus)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>81996250</t>
+          <t>81996099</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996250?type=standard&amp;ref=search-standalone#sol=fa137009c3045c5b260208d83bca70641e75af33</t>
+          <t>https://sg.jobstreet.com/job/81996099?type=standard&amp;ref=search-standalone#sol=1e892d40a7480e779609dad3b33dc9e424ed98b4</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>CGP Personnel</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>['Paya Lebar', ', East Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4846,27 +4846,27 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BMS Project Engineer (Immediate!/Electrical/2-4 years/Office Hours/Up 4.2K + VB)</t>
+          <t>Key Shop Manager (Fashion, Footwear)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>81996245</t>
+          <t>81996092</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996245?type=standard&amp;ref=search-standalone#sol=b0e3c9b49f938375187cdd9b8df4ccf1108853b4</t>
+          <t>https://sg.jobstreet.com/job/81996092?type=standard&amp;ref=search-standalone#sol=c854a4bf411f4854f1f8fab9a79e0c54ca3efbe0</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>Adecco Personnel Pte Ltd.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>['North Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4888,27 +4888,27 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Admin And Support</t>
+          <t>Accounts Assistant (AP)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>81997503</t>
+          <t>81996051</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997503?type=standard&amp;ref=search-standalone#sol=e6b2cc0f8785985c27e5db4592d2f3e6bb53e6d9</t>
+          <t>https://sg.jobstreet.com/job/81996051?type=standard&amp;ref=search-standalone#sol=6bf8ca017c006c28b5dcff85fb8abeefbed87d5a</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Singapore Health Services Pte Ltd (SingHealth HQ)</t>
+          <t>Compass Group (S) Pte Ltd</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>['Bukit Merah', ', Central Region']</t>
+          <t>['Tai Seng', ', North-East Region']</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4930,27 +4930,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>E-Commerce Executive</t>
+          <t>Sales Executive (Data Center/Sales engineer/Electrical product line) VL74</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>81996234</t>
+          <t>81996066</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996234?type=standard&amp;ref=search-standalone#sol=96dfcea2e10ac2a68cc19434c2e3c33fba8dc1cc</t>
+          <t>https://sg.jobstreet.com/job/81996066?type=standard&amp;ref=search-standalone#sol=18d3f9fa8c19cc1f88620b492555200435fe78a2</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>HOUSE OF 28</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>['Kranji', ', North Region']</t>
+          <t>['Tuas', ', West Region']</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4972,32 +4972,32 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Pest Control Technician</t>
+          <t>Patient Service Associates (Multiple Location/No Experience Need) #HLWT</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>81985381</t>
+          <t>81996043</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81985381?type=standard&amp;ref=search-standalone#sol=401af88da700adc4a0d50dbf637df644860583c0</t>
+          <t>https://sg.jobstreet.com/job/81996043?type=standard&amp;ref=search-standalone#sol=746419e072a908261bf7e9cdfce17729a147b07c</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Pest Solver Pte Ltd</t>
+          <t>RECRUIT EXPRESS PTE LTD</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5014,27 +5014,27 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Repair Technician (Aircraft Engine| No Exp Welcome! |Fast Interview)</t>
+          <t>Sales Executive - Building Material</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>81996224</t>
+          <t>81996065</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996224?type=standard&amp;ref=search-standalone#sol=a75e2481a6e17a374a0f6352a31ed41c21d17794</t>
+          <t>https://sg.jobstreet.com/job/81996065?type=standard&amp;ref=search-standalone#sol=52ead64f91a323adfa65981b509834bb306de507</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Talentvis Singapore Pte Ltd</t>
+          <t>HR Focus</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>['Loyang', ', East Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5056,27 +5056,27 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SG Only! Logistics Assistant (East/AWS/OT/Basic up to $2200/Gross up to $3,000)</t>
+          <t>Network Engineer | $ 7000 | Singaporean Only</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>81996223</t>
+          <t>81996039</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996223?type=standard&amp;ref=search-standalone#sol=02886f6a89678286a7766407d6a5aee9605a3358</t>
+          <t>https://sg.jobstreet.com/job/81996039?type=standard&amp;ref=search-standalone#sol=6b998bda22e7403544c6c316b5d1711ab342f1e6</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>APBA TG Human Resource Pte Ltd</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>['East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5098,27 +5098,27 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Patient Service Assistant/Officer l Raffles Place</t>
+          <t>Senior Electrical Engineer (Power)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>81996216</t>
+          <t>81996040</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996216?type=standard&amp;ref=search-standalone#sol=474a155c8b0488cbe6c3ffa6e3e7f57637cd5e13</t>
+          <t>https://sg.jobstreet.com/job/81996040?type=standard&amp;ref=search-standalone#sol=0436bc73b617614775b33baee7c08ad47bf53b1b</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Raffles Medical Group Ltd</t>
+          <t>WSP Consultancy Pte Ltd</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['One North', ', Central Region']</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5140,27 +5140,27 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Logistic Specialist</t>
+          <t>Service Desk Analyst</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>81996170</t>
+          <t>81996003</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996170?type=standard&amp;ref=search-standalone#sol=9c0d9e6e2ef93f77c24da5399d18c3113ad4b2e4</t>
+          <t>https://sg.jobstreet.com/job/81996003?type=standard&amp;ref=search-standalone#sol=b9399b9f161df101c6a818c00108d40af1c68fe1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CITIC Commodities Pte Ltd</t>
+          <t>Lenovo PCCW Solutions</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>['Downtown Core', ', Central Region']</t>
+          <t>['Singapore River', ', Central Region']</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5182,27 +5182,27 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Executive/Senior Executive (Administration &amp; Operations), External Relations</t>
+          <t>Senior Medical Sales Representative</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>81996207</t>
+          <t>81995958</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996207?type=standard&amp;ref=search-standalone#sol=b1b2c79a4f9472aefdf4c8e0cf39a518029f9d05</t>
+          <t>https://sg.jobstreet.com/job/81995958?type=standard&amp;ref=search-standalone#sol=bb87a405fc2287f69b585c02727b43b49352511c</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>National University of Singapore</t>
+          <t>Majeton Pte. Ltd.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>['National University Of Singapore', ', Central Region']</t>
+          <t>['One North', ', Central Region']</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5224,27 +5224,27 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Associate Director (Strategic Relations), External Relations</t>
+          <t>Research Assistant (Advanced Power Electronics)</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>81996202</t>
+          <t>81995997</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996202?type=standard&amp;ref=search-standalone#sol=26ea6a4e3ea0b703cd7ae697ef8fe2aa1c0d43b9</t>
+          <t>https://sg.jobstreet.com/job/81995997?type=standard&amp;ref=search-standalone#sol=efbd07d29132e2100f9cfe8a40c851097ae0aa9e</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>National University of Singapore</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>['National University Of Singapore', ', Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5266,27 +5266,27 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Business operations Senior Executive/Manager</t>
+          <t>Sales Administrator</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>81982236</t>
+          <t>81995943</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81982236?type=standard&amp;ref=search-standalone#sol=33b2f5d83cd11a11739d615a0938ce2769bb5ab8</t>
+          <t>https://sg.jobstreet.com/job/81995943?type=standard&amp;ref=search-standalone#sol=c489c3dbbf9111251900caa94574b56b88fe6943</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Aither Asia Pte Ltd</t>
+          <t>Cable Care Pte Ltd</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Ang Mo Kio', ', North-East Region']</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5308,27 +5308,27 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Research Fellow (Nonlinear and Quantum Nanophotonics)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>81996191</t>
+          <t>81995960</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996191?type=standard&amp;ref=search-standalone#sol=45541605c5e999c1c05a69050a2777085ec575a9</t>
+          <t>https://sg.jobstreet.com/job/81995960?type=standard&amp;ref=search-standalone#sol=c39bc1b8ec23323ea79236259b3ea6599b716eaa</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Knight Frank Property &amp; Facilities Management Pte. Ltd.</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5350,37 +5350,37 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SG Only! Logistics Officer (East/AWS/OT/Basic up to $2600/Gross up to $3200)</t>
+          <t>Admin Executive | Central</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>81996186</t>
+          <t>81995939</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996186?type=standard&amp;ref=search-standalone#sol=3da7a5cb4e342df74d2a21362af2b5ce505434bf</t>
+          <t>https://sg.jobstreet.com/job/81995939?type=standard&amp;ref=search-standalone#sol=d1cddd9f21410db61942352455a60779f260c63a</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>APBA TG Human Resource Pte Ltd</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>['East Region']</t>
+          <t>['Bendemeer', ', Central Region']</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5392,27 +5392,27 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Manager, Visitor / Guest Service @ Art Gallery | Up to $3700</t>
+          <t>Lab Admin Coordinator [Up to $3K | Life Science MNC] RRKC</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>81996173</t>
+          <t>81995931</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996173?type=standard&amp;ref=search-standalone#sol=5795c662dba01b0acfd36a0689996ac2d52ea770</t>
+          <t>https://sg.jobstreet.com/job/81995931?type=standard&amp;ref=search-standalone#sol=bc4e5e78b7393c6fca7ee0d44d474cacd3e9644a</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>Rapid Recruitment Asia Pte Ltd</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Jurong East', ', West Region']</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5434,27 +5434,27 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Assistant Sales Engineer/Sales Engineer</t>
+          <t>Crisis Management Operations Executive (HEALTHCARE)  #HJW</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>81996159</t>
+          <t>81995930</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996159?type=standard&amp;ref=search-standalone#sol=fb9fde323e4f0d5e9fa3b1bd2c59792a11b0c417</t>
+          <t>https://sg.jobstreet.com/job/81995930?type=standard&amp;ref=search-standalone#sol=9ae5e6b32938b2a98755b3958aacd31cf643ebb1</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Daifuku Mechatronics (S) Pte Ltd</t>
+          <t>RECRUIT EXPRESS PTE LTD</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>['Ang Mo Kio', ', North-East Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5476,37 +5476,37 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Nurse Manager (5.25 office hours, Specialist Clinic, 8K) #HJX</t>
+          <t>Assistant Manager, Strategic Comms &amp; Public Relations (6 months Contract)</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>81996166</t>
+          <t>81995906</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996166?type=standard&amp;ref=search-standalone#sol=832befa653c0802e25234d892bac2eee6d1b455b</t>
+          <t>https://sg.jobstreet.com/job/81995906?type=standard&amp;ref=search-standalone#sol=4275b8b177f3481da4a37d65ef5022f2c1439355</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>RECRUIT EXPRESS PTE LTD</t>
+          <t>Sentosa Development Corporation &amp; Subsidiaries</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>['Novena', ', Central Region']</t>
+          <t>['Sentosa', ', Central Region']</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5518,37 +5518,37 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Electronics Test Engineer</t>
+          <t>Senior Executive, Graduation (R00018594)</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>81996164</t>
+          <t>81995914</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996164?type=standard&amp;ref=search-standalone#sol=265eddaaa8e5f2154e0613a050043e2c874c304a</t>
+          <t>https://sg.jobstreet.com/job/81995914?type=standard&amp;ref=search-standalone#sol=4f2955d735ee63be439ee51c60242062c81af101</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Mindteck Singapore Pte Ltd</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>['Ang Mo Kio', ', North-East Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5560,27 +5560,27 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SG Only! Storekeeper (East/AWS/OT/Basic up to $2600/ Gross up to $3200)</t>
+          <t>Credit Risk Manager (Nearest MRT: Chinatown)</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>81996161</t>
+          <t>81995902</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996161?type=standard&amp;ref=search-standalone#sol=bca8adcddb6491fe7d926d0be7ea3209e5830308</t>
+          <t>https://sg.jobstreet.com/job/81995902?type=standard&amp;ref=search-standalone#sol=9736f38001c8096f3cf81d30239f492a1a61ca93</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>RECRUIT FAST PTE. LTD.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5590,7 +5590,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>['East Region']</t>
+          <t>['Chinatown', ', Central Region']</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5602,27 +5602,27 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Assistant Executive Housekeeper</t>
+          <t>Audit Associate (Central - $3,600)</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>81996160</t>
+          <t>81995877</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996160?type=standard&amp;ref=search-standalone#sol=acd5dabeb5d5e723de3b1ee11345bc11df267409</t>
+          <t>https://sg.jobstreet.com/job/81995877?type=standard&amp;ref=search-standalone#sol=7142bad8abf38c99a8c7cbe2114e356b636a9d5a</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Raffles Hotel Singapore</t>
+          <t>SINGAPORE FOZL GROUP PTE. LTD</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Raffles Place', ', Central Region']</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5644,27 +5644,27 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>WheelChair Transport Driver (Bus Driver Vocational License BDVL)</t>
+          <t>L1 System Engineer (Ref 23908)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>81996152</t>
+          <t>81995894</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996152?type=standard&amp;ref=search-standalone#sol=3263d6cddb8d86e1293c5f77c3553133957d65d2</t>
+          <t>https://sg.jobstreet.com/job/81995894?type=standard&amp;ref=search-standalone#sol=14e3bc4d9fedc76cbecd1e8330bda89d28d25c55</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>The Supreme HR Advisory Pte Ltd</t>
+          <t>Private Advertiser</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>['Kampong Ubi', ', Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5686,27 +5686,27 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>聘请厨师 Cook/Chef (Near MRT)</t>
+          <t>Senior / Manager, Equipment Management</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>81996146</t>
+          <t>81995867</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996146?type=standard&amp;ref=search-standalone#sol=56ac6047a3dda13c15c6e248c4e60d593d81d2b2</t>
+          <t>https://sg.jobstreet.com/job/81995867?type=standard&amp;ref=search-standalone#sol=c2c19ead2e8594783bb79af528336fe3734f3844</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Stuff'd Ventures Pte Ltd</t>
+          <t>Hapag-Lloyd Pte Ltd</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Downtown Tanjong Pagar', ', Central Region']</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5728,27 +5728,27 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Service Crew x 10</t>
+          <t>Clinic Assistant (No Experience)</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>81996141</t>
+          <t>81995863</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996141?type=standard&amp;ref=search-standalone#sol=442271e1606a75b469473175b4abf479cbd9f875</t>
+          <t>https://sg.jobstreet.com/job/81995863?type=standard&amp;ref=search-standalone#sol=c21226b03f809634bac31b02b7fc9f608d26e1b0</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ZEN CAREER PTE. LTD.</t>
+          <t>JTE Recruit Pte Ltd</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5770,37 +5770,37 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Procurement Assistant (Contract)</t>
+          <t>Senior Assistant Manager, Academic Learning</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>81996124</t>
+          <t>81995826</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996124?type=standard&amp;ref=search-standalone#sol=0ad04b71906fd6a1bd6c924c6d2ea231414f4f1f</t>
+          <t>https://sg.jobstreet.com/job/81995826?type=standard&amp;ref=search-standalone#sol=1d07232a8302d8fc8641485b6f13315186255841</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>PSA Corporation Limited</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>['Pasir Panjang', ', Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5812,27 +5812,27 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Cashier(French Luxury Brand)</t>
+          <t>Manager, Corporate Secretariat</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>81996117</t>
+          <t>81995819</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996117?type=standard&amp;ref=search-standalone#sol=aa4a8b4b69d9922f6e45060e87e3663d22e6f525</t>
+          <t>https://sg.jobstreet.com/job/81995819?type=standard&amp;ref=search-standalone#sol=e4852056e3635385932e7f841b0422a011d8065b</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>Perennial Holdings Private Limited</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>$6,000 – $8,500 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5854,37 +5854,37 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Service Crew x 10</t>
+          <t>Lab Admin Coordinator [Up to $3K | Life Science MNC] RRKC</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>81996141</t>
+          <t>81995931</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996141?type=standard&amp;ref=search-standalone#sol=ca8ce2484f141224c6be06df99e349a5c6363a76</t>
+          <t>https://sg.jobstreet.com/job/81995931?type=standard&amp;ref=search-standalone#sol=fc2aa8d81b9d6f8feee5c3c395b38da864488d2d</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ZEN CAREER PTE. LTD.</t>
+          <t>Rapid Recruitment Asia Pte Ltd</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Jurong East', ', West Region']</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5896,37 +5896,37 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Procurement Assistant (Contract)</t>
+          <t>Crisis Management Operations Executive (HEALTHCARE)  #HJW</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>81996124</t>
+          <t>81995930</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996124?type=standard&amp;ref=search-standalone#sol=cbae1a25dfd675a63486f199a1c344f2ce63eace</t>
+          <t>https://sg.jobstreet.com/job/81995930?type=standard&amp;ref=search-standalone#sol=c50f0bd6f73abd66182cac327a2bccc4cbfed41e</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>PSA Corporation Limited</t>
+          <t>RECRUIT EXPRESS PTE LTD</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>['Pasir Panjang', ', Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5938,37 +5938,37 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Cashier(French Luxury Brand)</t>
+          <t>Assistant Manager, Strategic Comms &amp; Public Relations (6 months Contract)</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>81996117</t>
+          <t>81995906</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996117?type=standard&amp;ref=search-standalone#sol=324ba1d8b64a0ff579a81c2068e0f9fd548b420e</t>
+          <t>https://sg.jobstreet.com/job/81995906?type=standard&amp;ref=search-standalone#sol=5a2d5194dc5c5735de7ebb7afce23b169ecad0fa</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>Sentosa Development Corporation &amp; Subsidiaries</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Sentosa', ', Central Region']</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5980,27 +5980,27 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Junior Software Developer (Java/BigData)</t>
+          <t>Senior Executive, Graduation (R00018594)</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>81997481</t>
+          <t>81995914</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997481?type=standard&amp;ref=search-standalone#sol=779a66b34177e204ae7ae5e3ae825128109422c3</t>
+          <t>https://sg.jobstreet.com/job/81995914?type=standard&amp;ref=search-standalone#sol=8c0eb9e21dc1c8ef1d6373fd41dd81941f5102c0</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>LUXOFT INFORMATION TECHNOLOGY (SINGAPORE) PTE. LTD.</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6022,27 +6022,27 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Credit Risk Manager (Nearest MRT: Chinatown)</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>81997395</t>
+          <t>81995902</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997395?type=standard&amp;ref=search-standalone#sol=d5884d55c612adf994c67b816faabce8c35dacb3</t>
+          <t>https://sg.jobstreet.com/job/81995902?type=standard&amp;ref=search-standalone#sol=7c1844679b78e360a921554ba276e4be79af5de5</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>LUXOFT INFORMATION TECHNOLOGY (SINGAPORE) PTE. LTD.</t>
+          <t>RECRUIT FAST PTE. LTD.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Chinatown', ', Central Region']</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6064,27 +6064,27 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Marketing Executive</t>
+          <t>Audit Associate (Central - $3,600)</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>81996102</t>
+          <t>81995877</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996102?type=standard&amp;ref=search-standalone#sol=9b14be653144711f59dbb5c377333c9a05a1fa0d</t>
+          <t>https://sg.jobstreet.com/job/81995877?type=standard&amp;ref=search-standalone#sol=52d8949c4d31d70f05586cae34903f5069372713</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>HR Focus</t>
+          <t>SINGAPORE FOZL GROUP PTE. LTD</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Raffles Place', ', Central Region']</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6106,27 +6106,27 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SG Only! Quality Admin, Logistics (Warehouse Exp / SAP / West / Bonus)</t>
+          <t>L1 System Engineer (Ref 23908)</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>81996099</t>
+          <t>81995894</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996099?type=standard&amp;ref=search-standalone#sol=064bd3ff08253ed949f4af80df4071d0be3d24f3</t>
+          <t>https://sg.jobstreet.com/job/81995894?type=standard&amp;ref=search-standalone#sol=5920263c59df75ce5e93231cbd2a7f784d55ed67</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Private Advertiser</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6148,27 +6148,27 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Key Shop Manager (Fashion, Footwear)</t>
+          <t>Senior / Manager, Equipment Management</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>81996092</t>
+          <t>81995867</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996092?type=standard&amp;ref=search-standalone#sol=4613d28072491fc8da20be29bb75520fa9c07983</t>
+          <t>https://sg.jobstreet.com/job/81995867?type=standard&amp;ref=search-standalone#sol=f630250d702ffcc4347ffa327ede5b69b4ecf06b</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>Hapag-Lloyd Pte Ltd</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Downtown Tanjong Pagar', ', Central Region']</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6190,27 +6190,27 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Accounts Assistant (AP)</t>
+          <t>Clinic Assistant (No Experience)</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>81996051</t>
+          <t>81995863</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996051?type=standard&amp;ref=search-standalone#sol=c6025351ee69ac5cc0dadbb41b844eff5555e082</t>
+          <t>https://sg.jobstreet.com/job/81995863?type=standard&amp;ref=search-standalone#sol=227dedc37fd1baf04c8d6f30fae9fbb6dd04cce3</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Compass Group (S) Pte Ltd</t>
+          <t>JTE Recruit Pte Ltd</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>['Tai Seng', ', North-East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6232,27 +6232,27 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sales Executive (Data Center/Sales engineer/Electrical product line) VL74</t>
+          <t>F&amp;b Captain</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>81996066</t>
+          <t>81997329</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996066?type=standard&amp;ref=search-standalone#sol=99c710c9f56ffa455a980433eba32f857750d0aa</t>
+          <t>https://sg.jobstreet.com/job/81997329?type=standard&amp;ref=search-standalone#sol=f96bdbce55b4cdf460f02bb2892b462f2bd4a845</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>Hotel Indigo Singapore Katong</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>['Tuas', ', West Region']</t>
+          <t>['Marine Parade', ', Central Region']</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6274,37 +6274,37 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Patient Service Associates (Multiple Location/No Experience Need) #HLWT</t>
+          <t>Senior Assistant Manager, Academic Learning</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>81996043</t>
+          <t>81995826</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996043?type=standard&amp;ref=search-standalone#sol=4ffc6924b47ce6d94c4b87b3a54bf72f5542c13e</t>
+          <t>https://sg.jobstreet.com/job/81995826?type=standard&amp;ref=search-standalone#sol=dda547f6d9a1415115970caf03b9ae81be8d5bbe</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RECRUIT EXPRESS PTE LTD</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -6316,27 +6316,27 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sales Executive - Building Material</t>
+          <t>Manager, Corporate Secretariat</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>81996065</t>
+          <t>81995819</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996065?type=standard&amp;ref=search-standalone#sol=dd0d3d9952b82a06d9f87901d3d15985434fc71c</t>
+          <t>https://sg.jobstreet.com/job/81995819?type=standard&amp;ref=search-standalone#sol=197c870dabeaca29ad79132da647268772cec66b</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>HR Focus</t>
+          <t>Perennial Holdings Private Limited</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -6358,27 +6358,27 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Network Engineer | $ 7000 | Singaporean Only</t>
+          <t>Senior/ Manager, Marketing Communications &amp; Partnership (Innovation/ Tech)</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>81996039</t>
+          <t>81995820</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996039?type=standard&amp;ref=search-standalone#sol=8cc4ee4a3727a57b470b13ff313e6af56f5d1f33</t>
+          <t>https://sg.jobstreet.com/job/81995820?type=standard&amp;ref=search-standalone#sol=504bafa22178f0d25285eac9aba38c91e4c36daa</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>APBA TG Human Resource Pte Ltd</t>
+          <t>Talent Trader Group Pte Ltd</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -6400,27 +6400,27 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Senior Electrical Engineer (Power)</t>
+          <t>Executive Officer (Credit Control)</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>81996040</t>
+          <t>81995812</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996040?type=standard&amp;ref=search-standalone#sol=d1827e8ab8d681686308549556140065577688df</t>
+          <t>https://sg.jobstreet.com/job/81995812?type=standard&amp;ref=search-standalone#sol=f68c4bb06279803769c06a64c3894c5eb7665a80</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>WSP Consultancy Pte Ltd</t>
+          <t>Singapore Power Ltd</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>['One North', ', Central Region']</t>
+          <t>['Kallang', ', Central Region']</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6442,27 +6442,27 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Service Desk Analyst</t>
+          <t>*NEW* 6 Months APAC Product/Partnerships Manager - Financial</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>81996003</t>
+          <t>81995815</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81996003?type=standard&amp;ref=search-standalone#sol=df3c5a70538832e709654f32e72e36ca8cf53de3</t>
+          <t>https://sg.jobstreet.com/job/81995815?type=standard&amp;ref=search-standalone#sol=978bd99ebd42f83b44458a7a6fdb7fd5ca592568</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Lenovo PCCW Solutions</t>
+          <t>Ambition Group Singapore Pte. Ltd. (SG)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>['Singapore River', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6484,27 +6484,27 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Senior Medical Sales Representative</t>
+          <t>Staff Engineer Scheduling &amp; Dispatching</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>81995958</t>
+          <t>81995811</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995958?type=standard&amp;ref=search-standalone#sol=b96b3da36853e01272c2f47019d347dcc347ebaf</t>
+          <t>https://sg.jobstreet.com/job/81995811?type=standard&amp;ref=search-standalone#sol=125b00d2e490bc4966ad3cfde849e59d9f993b91</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Majeton Pte. Ltd.</t>
+          <t>Infineon Technologies</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>['One North', ', Central Region']</t>
+          <t>['Kallang', ', Central Region']</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6526,17 +6526,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Research Assistant (Advanced Power Electronics)</t>
+          <t>Senior Executive, Academic Learning (Undergraduate Programmes)</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>81995997</t>
+          <t>81995780</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995997?type=standard&amp;ref=search-standalone#sol=648bb7c0e06d19956df5fd736b52514632c42fbe</t>
+          <t>https://sg.jobstreet.com/job/81995780?type=standard&amp;ref=search-standalone#sol=42c3e36960e114651c73d6ebd550da325be8c8b6</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -6568,27 +6568,27 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sales Administrator</t>
+          <t>PROJECT ENGINEER</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>81995943</t>
+          <t>81995731</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995943?type=standard&amp;ref=search-standalone#sol=776ac06c30dbf37a9b6a0783d5c0d349c6911274</t>
+          <t>https://sg.jobstreet.com/job/81995731?type=standard&amp;ref=search-standalone#sol=e07b2ffebb017bdfd60df35af33cadacde4843ce</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Cable Care Pte Ltd</t>
+          <t>CHIAN TECK</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>['Ang Mo Kio', ', North-East Region']</t>
+          <t>['Woodlands', ', North Region']</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6610,27 +6610,27 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Research Fellow (Nonlinear and Quantum Nanophotonics)</t>
+          <t>Lab Technologist (Chemistry/Haematology/Blood Bank) #HYS</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>81995960</t>
+          <t>81995716</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995960?type=standard&amp;ref=search-standalone#sol=218b654fedeadd89bada9d83e23aac4a61dbf2c8</t>
+          <t>https://sg.jobstreet.com/job/81995716?type=standard&amp;ref=search-standalone#sol=4dbddf1238516d4e4d4ec46ce65c9386020d32f1</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Nanyang Technological University</t>
+          <t>RECRUIT EXPRESS PTE LTD</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6652,37 +6652,37 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Admin Executive | Central</t>
+          <t>Business Development Manager (SME Loans)</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>81995939</t>
+          <t>81995706</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995939?type=standard&amp;ref=search-standalone#sol=357f6e9b9d1a3c40b652e8fc76192cd99beadcf7</t>
+          <t>https://sg.jobstreet.com/job/81995706?type=standard&amp;ref=search-standalone#sol=4647e9b818055611f35d3e7a8393cc233f5d077c</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>APBA TG Human Resource Pte Ltd</t>
+          <t>Pasona Singapore Pte. Ltd.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>['Bendemeer', ', Central Region']</t>
+          <t>['Chinatown', ', Central Region']</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6694,37 +6694,37 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Lab Admin Coordinator [Up to $3K | Life Science MNC] RRKC</t>
+          <t>PROJECT ENGINEER (CIVIL / M&amp;E)</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>81995931</t>
+          <t>81989659</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995931?type=standard&amp;ref=search-standalone#sol=0b037687f488617b8550a8bd1784014ed63ee398</t>
+          <t>https://sg.jobstreet.com/job/81989659?type=standard&amp;ref=search-standalone#sol=59eeef3b87322f156ca2910a1463ef0674e4b366</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Rapid Recruitment Asia Pte Ltd</t>
+          <t>3L E&amp;C Pte. Ltd.</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>['Jurong East', ', West Region']</t>
+          <t>['Ang Mo Kio', ', North-East Region']</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6736,37 +6736,37 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Crisis Management Operations Executive (HEALTHCARE)  #HJW</t>
+          <t>Service Crew</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>81995930</t>
+          <t>81997332</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995930?type=standard&amp;ref=search-standalone#sol=599ddba85e50548660677230000efbb265d53d25</t>
+          <t>https://sg.jobstreet.com/job/81997332?type=standard&amp;ref=search-standalone#sol=5a94107aecaab8bb643447cd2b59c6735f6e4e6c</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>RECRUIT EXPRESS PTE LTD</t>
+          <t>Hotel Indigo Singapore Katong</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Part time job</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Marine Parade', ', Central Region']</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6778,27 +6778,27 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Assistant Manager, Strategic Comms &amp; Public Relations (6 months Contract)</t>
+          <t>Banking Sales Officer (Bank| Up to $3.1k) East</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>81995906</t>
+          <t>81995673</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995906?type=standard&amp;ref=search-standalone#sol=d7bdc6e06ed7fc350ac31084507fabe227c29f4c</t>
+          <t>https://sg.jobstreet.com/job/81995673?type=standard&amp;ref=search-standalone#sol=699e10749a60505ff248e34aad2d3ac52f97e27b</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Sentosa Development Corporation &amp; Subsidiaries</t>
+          <t>Adecco Personnel Pte Ltd.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>['Sentosa', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6820,27 +6820,27 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Senior Executive, Graduation (R00018594)</t>
+          <t>Banking - Reconciliation Officer (up to $5k/East)</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>81995914</t>
+          <t>81995631</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995914?type=standard&amp;ref=search-standalone#sol=3836be9d7b21f81f32f426a29b9819826065a2e3</t>
+          <t>https://sg.jobstreet.com/job/81995631?type=standard&amp;ref=search-standalone#sol=ea6f7cfd930e958568b67ed12232d57e37dee1db</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Nanyang Technological University</t>
+          <t>Adecco Personnel Pte Ltd.</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6862,27 +6862,27 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Credit Risk Manager (Nearest MRT: Chinatown)</t>
+          <t>HR &amp; Office Administrator</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>81995902</t>
+          <t>81995542</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995902?type=standard&amp;ref=search-standalone#sol=adc82852492066456b7d411d34522bf0f2435474</t>
+          <t>https://sg.jobstreet.com/job/81995542?type=standard&amp;ref=search-standalone#sol=8097b7aa0acbb1c3401a8a539d75ae3538f865f1</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>RECRUIT FAST PTE. LTD.</t>
+          <t>GENII IDEAS(S) PTE LTD</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>['Chinatown', ', Central Region']</t>
+          <t>['Tampines', ', East Region']</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6904,27 +6904,27 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Audit Associate (Central - $3,600)</t>
+          <t>Junior Personal Assistant</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>81995877</t>
+          <t>81995433</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995877?type=standard&amp;ref=search-standalone#sol=64756c39312f25024367849cdc003cda3c4c477a</t>
+          <t>https://sg.jobstreet.com/job/81995433?type=standard&amp;ref=search-standalone#sol=8520cdec9d816b6434c8413f92d285184b81c81d</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SINGAPORE FOZL GROUP PTE. LTD</t>
+          <t>Centurion Corporation Limited</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>['Raffles Place', ', Central Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6946,27 +6946,27 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>L1 System Engineer (Ref 23908)</t>
+          <t>Audit Partner (Central - $18,000)</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>81995894</t>
+          <t>81994708</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995894?type=standard&amp;ref=search-standalone#sol=166817469aa6e16ec3b2edc2aa1067c028abfe89</t>
+          <t>https://sg.jobstreet.com/job/81994708?type=standard&amp;ref=search-standalone#sol=c56676c6201ac53f7abd5203b0d8f1b4a63cc935</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>SINGAPORE FOZL GROUP PTE. LTD</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>['North Region']</t>
+          <t>['Raffles Place', ', Central Region']</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6988,27 +6988,27 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Senior / Manager, Equipment Management</t>
+          <t>BD, Sales Executive (Entry Level / Logistics Industry)</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>81995867</t>
+          <t>81995488</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995867?type=standard&amp;ref=search-standalone#sol=f75eb011fffc953deaad5255229bdb27a8943505</t>
+          <t>https://sg.jobstreet.com/job/81995488?type=standard&amp;ref=search-standalone#sol=2f1b5b30572f1aa373d984603a7723ba89ff4e2f</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Hapag-Lloyd Pte Ltd</t>
+          <t>RK Recruitment Pte. Ltd.</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>['Downtown Tanjong Pagar', ', Central Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7030,27 +7030,27 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Clinic Assistant (No Experience)</t>
+          <t>Assistant Contracts Manager (CRL MRT project, A1 main con) - YL</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>81995863</t>
+          <t>81995425</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995863?type=standard&amp;ref=search-standalone#sol=0c8329926e52d9034ba843fb672ce464c37b5e7d</t>
+          <t>https://sg.jobstreet.com/job/81995425?type=standard&amp;ref=search-standalone#sol=4d1cfce3f7405e03cc2ce97353d038383916561c</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>JTE Recruit Pte Ltd</t>
+          <t>PeopleSearch Pte Ltd</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7072,27 +7072,27 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>F&amp;b Captain</t>
+          <t>Lift Technician ( Islandwide / Up to $3800 / 5 Days）</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>81997329</t>
+          <t>81995454</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997329?type=standard&amp;ref=search-standalone#sol=0d0ca2dbdf71b671d7b093cd8868fe1eacc0555c</t>
+          <t>https://sg.jobstreet.com/job/81995454?type=standard&amp;ref=search-standalone#sol=9f9acbf8956fef5df33463ee33a3c23b9e593ba1</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Hotel Indigo Singapore Katong</t>
+          <t>ALWAYSHIRED PTE. LTD.</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>['Marine Parade', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7114,17 +7114,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Senior Assistant Manager, Academic Learning</t>
+          <t>Senior Assistant Manager, Graduate College</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>81995826</t>
+          <t>81995407</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995826?type=standard&amp;ref=search-standalone#sol=9d14af9a777779cc5d48f983615ae906e1574bff</t>
+          <t>https://sg.jobstreet.com/job/81995407?type=standard&amp;ref=search-standalone#sol=f0e0c39286689a737129992ff50bbe72cdc0168c</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -7156,27 +7156,27 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Manager, Corporate Secretariat</t>
+          <t>Business Development Manager</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>81995819</t>
+          <t>81997340</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995819?type=standard&amp;ref=search-standalone#sol=1a669757bdd7511fed87a11db3ca0b344b425379</t>
+          <t>https://sg.jobstreet.com/job/81997340?type=standard&amp;ref=search-standalone#sol=96f8684eaa97ebdd0839832545a5490717397dc7</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Perennial Holdings Private Limited</t>
+          <t>Hatch Asia</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>$2,000 – $3,000 per month</t>
+          <t>$2,400 – $3,000 per month</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -7198,27 +7198,27 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Executive Officer (Credit Control)</t>
+          <t>Senior Electrical Engineer (Power)</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>81995812</t>
+          <t>81996040</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995812?type=standard&amp;ref=search-standalone#sol=ac9d0f05953bbdf18dbd65be22be6809efba3733</t>
+          <t>https://sg.jobstreet.com/job/81996040?type=standard&amp;ref=search-standalone#sol=b68be63918cfe9c6fcdbfb8e88131c2dd678ce80</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Singapore Power Ltd</t>
+          <t>WSP Consultancy Pte Ltd</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>['Kallang', ', Central Region']</t>
+          <t>['One North', ', Central Region']</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -7240,27 +7240,27 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>*NEW* 6 Months APAC Product/Partnerships Manager - Financial</t>
+          <t>Service Desk Analyst</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>81995815</t>
+          <t>81996003</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995815?type=standard&amp;ref=search-standalone#sol=48a0a2a6dc8238ead8e5428ddb45d2e249e7e406</t>
+          <t>https://sg.jobstreet.com/job/81996003?type=standard&amp;ref=search-standalone#sol=87713dd5a93799cc2217311acaee0630684482f2</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Ambition Group Singapore Pte. Ltd. (SG)</t>
+          <t>Lenovo PCCW Solutions</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -7270,7 +7270,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Singapore River', ', Central Region']</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -7282,27 +7282,27 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Staff Engineer Scheduling &amp; Dispatching</t>
+          <t>Senior Medical Sales Representative</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>81995811</t>
+          <t>81995958</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995811?type=standard&amp;ref=search-standalone#sol=6bff5a7f3565de9d2fbc46f931c738df4f9d35e4</t>
+          <t>https://sg.jobstreet.com/job/81995958?type=standard&amp;ref=search-standalone#sol=b8c4307480243c42d3da753802a063e0b128b589</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Infineon Technologies</t>
+          <t>Majeton Pte. Ltd.</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -7312,7 +7312,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>['Kallang', ', Central Region']</t>
+          <t>['One North', ', Central Region']</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -7324,17 +7324,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Senior Executive, Academic Learning (Undergraduate Programmes)</t>
+          <t>Research Assistant (Advanced Power Electronics)</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>81995780</t>
+          <t>81995997</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995780?type=standard&amp;ref=search-standalone#sol=1d85b51607e1191b16a92394384f5275ca3d5d68</t>
+          <t>https://sg.jobstreet.com/job/81995997?type=standard&amp;ref=search-standalone#sol=4cfa1ae5a84dc28a496df558b61549cf0c92fc52</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -7366,27 +7366,27 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PROJECT ENGINEER</t>
+          <t>Sales Administrator</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>81995731</t>
+          <t>81995943</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995731?type=standard&amp;ref=search-standalone#sol=1614c50e04badb7758cec5c5b62ddebd2d399797</t>
+          <t>https://sg.jobstreet.com/job/81995943?type=standard&amp;ref=search-standalone#sol=31cb44854183d59b59eb676431536f6a5b65d27c</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>CHIAN TECK</t>
+          <t>Cable Care Pte Ltd</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>['Woodlands', ', North Region']</t>
+          <t>['Ang Mo Kio', ', North-East Region']</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -7408,27 +7408,27 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Lab Technologist (Chemistry/Haematology/Blood Bank) #HYS</t>
+          <t>Research Fellow (Nonlinear and Quantum Nanophotonics)</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>81995716</t>
+          <t>81995960</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995716?type=standard&amp;ref=search-standalone#sol=2786a36bf4bcc51200199f1bcb9d0982fd5dd387</t>
+          <t>https://sg.jobstreet.com/job/81995960?type=standard&amp;ref=search-standalone#sol=939fb807125ea43a35090530d8de9fdd96fdec08</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>RECRUIT EXPRESS PTE LTD</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -7438,7 +7438,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -7450,37 +7450,37 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Business Development Manager (SME Loans)</t>
+          <t>Admin Executive | Central</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>81995706</t>
+          <t>81995939</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995706?type=standard&amp;ref=search-standalone#sol=18aa398a8b6f3ba0b9adfc2e8f10331bfff1c80c</t>
+          <t>https://sg.jobstreet.com/job/81995939?type=standard&amp;ref=search-standalone#sol=335e3661b499c46593ac5315546ce8fce0bd161f</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Pasona Singapore Pte. Ltd.</t>
+          <t>APBA TG Human Resource Pte Ltd</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>['Chinatown', ', Central Region']</t>
+          <t>['Bendemeer', ', Central Region']</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -7492,37 +7492,37 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>PROJECT ENGINEER (CIVIL / M&amp;E)</t>
+          <t>Lab Admin Coordinator [Up to $3K | Life Science MNC] RRKC</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>81989659</t>
+          <t>81995931</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81989659?type=standard&amp;ref=search-standalone#sol=c9fae8f7c2cdabefea4233b235789f5cc69a5236</t>
+          <t>https://sg.jobstreet.com/job/81995931?type=standard&amp;ref=search-standalone#sol=decefbda25781d9ab7706975ec5bba929f0030fa</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>3L E&amp;C Pte. Ltd.</t>
+          <t>Rapid Recruitment Asia Pte Ltd</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>['Ang Mo Kio', ', North-East Region']</t>
+          <t>['Jurong East', ', West Region']</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -7534,37 +7534,37 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Service Crew</t>
+          <t>Crisis Management Operations Executive (HEALTHCARE)  #HJW</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>81997332</t>
+          <t>81995930</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997332?type=standard&amp;ref=search-standalone#sol=39d2a88c60ae406e392f1e91d7c62248ef036945</t>
+          <t>https://sg.jobstreet.com/job/81995930?type=standard&amp;ref=search-standalone#sol=d0e754bd2150969b7f95b6287a5cec84ebcd895c</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Hotel Indigo Singapore Katong</t>
+          <t>RECRUIT EXPRESS PTE LTD</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>This is a Part time job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>['Marine Parade', ', Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7576,27 +7576,27 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Banking Sales Officer (Bank| Up to $3.1k) East</t>
+          <t>Assistant Manager, Strategic Comms &amp; Public Relations (6 months Contract)</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>81995673</t>
+          <t>81995906</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995673?type=standard&amp;ref=search-standalone#sol=a60af61ef3d8f7af0e18414e266844223e10cbd9</t>
+          <t>https://sg.jobstreet.com/job/81995906?type=standard&amp;ref=search-standalone#sol=c7205710846de82f186330ddc5f26d5e8aabf074</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>Sentosa Development Corporation &amp; Subsidiaries</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Sentosa', ', Central Region']</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -7618,27 +7618,27 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Banking - Reconciliation Officer (up to $5k/East)</t>
+          <t>Senior Executive, Graduation (R00018594)</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>81995631</t>
+          <t>81995914</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995631?type=standard&amp;ref=search-standalone#sol=711c25c0e55d17efb8576291df2113cc38cfd19a</t>
+          <t>https://sg.jobstreet.com/job/81995914?type=standard&amp;ref=search-standalone#sol=c2d64d66fe26e04d4b5bf3b385a68195bc670557</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -7660,27 +7660,27 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>HR &amp; Office Administrator</t>
+          <t>Credit Risk Manager (Nearest MRT: Chinatown)</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>81995542</t>
+          <t>81995902</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995542?type=standard&amp;ref=search-standalone#sol=1253606917dc002ad088abd52dfd3aefbe9b0416</t>
+          <t>https://sg.jobstreet.com/job/81995902?type=standard&amp;ref=search-standalone#sol=aa8b30e1f4b13939f729d59ec2c22e8a96b27f88</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>GENII IDEAS(S) PTE LTD</t>
+          <t>RECRUIT FAST PTE. LTD.</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>['Tampines', ', East Region']</t>
+          <t>['Chinatown', ', Central Region']</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7702,27 +7702,27 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Junior Personal Assistant</t>
+          <t>Audit Associate (Central - $3,600)</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>81995433</t>
+          <t>81995877</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995433?type=standard&amp;ref=search-standalone#sol=d83789e134c3abe06a0b26863e4223da093a3105</t>
+          <t>https://sg.jobstreet.com/job/81995877?type=standard&amp;ref=search-standalone#sol=532117272220fc54095603e5165a6917d54f111c</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Centurion Corporation Limited</t>
+          <t>SINGAPORE FOZL GROUP PTE. LTD</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>['East Region']</t>
+          <t>['Raffles Place', ', Central Region']</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7744,27 +7744,27 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Audit Partner (Central - $18,000)</t>
+          <t>L1 System Engineer (Ref 23908)</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>81994708</t>
+          <t>81995894</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994708?type=standard&amp;ref=search-standalone#sol=89f09823b3df201e1cfe09b32ae0209b97e3ab76</t>
+          <t>https://sg.jobstreet.com/job/81995894?type=standard&amp;ref=search-standalone#sol=5e6fafdc63b62fc63596ad2febe68dd522c77106</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>SINGAPORE FOZL GROUP PTE. LTD</t>
+          <t>Private Advertiser</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>['Raffles Place', ', Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7786,27 +7786,27 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BD, Sales Executive (Entry Level / Logistics Industry)</t>
+          <t>Senior / Manager, Equipment Management</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>81995488</t>
+          <t>81995867</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995488?type=standard&amp;ref=search-standalone#sol=b6214567f7a193a241bb1bb2d7691254f7d457c0</t>
+          <t>https://sg.jobstreet.com/job/81995867?type=standard&amp;ref=search-standalone#sol=3349fb1eb8cfc09d9ab089c9fc3909a7a9c12064</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RK Recruitment Pte. Ltd.</t>
+          <t>Hapag-Lloyd Pte Ltd</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>['East Region']</t>
+          <t>['Downtown Tanjong Pagar', ', Central Region']</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7828,27 +7828,27 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Assistant Contracts Manager (CRL MRT project, A1 main con) - YL</t>
+          <t>Clinic Assistant (No Experience)</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>81995425</t>
+          <t>81995863</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995425?type=standard&amp;ref=search-standalone#sol=1405b445d1012d37ef44bf20c2ba258cdb12baa7</t>
+          <t>https://sg.jobstreet.com/job/81995863?type=standard&amp;ref=search-standalone#sol=076a2104b5e38a385b627bc0f326eea13fbec19f</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>PeopleSearch Pte Ltd</t>
+          <t>JTE Recruit Pte Ltd</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>['East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7870,27 +7870,27 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Lift Technician ( Islandwide / Up to $3800 / 5 Days）</t>
+          <t>F&amp;b Captain</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>81995454</t>
+          <t>81997329</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995454?type=standard&amp;ref=search-standalone#sol=fe8498e3745fb873a42039c023dd0d750a923910</t>
+          <t>https://sg.jobstreet.com/job/81997329?type=standard&amp;ref=search-standalone#sol=d794a50500f68f19bc2402d609e7a6c3c4f7582f</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>ALWAYSHIRED PTE. LTD.</t>
+          <t>Hotel Indigo Singapore Katong</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Marine Parade', ', Central Region']</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7912,17 +7912,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Senior Assistant Manager, Graduate College</t>
+          <t>Senior Assistant Manager, Academic Learning</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>81995407</t>
+          <t>81995826</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995407?type=standard&amp;ref=search-standalone#sol=5e1108773f126315a3eded832b27bcb6c50439f6</t>
+          <t>https://sg.jobstreet.com/job/81995826?type=standard&amp;ref=search-standalone#sol=f1cfac1a294af1a3290183b55b8040b23720ba90</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7932,7 +7932,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -7954,27 +7954,27 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Business Development Manager</t>
+          <t>Manager, Corporate Secretariat</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>81997340</t>
+          <t>81995819</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997340?type=standard&amp;ref=search-standalone#sol=fd98a774e0640bc812a277902bc64fc2c9f1eb6f</t>
+          <t>https://sg.jobstreet.com/job/81995819?type=standard&amp;ref=search-standalone#sol=fc556e6060ba7bf648f123c63de05d346c1c36f8</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Hatch Asia</t>
+          <t>Perennial Holdings Private Limited</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -7996,37 +7996,37 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Associate Clinical Research Coordinator (Dept of Urology) (Contract)</t>
+          <t>Senior/ Manager, Marketing Communications &amp; Partnership (Innovation/ Tech)</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>81995140</t>
+          <t>81995820</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995140?type=standard&amp;ref=search-standalone#sol=049c2b3e6e20efb727428374056e9bbd728fdc91</t>
+          <t>https://sg.jobstreet.com/job/81995820?type=standard&amp;ref=search-standalone#sol=ed3b8c74f2fdef0168c0c86b1237b6280de35642</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Singapore General Hospital</t>
+          <t>Talent Trader Group Pte Ltd</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>This is a Part time job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>['Bukit Merah', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -8038,27 +8038,27 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Assistant Manager, IPGC Operations</t>
+          <t>Executive Officer (Credit Control)</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>81995041</t>
+          <t>81995812</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81995041?type=standard&amp;ref=search-standalone#sol=22c44a1212ad325b848eb747112d5fcf6b73545e</t>
+          <t>https://sg.jobstreet.com/job/81995812?type=standard&amp;ref=search-standalone#sol=a43d6db6ad42f51ffd7f6d0f94ff42cd775b65a7</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Nanyang Technological University</t>
+          <t>Singapore Power Ltd</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Kallang', ', Central Region']</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -8080,27 +8080,27 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sales Development Representative</t>
+          <t>*NEW* 6 Months APAC Product/Partnerships Manager - Financial</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>81997358</t>
+          <t>81995815</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997358?type=standard&amp;ref=search-standalone#sol=f090a3659bb268638f5336f8b09757c8a55a2fd3</t>
+          <t>https://sg.jobstreet.com/job/81995815?type=standard&amp;ref=search-standalone#sol=ae5927640ef4dff1b7b2f1f8cb61fae3468972aa</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Darktrace Singapore Pte. Ltd.</t>
+          <t>Ambition Group Singapore Pte. Ltd. (SG)</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -8122,27 +8122,27 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Senior/ Data Engineer (Contract)</t>
+          <t>Staff Engineer Scheduling &amp; Dispatching</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>81994877</t>
+          <t>81995811</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994877?type=standard&amp;ref=search-standalone#sol=574707a7411624dc2c79bcc8794982d7300f4c4d</t>
+          <t>https://sg.jobstreet.com/job/81995811?type=standard&amp;ref=search-standalone#sol=b07b0e91f33c46823cb1fe2e9f3ef7dff76c64de</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Ng Teng Fong General Hospital</t>
+          <t>Infineon Technologies</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>['Jurong East', ', West Region']</t>
+          <t>['Kallang', ', Central Region']</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -8164,27 +8164,27 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Marketing Executive</t>
+          <t>Senior Executive, Academic Learning (Undergraduate Programmes)</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>81994831</t>
+          <t>81995780</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994831?type=standard&amp;ref=search-standalone#sol=29c3b507c8cf254d1e495e538a7612343d879aaf</t>
+          <t>https://sg.jobstreet.com/job/81995780?type=standard&amp;ref=search-standalone#sol=d1206a199c228f6947577603b8697d1fad439897</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Ascle Healthcare Private Limited</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>['Bugis', ', Central Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -8206,37 +8206,37 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Temp Billing Analyst (Healthcare, 12 months)</t>
+          <t>PROJECT ENGINEER</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>81994737</t>
+          <t>81995731</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994737?type=standard&amp;ref=search-standalone#sol=d78a10baf7c8ca7add336387bb21563224e0b59b</t>
+          <t>https://sg.jobstreet.com/job/81995731?type=standard&amp;ref=search-standalone#sol=03a9221afde742b18ebc5c37f97821d6dc0347e1</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>ScienTec Consulting Pte Ltd</t>
+          <t>CHIAN TECK</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Woodlands', ', North Region']</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -8248,27 +8248,27 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Senior M&amp;E Engineer</t>
+          <t>Lab Technologist (Chemistry/Haematology/Blood Bank) #HYS</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>81994656</t>
+          <t>81995716</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994656?type=standard&amp;ref=search-standalone#sol=bab3f431f84e70883b0f4b8999993cbf1fc1eb31</t>
+          <t>https://sg.jobstreet.com/job/81995716?type=standard&amp;ref=search-standalone#sol=f3e6d8d8e4aef92a612db134df2e990dcaf64d88</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>RK Recruitment Pte. Ltd.</t>
+          <t>RECRUIT EXPRESS PTE LTD</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>['Downtown Core', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -8290,27 +8290,27 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Engagement (Community Partnership)</t>
+          <t>Business Development Manager (SME Loans)</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>81994430</t>
+          <t>81995706</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994430?type=standard&amp;ref=search-standalone#sol=432571821c29db30294f30af1ebb4efbedcdc81d</t>
+          <t>https://sg.jobstreet.com/job/81995706?type=standard&amp;ref=search-standalone#sol=686db350a10faec8a92515d7719d69e8368e00b8</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>MINDSG LTD</t>
+          <t>Pasona Singapore Pte. Ltd.</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>['Queenstown', ', Central Region']</t>
+          <t>['Chinatown', ', Central Region']</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -8332,27 +8332,27 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Executive Director, Underwriting Risk Management</t>
+          <t>PROJECT ENGINEER (CIVIL / M&amp;E)</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>81997375</t>
+          <t>81989659</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81997375?type=standard&amp;ref=search-standalone#sol=0b5eec2374698681c8a36e7035bb4f6b58a42fd7</t>
+          <t>https://sg.jobstreet.com/job/81989659?type=standard&amp;ref=search-standalone#sol=a27f7374ba02dd00d255f5b68308b5d5f3a1c001</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Sumitomo Mitsui Banking Corporation</t>
+          <t>3L E&amp;C Pte. Ltd.</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -8362,7 +8362,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>['Singapore']</t>
+          <t>['Ang Mo Kio', ', North-East Region']</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -8374,37 +8374,37 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Logistics Coordinator / Warehouse Operations Assistant (MNC)</t>
+          <t>Service Crew</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>81994325</t>
+          <t>81997332</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994325?type=standard&amp;ref=search-standalone#sol=56838ba5b68bf0d307165ba0ce1426b64dbc7fa3</t>
+          <t>https://sg.jobstreet.com/job/81997332?type=standard&amp;ref=search-standalone#sol=60b048197f431e62fb6fbb445eba5ad74708ccab</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>RK Recruitment Pte. Ltd.</t>
+          <t>Hotel Indigo Singapore Katong</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Part time job</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Marine Parade', ', Central Region']</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -8416,37 +8416,37 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Senior Test Engineer (Microsoft Dynamics CRM &amp; Test Automation) (Ref 25947)</t>
+          <t>Banking Sales Officer (Bank| Up to $3.1k) East</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>81994240</t>
+          <t>81995673</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994240?type=standard&amp;ref=search-standalone#sol=212f4d06e2146d72465f658ef8aa81fe79e59d29</t>
+          <t>https://sg.jobstreet.com/job/81995673?type=standard&amp;ref=search-standalone#sol=760cfac7fbd581fc14acfda87d23fa29c95fcf3c</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>Adecco Personnel Pte Ltd.</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -8458,27 +8458,27 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Senior HR &amp; Admin Assistant</t>
+          <t>Banking - Reconciliation Officer (up to $5k/East)</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>81994239</t>
+          <t>81995631</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994239?type=standard&amp;ref=search-standalone#sol=0e459ddc0d86766438a22d69fc23f5b1bddd9ec4</t>
+          <t>https://sg.jobstreet.com/job/81995631?type=standard&amp;ref=search-standalone#sol=85d7a36cee303d511f24b06d95edc65662213283</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>Adecco Personnel Pte Ltd.</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>['East Coast', ', Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -8500,17 +8500,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>QA/QC Engineer</t>
+          <t>HR &amp; Office Administrator</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>81994065</t>
+          <t>81995542</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81994065?type=standard&amp;ref=search-standalone#sol=943e3c9d9f23438735399e97b54f591bb4fd04fb</t>
+          <t>https://sg.jobstreet.com/job/81995542?type=standard&amp;ref=search-standalone#sol=568757e1251b93188da98c24a0ecf348302f4eba</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>$7,000 – $9,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -8530,7 +8530,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>['Tampines North', ', East Region']</t>
+          <t>['Tampines', ', East Region']</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -8542,27 +8542,27 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Retail Sales Associate (Beauty/ High Comm/ Islandwide) GN9</t>
+          <t>Marketing / Partnership Executive - Content Creator / Event</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>81992328</t>
+          <t>81993760</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81992328?type=standard&amp;ref=search-standalone#sol=f23378c0fb230c55fb4aece17252d0abddbf50a5</t>
+          <t>https://sg.jobstreet.com/job/81993760?type=standard&amp;ref=search-standalone#sol=7543a6f69ff27e0b7b9d93092dc6d39b7871709c</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>MCI Career Services Pte Ltd</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>$2,200 – $3,000 per month</t>
+          <t>$2,800 – $3,300 per month</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>['Orchard', ', Central Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -8584,27 +8584,27 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Pharmacy Assistant (Temp)</t>
+          <t>Facilities Executive @ Tampines (Retail industry)</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>81992192</t>
+          <t>81993721</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81992192?type=standard&amp;ref=search-standalone#sol=bcccf08b2104088783cd365ce4681f0fe60dde99</t>
+          <t>https://sg.jobstreet.com/job/81993721?type=standard&amp;ref=search-standalone#sol=e61070a057b49248682cceabec89c933df195c4e</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Sengkang General Hospital Pte. Ltd.</t>
+          <t>PERSOLKELLY Singapore Pte Ltd (Formerly Kelly Services Singapore Pte Ltd)</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>$2,200 – $3,000 per month</t>
+          <t>$2,800 – $3,300 per month</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -8614,7 +8614,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>['Sengkang', ', North-East Region']</t>
+          <t>['Tampines North', ', East Region']</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -8626,27 +8626,27 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Healthcare Digital Marketing Senior Executive, Corporate Communications</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>81992203</t>
+          <t>81993670</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81992203?type=standard&amp;ref=search-standalone#sol=f33a4178c22fea4c056fd86e82a31b339b2feec4</t>
+          <t>https://sg.jobstreet.com/job/81993670?type=standard&amp;ref=search-standalone#sol=17dfe5fc37b858a8e14e7409df2c6b9691560c71</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>JOBSTUDIO PTE LTD</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>$2,200 – $3,000 per month</t>
+          <t>$2,800 – $3,300 per month</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -8668,27 +8668,27 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Technician, Cars / Automotive (Penjuru Crescent / Up to $2800 / VB)</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>81992202</t>
+          <t>81993657</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81992202?type=standard&amp;ref=search-standalone#sol=503ad9e71c8b88a1b825f6d9441afe0f249ccfa1</t>
+          <t>https://sg.jobstreet.com/job/81993657?type=standard&amp;ref=search-standalone#sol=598b1776f03be75cccf27868d5c01406a37c6249</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Adecco Personnel Pte Ltd.</t>
+          <t>ALWAYSHIRED PTE. LTD.</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>$2,200 – $3,000 per month</t>
+          <t>$2,800 – $3,300 per month</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Penjuru Crescent', ', West Region']</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -8710,37 +8710,37 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>School Admin Executive - UP $4500, Pioneer, 1 Year Contract</t>
+          <t>Senior Manager, Park Operations (Health &amp; Safety)</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>81992116</t>
+          <t>81993660</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81992116?type=standard&amp;ref=search-standalone#sol=9ed240cf8bd24fba5ea36111025f0c3061cad2f9</t>
+          <t>https://sg.jobstreet.com/job/81993660?type=standard&amp;ref=search-standalone#sol=9265f824f757f9442ba458434ecd52deb0a74699</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>RecruitFirst Pte. Ltd</t>
+          <t>Mandai Wildlife Group</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>$2,200 – $3,000 per month</t>
+          <t>$2,800 – $3,300 per month</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>['Pioneer', ', West Region']</t>
+          <t>['Mandai', ', North Region']</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -8752,27 +8752,27 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Software Development Engineer</t>
+          <t>Senior Programme Manager (Semiconductor/Photonics)</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>81992110</t>
+          <t>81993582</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81992110?type=standard&amp;ref=search-standalone#sol=129122da5a4d06b5ba53c9e89ef264510c54c33e</t>
+          <t>https://sg.jobstreet.com/job/81993582?type=standard&amp;ref=search-standalone#sol=ddfabe534c817a06ba05964bcf9e8c5795d9e5e2</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Advanced Micro Devices (S) Pte Ltd</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>$2,200 – $3,000 per month</t>
+          <t>$2,800 – $3,300 per month</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>['East Region']</t>
+          <t>['Pioneer', ', West Region']</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8794,27 +8794,27 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Junior Sous Chef / Sous Chef</t>
+          <t>Executive, Air Freight Export (3PL/ Export Shipment)</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>81992084</t>
+          <t>81993556</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81992084?type=standard&amp;ref=search-standalone#sol=a7bdb7613878f2807fc91aa6e90a6721b64bab5a</t>
+          <t>https://sg.jobstreet.com/job/81993556?type=standard&amp;ref=search-standalone#sol=0639efd0a55f3b55d8abd8415f914388316307a5</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Inter Island Manpower Pte Ltd</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>$2,200 – $3,000 per month</t>
+          <t>$2,800 – $3,300 per month</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8836,27 +8836,27 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Logistics Coordinator #73579</t>
+          <t>ASSISTANT NURSE CLINICIAN  UP TO (ELDERLY CARE/ 5 .5 DAYS / YISHUN)</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>81991938</t>
+          <t>81993547</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://sg.jobstreet.com/job/81991938?type=standard&amp;ref=search-standalone#sol=193d584f0791091d9882b2113c2e72b63bd6c99f</t>
+          <t>https://sg.jobstreet.com/job/81993547?type=standard&amp;ref=search-standalone#sol=f4ab2a48f501e6c1c987f9241c369eadf6e5242b</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Anradus Pte. Ltd.</t>
+          <t>Talentvis Singapore Pte Ltd</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>$2,200 – $3,000 per month</t>
+          <t>$2,800 – $3,300 per month</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -8866,7 +8866,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>['Kampong Ubi', ', Central Region']</t>
+          <t>['Yishun Central', ', North Region']</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
